--- a/data/study_search/database_search/processed/post_AS/packages_for_full_text_download/study_set_2.xlsx
+++ b/data/study_search/database_search/processed/post_AS/packages_for_full_text_download/study_set_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franzprante/GitHub/MORPEP/META_CMP/data/data/study_search/database_search/processed/post_AS/packages_for_full_text_download/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C54388-6CF1-A94A-A473-706F6AB90B55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7FC1B3-1FE4-A34D-A261-ABD85073DE7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4980" yWindow="-21100" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-300" yWindow="-21100" windowWidth="29040" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -758,9 +758,6 @@
     <t>Check transformation and periodicity of "inttype" and „dep“.</t>
   </si>
   <si>
-    <t>Transformation of non cumulative gr, Transformation of yearly growth rate, Extract IRF Titus</t>
-  </si>
-  <si>
     <t>5RGFWG3Z</t>
   </si>
   <si>
@@ -2781,6 +2778,9 @@
   </si>
   <si>
     <t>PDF and JSON inconsistent?</t>
+  </si>
+  <si>
+    <t>Transformation of non cumulative gr, Transformation of yearly growth rate,</t>
   </si>
 </sst>
 </file>
@@ -2873,7 +2873,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2898,13 +2898,7 @@
     <xf numFmtId="165" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Predeterminado" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -3169,8 +3163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="AF17" sqref="AF17"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="X23" sqref="X23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3738,83 +3732,81 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:34" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="20">
+    <row r="8" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
         <v>3170</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="3">
         <v>2009</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="3">
         <v>2</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="3">
         <v>91</v>
       </c>
-      <c r="I8" s="21" t="s">
+      <c r="I8" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="J8" s="21" t="s">
+      <c r="J8" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="L8" s="21" t="s">
+      <c r="L8" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="M8" s="21" t="s">
+      <c r="M8" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="N8" s="20">
-        <v>1</v>
-      </c>
-      <c r="O8" s="20">
-        <v>0</v>
-      </c>
-      <c r="P8" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="20">
-        <v>0</v>
-      </c>
-      <c r="R8" s="21" t="s">
+      <c r="N8" s="3">
+        <v>1</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="S8" s="23">
+      <c r="S8" s="6">
         <v>45070</v>
       </c>
-      <c r="T8" s="21" t="s">
+      <c r="T8" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U8" s="20">
-        <v>0</v>
-      </c>
-      <c r="V8" s="21" t="s">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="W8" s="20">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="21" t="s">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="AA8" s="20"/>
-      <c r="AC8" s="20"/>
-      <c r="AD8" s="20"/>
-      <c r="AG8" s="20"/>
-      <c r="AH8" s="26">
-        <v>1</v>
-      </c>
+      <c r="AA8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="12"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
@@ -4914,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="W23" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="5" t="s">
         <v>45</v>
@@ -4929,7 +4921,7 @@
         <v>238</v>
       </c>
       <c r="AF23" s="5" t="s">
-        <v>239</v>
+        <v>913</v>
       </c>
       <c r="AG23" s="3">
         <v>1</v>
@@ -4943,49 +4935,49 @@
         <v>7457</v>
       </c>
       <c r="B24" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="D24" s="5" t="s">
         <v>241</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>242</v>
       </c>
       <c r="E24" s="3">
         <v>2021</v>
       </c>
       <c r="F24" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="I24" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="J24" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="J24" s="5" t="s">
+      <c r="K24" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="K24" s="5" t="s">
+      <c r="L24" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="L24" s="5" t="s">
+      <c r="M24" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="M24" s="5" t="s">
+      <c r="N24" s="3">
+        <v>1</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="5" t="s">
         <v>248</v>
-      </c>
-      <c r="N24" s="3">
-        <v>1</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
-      <c r="R24" s="5" t="s">
-        <v>249</v>
       </c>
       <c r="S24" s="6">
         <v>45070</v>
@@ -5014,19 +5006,19 @@
         <v>5071</v>
       </c>
       <c r="B25" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="D25" s="5" t="s">
         <v>251</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>252</v>
       </c>
       <c r="E25" s="3">
         <v>2004</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G25" s="3">
         <v>86</v>
@@ -5038,28 +5030,28 @@
         <v>51</v>
       </c>
       <c r="J25" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="L25" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="L25" s="5" t="s">
+      <c r="M25" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="M25" s="5" t="s">
+      <c r="N25" s="3">
+        <v>1</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="13" t="s">
         <v>256</v>
-      </c>
-      <c r="N25" s="3">
-        <v>1</v>
-      </c>
-      <c r="O25" s="3">
-        <v>0</v>
-      </c>
-      <c r="P25" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="3">
-        <v>0</v>
-      </c>
-      <c r="R25" s="13" t="s">
-        <v>257</v>
       </c>
       <c r="S25" s="6">
         <v>45070</v>
@@ -5088,19 +5080,19 @@
         <v>4563</v>
       </c>
       <c r="B26" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="D26" s="5" t="s">
         <v>259</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>260</v>
       </c>
       <c r="E26" s="3">
         <v>2013</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G26" s="3">
         <v>3</v>
@@ -5112,28 +5104,28 @@
         <v>51</v>
       </c>
       <c r="J26" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="L26" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="L26" s="5" t="s">
+      <c r="M26" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="M26" s="5" t="s">
+      <c r="N26" s="3">
+        <v>1</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="5" t="s">
         <v>264</v>
-      </c>
-      <c r="N26" s="3">
-        <v>1</v>
-      </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
-      <c r="R26" s="5" t="s">
-        <v>265</v>
       </c>
       <c r="S26" s="6">
         <v>45070</v>
@@ -5151,7 +5143,7 @@
         <v>0</v>
       </c>
       <c r="X26" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Y26" s="5" t="s">
         <v>45</v>
@@ -5162,52 +5154,52 @@
         <v>549</v>
       </c>
       <c r="B27" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="D27" s="5" t="s">
         <v>268</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>269</v>
       </c>
       <c r="E27" s="3">
         <v>2022</v>
       </c>
       <c r="F27" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="H27" s="3" t="s">
         <v>271</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>272</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>51</v>
       </c>
       <c r="J27" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="L27" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="L27" s="5" t="s">
+      <c r="M27" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="M27" s="5" t="s">
+      <c r="N27" s="3">
+        <v>1</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="5" t="s">
         <v>275</v>
-      </c>
-      <c r="N27" s="3">
-        <v>1</v>
-      </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
-      <c r="R27" s="5" t="s">
-        <v>276</v>
       </c>
       <c r="S27" s="6">
         <v>45070</v>
@@ -5233,41 +5225,41 @@
         <v>6975</v>
       </c>
       <c r="B28" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="D28" s="5" t="s">
         <v>278</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>279</v>
       </c>
       <c r="E28" s="3">
         <v>2019</v>
       </c>
       <c r="F28" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="H28" s="3" t="s">
         <v>281</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>282</v>
       </c>
       <c r="I28" s="5" t="s">
         <v>51</v>
       </c>
       <c r="J28" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="K28" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="K28" s="5" t="s">
+      <c r="L28" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="L28" s="5" t="s">
+      <c r="M28" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="M28" s="5" t="s">
-        <v>286</v>
-      </c>
       <c r="N28" s="3">
         <v>1</v>
       </c>
@@ -5281,7 +5273,7 @@
         <v>0</v>
       </c>
       <c r="R28" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="S28" s="6">
         <v>45070</v>
@@ -5302,80 +5294,80 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:34" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="20">
+    <row r="29" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="3">
         <v>550</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="D29" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="D29" s="21" t="s">
+      <c r="E29" s="3">
+        <v>2020</v>
+      </c>
+      <c r="F29" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="E29" s="20">
-        <v>2020</v>
-      </c>
-      <c r="F29" s="21" t="s">
+      <c r="G29" s="3">
+        <v>4</v>
+      </c>
+      <c r="H29" s="3">
+        <v>23</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J29" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="G29" s="20">
-        <v>4</v>
-      </c>
-      <c r="H29" s="20">
-        <v>23</v>
-      </c>
-      <c r="I29" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="J29" s="21" t="s">
+      <c r="L29" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="L29" s="21" t="s">
+      <c r="M29" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="M29" s="21" t="s">
+      <c r="N29" s="3">
+        <v>1</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="N29" s="20">
-        <v>1</v>
-      </c>
-      <c r="O29" s="20">
-        <v>0</v>
-      </c>
-      <c r="P29" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="20">
-        <v>0</v>
-      </c>
-      <c r="R29" s="21" t="s">
-        <v>294</v>
-      </c>
-      <c r="S29" s="23">
+      <c r="S29" s="6">
         <v>45071</v>
       </c>
-      <c r="T29" s="21" t="s">
+      <c r="T29" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U29" s="20">
-        <v>0</v>
-      </c>
-      <c r="W29" s="20">
-        <v>1</v>
-      </c>
-      <c r="Y29" s="21" t="s">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y29" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="AA29" s="20"/>
-      <c r="AC29" s="20"/>
-      <c r="AD29" s="20"/>
-      <c r="AG29" s="20">
-        <v>1</v>
-      </c>
-      <c r="AH29" s="26">
+      <c r="AA29" s="3"/>
+      <c r="AC29" s="3"/>
+      <c r="AD29" s="3"/>
+      <c r="AG29" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH29" s="12">
         <v>0</v>
       </c>
     </row>
@@ -5384,19 +5376,19 @@
         <v>655</v>
       </c>
       <c r="B30" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="D30" s="5" t="s">
         <v>296</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>297</v>
       </c>
       <c r="E30" s="3">
         <v>2020</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G30" s="3">
         <v>2</v>
@@ -5408,28 +5400,28 @@
         <v>51</v>
       </c>
       <c r="J30" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="L30" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="L30" s="5" t="s">
+      <c r="M30" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="M30" s="5" t="s">
+      <c r="N30" s="3">
+        <v>1</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="5" t="s">
         <v>301</v>
-      </c>
-      <c r="N30" s="3">
-        <v>1</v>
-      </c>
-      <c r="O30" s="3">
-        <v>0</v>
-      </c>
-      <c r="P30" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="3">
-        <v>0</v>
-      </c>
-      <c r="R30" s="5" t="s">
-        <v>302</v>
       </c>
       <c r="S30" s="6">
         <v>45071</v>
@@ -5444,7 +5436,7 @@
         <v>0</v>
       </c>
       <c r="X30" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="Y30" s="5" t="s">
         <v>45</v>
@@ -5455,19 +5447,19 @@
         <v>10696</v>
       </c>
       <c r="B31" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="D31" s="5" t="s">
         <v>305</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>306</v>
       </c>
       <c r="E31" s="3">
         <v>2019</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G31" s="3">
         <v>1</v>
@@ -5479,28 +5471,28 @@
         <v>51</v>
       </c>
       <c r="J31" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="L31" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="L31" s="5" t="s">
+      <c r="M31" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="M31" s="5" t="s">
+      <c r="N31" s="3">
+        <v>1</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="5" t="s">
         <v>310</v>
-      </c>
-      <c r="N31" s="3">
-        <v>1</v>
-      </c>
-      <c r="O31" s="3">
-        <v>0</v>
-      </c>
-      <c r="P31" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="3">
-        <v>0</v>
-      </c>
-      <c r="R31" s="5" t="s">
-        <v>311</v>
       </c>
       <c r="S31" s="6">
         <v>45071</v>
@@ -5529,19 +5521,19 @@
         <v>10409</v>
       </c>
       <c r="B32" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="D32" s="5" t="s">
         <v>313</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>314</v>
       </c>
       <c r="E32" s="3">
         <v>2020</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G32" s="3">
         <v>2</v>
@@ -5553,25 +5545,25 @@
         <v>51</v>
       </c>
       <c r="J32" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="M32" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="M32" s="5" t="s">
+      <c r="N32" s="3">
+        <v>1</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="5" t="s">
         <v>317</v>
-      </c>
-      <c r="N32" s="3">
-        <v>1</v>
-      </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="5" t="s">
-        <v>318</v>
       </c>
       <c r="S32" s="6">
         <v>45071</v>
@@ -5600,19 +5592,19 @@
         <v>1026</v>
       </c>
       <c r="B33" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="C33" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="D33" s="15" t="s">
         <v>320</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>321</v>
       </c>
       <c r="E33" s="14">
         <v>2016</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
@@ -5620,28 +5612,28 @@
         <v>38</v>
       </c>
       <c r="J33" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="L33" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="L33" s="15" t="s">
+      <c r="M33" s="15" t="s">
         <v>324</v>
       </c>
-      <c r="M33" s="15" t="s">
+      <c r="N33" s="14">
+        <v>1</v>
+      </c>
+      <c r="O33" s="14">
+        <v>0</v>
+      </c>
+      <c r="P33" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="14">
+        <v>0</v>
+      </c>
+      <c r="R33" s="15" t="s">
         <v>325</v>
-      </c>
-      <c r="N33" s="14">
-        <v>1</v>
-      </c>
-      <c r="O33" s="14">
-        <v>0</v>
-      </c>
-      <c r="P33" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="14">
-        <v>0</v>
-      </c>
-      <c r="R33" s="15" t="s">
-        <v>326</v>
       </c>
       <c r="S33" s="17">
         <v>45071</v>
@@ -5673,19 +5665,19 @@
         <v>8798</v>
       </c>
       <c r="B34" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="D34" s="5" t="s">
         <v>328</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>329</v>
       </c>
       <c r="E34" s="3">
         <v>2014</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G34" s="3">
         <v>1</v>
@@ -5697,28 +5689,28 @@
         <v>51</v>
       </c>
       <c r="J34" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="L34" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="L34" s="5" t="s">
+      <c r="M34" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="M34" s="5" t="s">
+      <c r="N34" s="3">
+        <v>1</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="5" t="s">
         <v>333</v>
-      </c>
-      <c r="N34" s="3">
-        <v>1</v>
-      </c>
-      <c r="O34" s="3">
-        <v>0</v>
-      </c>
-      <c r="P34" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="3">
-        <v>0</v>
-      </c>
-      <c r="R34" s="5" t="s">
-        <v>334</v>
       </c>
       <c r="S34" s="6">
         <v>45071</v>
@@ -5744,19 +5736,19 @@
         <v>1283</v>
       </c>
       <c r="B35" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="D35" s="5" t="s">
         <v>336</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>337</v>
       </c>
       <c r="E35" s="3">
         <v>2021</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G35" s="3">
         <v>2</v>
@@ -5768,28 +5760,28 @@
         <v>51</v>
       </c>
       <c r="J35" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="L35" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="L35" s="5" t="s">
+      <c r="M35" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="M35" s="5" t="s">
+      <c r="N35" s="3">
+        <v>1</v>
+      </c>
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="5" t="s">
         <v>341</v>
-      </c>
-      <c r="N35" s="3">
-        <v>1</v>
-      </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
-      <c r="R35" s="5" t="s">
-        <v>342</v>
       </c>
       <c r="S35" s="6">
         <v>45071</v>
@@ -5801,13 +5793,13 @@
         <v>0</v>
       </c>
       <c r="V35" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="5" t="s">
         <v>343</v>
-      </c>
-      <c r="W35" s="3">
-        <v>0</v>
-      </c>
-      <c r="X35" s="5" t="s">
-        <v>344</v>
       </c>
       <c r="Y35" s="5" t="s">
         <v>45</v>
@@ -5818,19 +5810,19 @@
         <v>4266</v>
       </c>
       <c r="B36" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="D36" s="5" t="s">
         <v>346</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>347</v>
       </c>
       <c r="E36" s="3">
         <v>2005</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G36" s="3">
         <v>1</v>
@@ -5842,28 +5834,28 @@
         <v>51</v>
       </c>
       <c r="J36" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="L36" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="L36" s="5" t="s">
+      <c r="M36" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="M36" s="5" t="s">
+      <c r="N36" s="3">
+        <v>1</v>
+      </c>
+      <c r="O36" s="3">
+        <v>0</v>
+      </c>
+      <c r="P36" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="3">
+        <v>0</v>
+      </c>
+      <c r="R36" s="5" t="s">
         <v>351</v>
-      </c>
-      <c r="N36" s="3">
-        <v>1</v>
-      </c>
-      <c r="O36" s="3">
-        <v>0</v>
-      </c>
-      <c r="P36" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="3">
-        <v>0</v>
-      </c>
-      <c r="R36" s="5" t="s">
-        <v>352</v>
       </c>
       <c r="S36" s="6">
         <v>45071</v>
@@ -5878,7 +5870,7 @@
         <v>0</v>
       </c>
       <c r="X36" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="Y36" s="5" t="s">
         <v>45</v>
@@ -5889,19 +5881,19 @@
         <v>1730</v>
       </c>
       <c r="B37" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="D37" s="5" t="s">
         <v>355</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>356</v>
       </c>
       <c r="E37" s="3">
         <v>2018</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G37" s="3">
         <v>11</v>
@@ -5913,31 +5905,31 @@
         <v>51</v>
       </c>
       <c r="J37" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="K37" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="K37" s="5" t="s">
+      <c r="L37" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="L37" s="5" t="s">
+      <c r="M37" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="M37" s="5" t="s">
+      <c r="N37" s="3">
+        <v>1</v>
+      </c>
+      <c r="O37" s="3">
+        <v>0</v>
+      </c>
+      <c r="P37" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="3">
+        <v>0</v>
+      </c>
+      <c r="R37" s="5" t="s">
         <v>361</v>
-      </c>
-      <c r="N37" s="3">
-        <v>1</v>
-      </c>
-      <c r="O37" s="3">
-        <v>0</v>
-      </c>
-      <c r="P37" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="3">
-        <v>0</v>
-      </c>
-      <c r="R37" s="5" t="s">
-        <v>362</v>
       </c>
       <c r="S37" s="6">
         <v>45071</v>
@@ -5955,7 +5947,7 @@
         <v>0</v>
       </c>
       <c r="X37" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="Y37" s="5" t="s">
         <v>45</v>
@@ -5966,19 +5958,19 @@
         <v>804</v>
       </c>
       <c r="B38" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="D38" s="5" t="s">
         <v>365</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>366</v>
       </c>
       <c r="E38" s="3">
         <v>2015</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G38" s="3">
         <v>2</v>
@@ -5990,28 +5982,28 @@
         <v>51</v>
       </c>
       <c r="J38" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="L38" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="L38" s="5" t="s">
+      <c r="M38" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="M38" s="5" t="s">
+      <c r="N38" s="3">
+        <v>1</v>
+      </c>
+      <c r="O38" s="3">
+        <v>0</v>
+      </c>
+      <c r="P38" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="3">
+        <v>0</v>
+      </c>
+      <c r="R38" s="5" t="s">
         <v>370</v>
-      </c>
-      <c r="N38" s="3">
-        <v>1</v>
-      </c>
-      <c r="O38" s="3">
-        <v>0</v>
-      </c>
-      <c r="P38" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="3">
-        <v>0</v>
-      </c>
-      <c r="R38" s="5" t="s">
-        <v>371</v>
       </c>
       <c r="S38" s="6">
         <v>45071</v>
@@ -6026,7 +6018,7 @@
         <v>0</v>
       </c>
       <c r="X38" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="Y38" s="5" t="s">
         <v>45</v>
@@ -6037,19 +6029,19 @@
         <v>6477</v>
       </c>
       <c r="B39" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="D39" s="5" t="s">
         <v>374</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>375</v>
       </c>
       <c r="E39" s="3">
         <v>2021</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H39" s="3">
         <v>4</v>
@@ -6058,31 +6050,31 @@
         <v>51</v>
       </c>
       <c r="J39" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="K39" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="K39" s="5" t="s">
+      <c r="L39" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="L39" s="5" t="s">
+      <c r="M39" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="M39" s="5" t="s">
+      <c r="N39" s="3">
+        <v>1</v>
+      </c>
+      <c r="O39" s="3">
+        <v>0</v>
+      </c>
+      <c r="P39" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="3">
+        <v>0</v>
+      </c>
+      <c r="R39" s="5" t="s">
         <v>380</v>
-      </c>
-      <c r="N39" s="3">
-        <v>1</v>
-      </c>
-      <c r="O39" s="3">
-        <v>0</v>
-      </c>
-      <c r="P39" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="3">
-        <v>0</v>
-      </c>
-      <c r="R39" s="5" t="s">
-        <v>381</v>
       </c>
       <c r="S39" s="6">
         <v>45071</v>
@@ -6100,7 +6092,7 @@
         <v>0</v>
       </c>
       <c r="X39" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="Y39" s="5" t="s">
         <v>45</v>
@@ -6111,19 +6103,19 @@
         <v>9224</v>
       </c>
       <c r="B40" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="D40" s="5" t="s">
         <v>384</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>385</v>
       </c>
       <c r="E40" s="3">
         <v>2004</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G40" s="3">
         <v>8</v>
@@ -6135,31 +6127,31 @@
         <v>51</v>
       </c>
       <c r="J40" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="K40" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="K40" s="5" t="s">
+      <c r="L40" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="L40" s="5" t="s">
+      <c r="M40" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="M40" s="5" t="s">
+      <c r="N40" s="3">
+        <v>1</v>
+      </c>
+      <c r="O40" s="3">
+        <v>0</v>
+      </c>
+      <c r="P40" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="3">
+        <v>0</v>
+      </c>
+      <c r="R40" s="5" t="s">
         <v>390</v>
-      </c>
-      <c r="N40" s="3">
-        <v>1</v>
-      </c>
-      <c r="O40" s="3">
-        <v>0</v>
-      </c>
-      <c r="P40" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="3">
-        <v>0</v>
-      </c>
-      <c r="R40" s="5" t="s">
-        <v>391</v>
       </c>
       <c r="S40" s="6">
         <v>45071</v>
@@ -6180,84 +6172,84 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:34" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="20">
+    <row r="41" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="3">
         <v>10188</v>
       </c>
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="C41" s="21" t="s">
+      <c r="D41" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="D41" s="21" t="s">
+      <c r="E41" s="3">
+        <v>2023</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="J41" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="E41" s="20">
-        <v>2023</v>
-      </c>
-      <c r="F41" s="21" t="s">
-        <v>322</v>
-      </c>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="21" t="s">
-        <v>322</v>
-      </c>
-      <c r="J41" s="21" t="s">
+      <c r="M41" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="M41" s="21" t="s">
+      <c r="N41" s="3">
+        <v>1</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="N41" s="20">
-        <v>1</v>
-      </c>
-      <c r="O41" s="20">
-        <v>0</v>
-      </c>
-      <c r="P41" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="20">
-        <v>0</v>
-      </c>
-      <c r="R41" s="21" t="s">
+      <c r="S41" s="6">
+        <v>45071</v>
+      </c>
+      <c r="T41" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="S41" s="23">
-        <v>45071</v>
-      </c>
-      <c r="T41" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="U41" s="20">
-        <v>0</v>
-      </c>
-      <c r="V41" s="21" t="s">
+      <c r="W41" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y41" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA41" s="3"/>
+      <c r="AC41" s="3"/>
+      <c r="AD41" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE41" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="W41" s="20">
-        <v>1</v>
-      </c>
-      <c r="Y41" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA41" s="20"/>
-      <c r="AC41" s="20"/>
-      <c r="AD41" s="20">
-        <v>1</v>
-      </c>
-      <c r="AE41" s="21" t="s">
+      <c r="AF41" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="AF41" s="21" t="s">
-        <v>400</v>
-      </c>
-      <c r="AG41" s="20">
-        <v>1</v>
-      </c>
-      <c r="AH41" s="26">
+      <c r="AG41" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH41" s="12">
         <v>0</v>
       </c>
     </row>
@@ -6266,49 +6258,49 @@
         <v>7818</v>
       </c>
       <c r="B42" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="D42" s="5" t="s">
         <v>402</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>403</v>
       </c>
       <c r="E42" s="3">
         <v>2021</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H42" s="3">
         <v>4</v>
       </c>
       <c r="I42" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="J42" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="J42" s="5" t="s">
+      <c r="L42" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="L42" s="5" t="s">
+      <c r="M42" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="M42" s="5" t="s">
+      <c r="N42" s="3">
+        <v>1</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="5" t="s">
         <v>408</v>
-      </c>
-      <c r="N42" s="3">
-        <v>1</v>
-      </c>
-      <c r="O42" s="3">
-        <v>0</v>
-      </c>
-      <c r="P42" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>0</v>
-      </c>
-      <c r="R42" s="5" t="s">
-        <v>409</v>
       </c>
       <c r="S42" s="6">
         <v>45071</v>
@@ -6337,13 +6329,13 @@
         <v>6654</v>
       </c>
       <c r="B43" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="D43" s="5" t="s">
         <v>411</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>412</v>
       </c>
       <c r="E43" s="3">
         <v>2012</v>
@@ -6361,28 +6353,28 @@
         <v>51</v>
       </c>
       <c r="J43" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="L43" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="L43" s="5" t="s">
+      <c r="M43" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="M43" s="5" t="s">
+      <c r="N43" s="3">
+        <v>1</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="5" t="s">
         <v>415</v>
-      </c>
-      <c r="N43" s="3">
-        <v>1</v>
-      </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
-      <c r="R43" s="5" t="s">
-        <v>416</v>
       </c>
       <c r="S43" s="6">
         <v>45071</v>
@@ -6400,7 +6392,7 @@
         <v>0</v>
       </c>
       <c r="X43" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Y43" s="5" t="s">
         <v>45</v>
@@ -6411,19 +6403,19 @@
         <v>5105</v>
       </c>
       <c r="B44" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="D44" s="5" t="s">
         <v>419</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>420</v>
       </c>
       <c r="E44" s="3">
         <v>2001</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G44" s="3">
         <v>2</v>
@@ -6435,28 +6427,28 @@
         <v>51</v>
       </c>
       <c r="J44" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="L44" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="L44" s="5" t="s">
+      <c r="M44" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="M44" s="5" t="s">
+      <c r="N44" s="3">
+        <v>1</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="5" t="s">
         <v>424</v>
-      </c>
-      <c r="N44" s="3">
-        <v>1</v>
-      </c>
-      <c r="O44" s="3">
-        <v>0</v>
-      </c>
-      <c r="P44" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>0</v>
-      </c>
-      <c r="R44" s="5" t="s">
-        <v>425</v>
       </c>
       <c r="S44" s="6">
         <v>45071</v>
@@ -6471,7 +6463,7 @@
         <v>0</v>
       </c>
       <c r="X44" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="Y44" s="5" t="s">
         <v>45</v>
@@ -6482,19 +6474,19 @@
         <v>782</v>
       </c>
       <c r="B45" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="D45" s="5" t="s">
         <v>428</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>429</v>
       </c>
       <c r="E45" s="3">
         <v>2019</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G45" s="3">
         <v>4</v>
@@ -6506,28 +6498,28 @@
         <v>51</v>
       </c>
       <c r="J45" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="L45" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="L45" s="5" t="s">
+      <c r="M45" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="M45" s="5" t="s">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="5" t="s">
         <v>433</v>
-      </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
-      <c r="R45" s="5" t="s">
-        <v>434</v>
       </c>
       <c r="S45" s="6">
         <v>45071</v>
@@ -6539,13 +6531,13 @@
         <v>0</v>
       </c>
       <c r="V45" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="5" t="s">
         <v>435</v>
-      </c>
-      <c r="W45" s="3">
-        <v>0</v>
-      </c>
-      <c r="X45" s="5" t="s">
-        <v>436</v>
       </c>
       <c r="Y45" s="5" t="s">
         <v>45</v>
@@ -6554,7 +6546,7 @@
         <v>1</v>
       </c>
       <c r="AE45" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="46" spans="1:34" x14ac:dyDescent="0.15">
@@ -6562,19 +6554,19 @@
         <v>9070</v>
       </c>
       <c r="B46" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="D46" s="5" t="s">
         <v>439</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>440</v>
       </c>
       <c r="E46" s="3">
         <v>2022</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G46" s="3">
         <v>1</v>
@@ -6586,31 +6578,31 @@
         <v>51</v>
       </c>
       <c r="J46" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="K46" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="K46" s="5" t="s">
+      <c r="L46" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="L46" s="5" t="s">
+      <c r="M46" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="M46" s="5" t="s">
+      <c r="N46" s="3">
+        <v>1</v>
+      </c>
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="5" t="s">
         <v>445</v>
-      </c>
-      <c r="N46" s="3">
-        <v>1</v>
-      </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>0</v>
-      </c>
-      <c r="R46" s="5" t="s">
-        <v>446</v>
       </c>
       <c r="S46" s="6">
         <v>45071</v>
@@ -6625,7 +6617,7 @@
         <v>0</v>
       </c>
       <c r="X46" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="Y46" s="5" t="s">
         <v>45</v>
@@ -6636,19 +6628,19 @@
         <v>7095</v>
       </c>
       <c r="B47" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="D47" s="5" t="s">
         <v>448</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>449</v>
       </c>
       <c r="E47" s="3">
         <v>2021</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G47" s="3">
         <v>5</v>
@@ -6660,14 +6652,14 @@
         <v>51</v>
       </c>
       <c r="J47" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="L47" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="L47" s="5" t="s">
+      <c r="M47" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="M47" s="5" t="s">
-        <v>453</v>
-      </c>
       <c r="N47" s="3">
         <v>1</v>
       </c>
@@ -6681,7 +6673,7 @@
         <v>0</v>
       </c>
       <c r="R47" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="S47" s="6">
         <v>45071</v>
@@ -6707,46 +6699,46 @@
         <v>5258</v>
       </c>
       <c r="B48" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="D48" s="5" t="s">
         <v>455</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>456</v>
       </c>
       <c r="E48" s="3">
         <v>2011</v>
       </c>
       <c r="F48" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="J48" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="I48" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="J48" s="5" t="s">
+      <c r="L48" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="L48" s="5" t="s">
+      <c r="M48" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="M48" s="5" t="s">
+      <c r="N48" s="3">
+        <v>1</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="5" t="s">
         <v>460</v>
-      </c>
-      <c r="N48" s="3">
-        <v>1</v>
-      </c>
-      <c r="O48" s="3">
-        <v>0</v>
-      </c>
-      <c r="P48" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>0</v>
-      </c>
-      <c r="R48" s="5" t="s">
-        <v>461</v>
       </c>
       <c r="S48" s="6">
         <v>45071</v>
@@ -6775,19 +6767,19 @@
         <v>856</v>
       </c>
       <c r="B49" s="15" t="s">
+        <v>461</v>
+      </c>
+      <c r="C49" s="15" t="s">
         <v>462</v>
       </c>
-      <c r="C49" s="15" t="s">
+      <c r="D49" s="15" t="s">
         <v>463</v>
-      </c>
-      <c r="D49" s="15" t="s">
-        <v>464</v>
       </c>
       <c r="E49" s="14">
         <v>2016</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G49" s="14"/>
       <c r="H49" s="14">
@@ -6797,28 +6789,28 @@
         <v>51</v>
       </c>
       <c r="J49" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="L49" s="15" t="s">
         <v>466</v>
       </c>
-      <c r="L49" s="15" t="s">
+      <c r="M49" s="15" t="s">
         <v>467</v>
       </c>
-      <c r="M49" s="15" t="s">
+      <c r="N49" s="14">
+        <v>1</v>
+      </c>
+      <c r="O49" s="14">
+        <v>0</v>
+      </c>
+      <c r="P49" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="14">
+        <v>0</v>
+      </c>
+      <c r="R49" s="15" t="s">
         <v>468</v>
-      </c>
-      <c r="N49" s="14">
-        <v>1</v>
-      </c>
-      <c r="O49" s="14">
-        <v>0</v>
-      </c>
-      <c r="P49" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="14">
-        <v>0</v>
-      </c>
-      <c r="R49" s="15" t="s">
-        <v>469</v>
       </c>
       <c r="S49" s="17">
         <v>45071</v>
@@ -6850,52 +6842,52 @@
         <v>7708</v>
       </c>
       <c r="B50" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="C50" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="D50" s="5" t="s">
         <v>471</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>472</v>
       </c>
       <c r="E50" s="3">
         <v>2013</v>
       </c>
       <c r="F50" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="G50" s="3">
+        <v>1</v>
+      </c>
+      <c r="H50" s="3" t="s">
         <v>473</v>
-      </c>
-      <c r="G50" s="3">
-        <v>1</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>474</v>
       </c>
       <c r="I50" s="5" t="s">
         <v>51</v>
       </c>
       <c r="J50" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="L50" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="L50" s="5" t="s">
+      <c r="M50" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="M50" s="5" t="s">
+      <c r="N50" s="3">
+        <v>1</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="5" t="s">
         <v>477</v>
-      </c>
-      <c r="N50" s="3">
-        <v>1</v>
-      </c>
-      <c r="O50" s="3">
-        <v>0</v>
-      </c>
-      <c r="P50" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="3">
-        <v>0</v>
-      </c>
-      <c r="R50" s="5" t="s">
-        <v>478</v>
       </c>
       <c r="S50" s="6">
         <v>45071</v>
@@ -6913,7 +6905,7 @@
         <v>0</v>
       </c>
       <c r="X50" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="Y50" s="5" t="s">
         <v>45</v>
@@ -6924,19 +6916,19 @@
         <v>512</v>
       </c>
       <c r="B51" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="D51" s="5" t="s">
         <v>480</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>481</v>
       </c>
       <c r="E51" s="3">
         <v>2008</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G51" s="3">
         <v>1</v>
@@ -6948,31 +6940,31 @@
         <v>51</v>
       </c>
       <c r="J51" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="K51" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="K51" s="5" t="s">
+      <c r="L51" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="L51" s="5" t="s">
+      <c r="M51" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="M51" s="5" t="s">
+      <c r="N51" s="3">
+        <v>1</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="5" t="s">
         <v>486</v>
-      </c>
-      <c r="N51" s="3">
-        <v>1</v>
-      </c>
-      <c r="O51" s="3">
-        <v>0</v>
-      </c>
-      <c r="P51" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="3">
-        <v>0</v>
-      </c>
-      <c r="R51" s="5" t="s">
-        <v>487</v>
       </c>
       <c r="S51" s="6">
         <v>45071</v>
@@ -6990,7 +6982,7 @@
         <v>0</v>
       </c>
       <c r="X51" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="Y51" s="5" t="s">
         <v>45</v>
@@ -6999,7 +6991,7 @@
         <v>1</v>
       </c>
       <c r="AE51" s="5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="52" spans="1:34" x14ac:dyDescent="0.15">
@@ -7007,19 +6999,19 @@
         <v>6376</v>
       </c>
       <c r="B52" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="C52" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="D52" s="5" t="s">
         <v>491</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>492</v>
       </c>
       <c r="E52" s="3">
         <v>2008</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G52" s="3">
         <v>2</v>
@@ -7031,31 +7023,31 @@
         <v>51</v>
       </c>
       <c r="J52" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="K52" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="K52" s="5" t="s">
+      <c r="L52" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="L52" s="5" t="s">
+      <c r="M52" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="M52" s="5" t="s">
+      <c r="N52" s="3">
+        <v>1</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="5" t="s">
         <v>497</v>
-      </c>
-      <c r="N52" s="3">
-        <v>1</v>
-      </c>
-      <c r="O52" s="3">
-        <v>0</v>
-      </c>
-      <c r="P52" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>0</v>
-      </c>
-      <c r="R52" s="5" t="s">
-        <v>498</v>
       </c>
       <c r="S52" s="6">
         <v>45071</v>
@@ -7073,7 +7065,7 @@
         <v>0</v>
       </c>
       <c r="X52" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="Y52" s="5" t="s">
         <v>45</v>
@@ -7082,7 +7074,7 @@
         <v>1</v>
       </c>
       <c r="AE52" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="53" spans="1:34" x14ac:dyDescent="0.15">
@@ -7090,19 +7082,19 @@
         <v>10261</v>
       </c>
       <c r="B53" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="C53" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="D53" s="5" t="s">
         <v>500</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>501</v>
       </c>
       <c r="E53" s="3">
         <v>2014</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H53" s="3">
         <v>34</v>
@@ -7111,31 +7103,31 @@
         <v>51</v>
       </c>
       <c r="J53" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="K53" s="5" t="s">
         <v>503</v>
       </c>
-      <c r="K53" s="5" t="s">
+      <c r="L53" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="L53" s="5" t="s">
+      <c r="M53" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="M53" s="5" t="s">
+      <c r="N53" s="3">
+        <v>1</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="5" t="s">
         <v>506</v>
-      </c>
-      <c r="N53" s="3">
-        <v>1</v>
-      </c>
-      <c r="O53" s="3">
-        <v>0</v>
-      </c>
-      <c r="P53" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="3">
-        <v>0</v>
-      </c>
-      <c r="R53" s="5" t="s">
-        <v>507</v>
       </c>
       <c r="S53" s="6">
         <v>45071</v>
@@ -7150,7 +7142,7 @@
         <v>0</v>
       </c>
       <c r="X53" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="Y53" s="5" t="s">
         <v>45</v>
@@ -7161,19 +7153,19 @@
         <v>1335</v>
       </c>
       <c r="B54" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="D54" s="5" t="s">
         <v>510</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>511</v>
       </c>
       <c r="E54" s="3">
         <v>2021</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G54" s="3">
         <v>1</v>
@@ -7185,28 +7177,28 @@
         <v>51</v>
       </c>
       <c r="J54" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="L54" s="5" t="s">
         <v>513</v>
       </c>
-      <c r="L54" s="5" t="s">
+      <c r="M54" s="5" t="s">
         <v>514</v>
       </c>
-      <c r="M54" s="5" t="s">
+      <c r="N54" s="3">
+        <v>1</v>
+      </c>
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+      <c r="R54" s="5" t="s">
         <v>515</v>
-      </c>
-      <c r="N54" s="3">
-        <v>1</v>
-      </c>
-      <c r="O54" s="3">
-        <v>0</v>
-      </c>
-      <c r="P54" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>0</v>
-      </c>
-      <c r="R54" s="5" t="s">
-        <v>516</v>
       </c>
       <c r="S54" s="6">
         <v>45071</v>
@@ -7221,7 +7213,7 @@
         <v>0</v>
       </c>
       <c r="X54" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="Y54" s="5" t="s">
         <v>45</v>
@@ -7232,31 +7224,31 @@
         <v>10139</v>
       </c>
       <c r="B55" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="D55" s="5" t="s">
         <v>519</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>520</v>
       </c>
       <c r="E55" s="3">
         <v>2000</v>
       </c>
       <c r="F55" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="H55" s="3">
+        <v>1</v>
+      </c>
+      <c r="I55" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="H55" s="3">
-        <v>1</v>
-      </c>
-      <c r="I55" s="5" t="s">
+      <c r="J55" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="J55" s="5" t="s">
+      <c r="M55" s="5" t="s">
         <v>523</v>
-      </c>
-      <c r="M55" s="5" t="s">
-        <v>524</v>
       </c>
       <c r="N55" s="3">
         <v>0</v>
@@ -7280,13 +7272,13 @@
         <v>0</v>
       </c>
       <c r="V55" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="W55" s="3">
+        <v>0</v>
+      </c>
+      <c r="X55" s="5" t="s">
         <v>525</v>
-      </c>
-      <c r="W55" s="3">
-        <v>0</v>
-      </c>
-      <c r="X55" s="5" t="s">
-        <v>526</v>
       </c>
       <c r="Y55" s="5" t="s">
         <v>45</v>
@@ -7297,19 +7289,19 @@
         <v>1941</v>
       </c>
       <c r="B56" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="C56" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="D56" s="5" t="s">
         <v>528</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>529</v>
       </c>
       <c r="E56" s="3">
         <v>2008</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G56" s="3">
         <v>1</v>
@@ -7321,28 +7313,28 @@
         <v>51</v>
       </c>
       <c r="J56" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="L56" s="5" t="s">
         <v>531</v>
       </c>
-      <c r="L56" s="5" t="s">
+      <c r="M56" s="5" t="s">
         <v>532</v>
       </c>
-      <c r="M56" s="5" t="s">
+      <c r="N56" s="3">
+        <v>1</v>
+      </c>
+      <c r="O56" s="3">
+        <v>0</v>
+      </c>
+      <c r="P56" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="3">
+        <v>0</v>
+      </c>
+      <c r="R56" s="5" t="s">
         <v>533</v>
-      </c>
-      <c r="N56" s="3">
-        <v>1</v>
-      </c>
-      <c r="O56" s="3">
-        <v>0</v>
-      </c>
-      <c r="P56" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="3">
-        <v>0</v>
-      </c>
-      <c r="R56" s="5" t="s">
-        <v>534</v>
       </c>
       <c r="S56" s="6">
         <v>45071</v>
@@ -7357,7 +7349,7 @@
         <v>0</v>
       </c>
       <c r="X56" s="5" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="Y56" s="5" t="s">
         <v>45</v>
@@ -7368,19 +7360,19 @@
         <v>2796</v>
       </c>
       <c r="B57" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="C57" s="5" t="s">
         <v>536</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="D57" s="5" t="s">
         <v>537</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>538</v>
       </c>
       <c r="E57" s="3">
         <v>1999</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G57" s="3">
         <v>4</v>
@@ -7392,28 +7384,28 @@
         <v>51</v>
       </c>
       <c r="J57" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="L57" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="L57" s="5" t="s">
+      <c r="M57" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="M57" s="5" t="s">
+      <c r="N57" s="3">
+        <v>1</v>
+      </c>
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="5" t="s">
         <v>542</v>
-      </c>
-      <c r="N57" s="3">
-        <v>1</v>
-      </c>
-      <c r="O57" s="3">
-        <v>0</v>
-      </c>
-      <c r="P57" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>0</v>
-      </c>
-      <c r="R57" s="5" t="s">
-        <v>543</v>
       </c>
       <c r="S57" s="6">
         <v>45071</v>
@@ -7434,10 +7426,10 @@
         <v>1</v>
       </c>
       <c r="AE57" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="AF57" s="5" t="s">
         <v>544</v>
-      </c>
-      <c r="AF57" s="5" t="s">
-        <v>545</v>
       </c>
       <c r="AG57" s="3">
         <v>1</v>
@@ -7451,19 +7443,19 @@
         <v>6622</v>
       </c>
       <c r="B58" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="C58" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="D58" s="5" t="s">
         <v>547</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>548</v>
       </c>
       <c r="E58" s="3">
         <v>2018</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H58" s="3">
         <v>10</v>
@@ -7472,25 +7464,25 @@
         <v>51</v>
       </c>
       <c r="J58" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="M58" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="M58" s="5" t="s">
+      <c r="N58" s="3">
+        <v>1</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="5" t="s">
         <v>551</v>
-      </c>
-      <c r="N58" s="3">
-        <v>1</v>
-      </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
-      <c r="R58" s="5" t="s">
-        <v>552</v>
       </c>
       <c r="S58" s="6">
         <v>45071</v>
@@ -7511,13 +7503,13 @@
         <v>45</v>
       </c>
       <c r="Z58" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AD58" s="3">
         <v>1</v>
       </c>
       <c r="AE58" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AF58" s="5"/>
       <c r="AG58" s="3">
@@ -7532,19 +7524,19 @@
         <v>8597</v>
       </c>
       <c r="B59" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="C59" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="D59" s="5" t="s">
         <v>555</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>556</v>
       </c>
       <c r="E59" s="3">
         <v>2016</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G59" s="3">
         <v>4</v>
@@ -7556,31 +7548,31 @@
         <v>51</v>
       </c>
       <c r="J59" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="K59" s="5" t="s">
         <v>558</v>
       </c>
-      <c r="K59" s="5" t="s">
+      <c r="L59" s="5" t="s">
         <v>559</v>
       </c>
-      <c r="L59" s="5" t="s">
+      <c r="M59" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="M59" s="5" t="s">
+      <c r="N59" s="3">
+        <v>1</v>
+      </c>
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="5" t="s">
         <v>561</v>
-      </c>
-      <c r="N59" s="3">
-        <v>1</v>
-      </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
-      <c r="P59" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>0</v>
-      </c>
-      <c r="R59" s="5" t="s">
-        <v>562</v>
       </c>
       <c r="S59" s="6">
         <v>45071</v>
@@ -7595,7 +7587,7 @@
         <v>0</v>
       </c>
       <c r="X59" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="Y59" s="5" t="s">
         <v>45</v>
@@ -7606,19 +7598,19 @@
         <v>2422</v>
       </c>
       <c r="B60" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="C60" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="D60" s="5" t="s">
         <v>565</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>566</v>
       </c>
       <c r="E60" s="3">
         <v>2015</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G60" s="3">
         <v>2</v>
@@ -7630,28 +7622,28 @@
         <v>51</v>
       </c>
       <c r="J60" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="L60" s="5" t="s">
         <v>568</v>
       </c>
-      <c r="L60" s="5" t="s">
+      <c r="M60" s="5" t="s">
         <v>569</v>
       </c>
-      <c r="M60" s="5" t="s">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="5" t="s">
         <v>570</v>
-      </c>
-      <c r="N60" s="3">
-        <v>0</v>
-      </c>
-      <c r="O60" s="3">
-        <v>0</v>
-      </c>
-      <c r="P60" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>0</v>
-      </c>
-      <c r="R60" s="5" t="s">
-        <v>571</v>
       </c>
       <c r="S60" s="6">
         <v>45071</v>
@@ -7663,13 +7655,13 @@
         <v>0</v>
       </c>
       <c r="V60" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="W60" s="3">
         <v>0</v>
       </c>
       <c r="X60" s="5" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="Y60" s="5" t="s">
         <v>45</v>
@@ -7680,19 +7672,19 @@
         <v>9665</v>
       </c>
       <c r="B61" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="C61" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="D61" s="5" t="s">
         <v>574</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>575</v>
       </c>
       <c r="E61" s="3">
         <v>2015</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G61" s="3">
         <v>2</v>
@@ -7704,14 +7696,14 @@
         <v>51</v>
       </c>
       <c r="J61" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="L61" s="5" t="s">
         <v>577</v>
       </c>
-      <c r="L61" s="5" t="s">
+      <c r="M61" s="5" t="s">
         <v>578</v>
       </c>
-      <c r="M61" s="5" t="s">
-        <v>579</v>
-      </c>
       <c r="N61" s="3">
         <v>1</v>
       </c>
@@ -7725,7 +7717,7 @@
         <v>0</v>
       </c>
       <c r="R61" s="5" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="S61" s="6">
         <v>45071</v>
@@ -7740,7 +7732,7 @@
         <v>0</v>
       </c>
       <c r="X61" s="5" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="Y61" s="5" t="s">
         <v>45</v>
@@ -7751,46 +7743,46 @@
         <v>10043</v>
       </c>
       <c r="B62" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="C62" s="5" t="s">
         <v>581</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="D62" s="5" t="s">
         <v>582</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>583</v>
       </c>
       <c r="E62" s="3">
         <v>2002</v>
       </c>
       <c r="F62" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="J62" s="5" t="s">
         <v>584</v>
       </c>
-      <c r="I62" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="J62" s="5" t="s">
+      <c r="L62" s="5" t="s">
         <v>585</v>
       </c>
-      <c r="L62" s="5" t="s">
+      <c r="M62" s="5" t="s">
         <v>586</v>
       </c>
-      <c r="M62" s="5" t="s">
+      <c r="N62" s="3">
+        <v>1</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="5" t="s">
         <v>587</v>
-      </c>
-      <c r="N62" s="3">
-        <v>1</v>
-      </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
-      <c r="R62" s="5" t="s">
-        <v>588</v>
       </c>
       <c r="S62" s="6">
         <v>45071</v>
@@ -7819,19 +7811,19 @@
         <v>7093</v>
       </c>
       <c r="B63" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="C63" s="5" t="s">
         <v>589</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="D63" s="5" t="s">
         <v>590</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>591</v>
       </c>
       <c r="E63" s="3">
         <v>2022</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G63" s="3">
         <v>6</v>
@@ -7843,31 +7835,31 @@
         <v>51</v>
       </c>
       <c r="J63" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="K63" s="5" t="s">
         <v>593</v>
       </c>
-      <c r="K63" s="5" t="s">
+      <c r="L63" s="5" t="s">
         <v>594</v>
       </c>
-      <c r="L63" s="5" t="s">
+      <c r="M63" s="5" t="s">
         <v>595</v>
       </c>
-      <c r="M63" s="5" t="s">
+      <c r="N63" s="3">
+        <v>1</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="5" t="s">
         <v>596</v>
-      </c>
-      <c r="N63" s="3">
-        <v>1</v>
-      </c>
-      <c r="O63" s="3">
-        <v>0</v>
-      </c>
-      <c r="P63" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q63" s="3">
-        <v>0</v>
-      </c>
-      <c r="R63" s="5" t="s">
-        <v>597</v>
       </c>
       <c r="S63" s="6">
         <v>45071</v>
@@ -7882,7 +7874,7 @@
         <v>0</v>
       </c>
       <c r="X63" s="5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y63" s="5" t="s">
         <v>45</v>
@@ -7893,32 +7885,32 @@
         <v>7062</v>
       </c>
       <c r="B64" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="C64" s="5" t="s">
         <v>599</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="D64" s="5" t="s">
         <v>600</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>601</v>
       </c>
       <c r="E64" s="3">
         <v>2022</v>
       </c>
       <c r="F64" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="J64" s="5" t="s">
         <v>602</v>
       </c>
-      <c r="I64" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="J64" s="5" t="s">
+      <c r="L64" s="5" t="s">
         <v>603</v>
       </c>
-      <c r="L64" s="5" t="s">
+      <c r="M64" s="5" t="s">
         <v>604</v>
       </c>
-      <c r="M64" s="5" t="s">
-        <v>605</v>
-      </c>
       <c r="N64" s="3">
         <v>1</v>
       </c>
@@ -7932,7 +7924,7 @@
         <v>0</v>
       </c>
       <c r="R64" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="S64" s="6">
         <v>45071</v>
@@ -7947,7 +7939,7 @@
         <v>0</v>
       </c>
       <c r="X64" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="Y64" s="5" t="s">
         <v>45</v>
@@ -7958,19 +7950,19 @@
         <v>1400</v>
       </c>
       <c r="B65" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="C65" s="5" t="s">
         <v>607</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="D65" s="5" t="s">
         <v>608</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>609</v>
       </c>
       <c r="E65" s="3">
         <v>2018</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G65" s="3">
         <v>2</v>
@@ -7982,28 +7974,28 @@
         <v>51</v>
       </c>
       <c r="J65" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="L65" s="5" t="s">
         <v>611</v>
       </c>
-      <c r="L65" s="5" t="s">
+      <c r="M65" s="5" t="s">
         <v>612</v>
       </c>
-      <c r="M65" s="5" t="s">
+      <c r="N65" s="3">
+        <v>1</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="5" t="s">
         <v>613</v>
-      </c>
-      <c r="N65" s="3">
-        <v>1</v>
-      </c>
-      <c r="O65" s="3">
-        <v>0</v>
-      </c>
-      <c r="P65" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q65" s="3">
-        <v>0</v>
-      </c>
-      <c r="R65" s="5" t="s">
-        <v>614</v>
       </c>
       <c r="S65" s="6">
         <v>45071</v>
@@ -8018,7 +8010,7 @@
         <v>0</v>
       </c>
       <c r="X65" s="5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="Y65" s="5" t="s">
         <v>45</v>
@@ -8029,19 +8021,19 @@
         <v>255</v>
       </c>
       <c r="B66" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="C66" s="5" t="s">
         <v>616</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="D66" s="5" t="s">
         <v>617</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>618</v>
       </c>
       <c r="E66" s="3">
         <v>2017</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H66" s="3">
         <v>92</v>
@@ -8050,28 +8042,28 @@
         <v>51</v>
       </c>
       <c r="J66" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="L66" s="5" t="s">
         <v>619</v>
       </c>
-      <c r="L66" s="5" t="s">
+      <c r="M66" s="5" t="s">
         <v>620</v>
       </c>
-      <c r="M66" s="5" t="s">
+      <c r="N66" s="3">
+        <v>1</v>
+      </c>
+      <c r="O66" s="3">
+        <v>0</v>
+      </c>
+      <c r="P66" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>0</v>
+      </c>
+      <c r="R66" s="5" t="s">
         <v>621</v>
-      </c>
-      <c r="N66" s="3">
-        <v>1</v>
-      </c>
-      <c r="O66" s="3">
-        <v>0</v>
-      </c>
-      <c r="P66" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>0</v>
-      </c>
-      <c r="R66" s="5" t="s">
-        <v>622</v>
       </c>
       <c r="S66" s="6">
         <v>45071</v>
@@ -8097,19 +8089,19 @@
         <v>2976</v>
       </c>
       <c r="B67" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="C67" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="D67" s="5" t="s">
         <v>624</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>625</v>
       </c>
       <c r="E67" s="3">
         <v>2018</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G67" s="3">
         <v>6</v>
@@ -8121,28 +8113,28 @@
         <v>51</v>
       </c>
       <c r="J67" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="L67" s="5" t="s">
         <v>627</v>
       </c>
-      <c r="L67" s="5" t="s">
+      <c r="M67" s="5" t="s">
         <v>628</v>
       </c>
-      <c r="M67" s="5" t="s">
+      <c r="N67" s="3">
+        <v>1</v>
+      </c>
+      <c r="O67" s="3">
+        <v>0</v>
+      </c>
+      <c r="P67" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="3">
+        <v>0</v>
+      </c>
+      <c r="R67" s="5" t="s">
         <v>629</v>
-      </c>
-      <c r="N67" s="3">
-        <v>1</v>
-      </c>
-      <c r="O67" s="3">
-        <v>0</v>
-      </c>
-      <c r="P67" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q67" s="3">
-        <v>0</v>
-      </c>
-      <c r="R67" s="5" t="s">
-        <v>630</v>
       </c>
       <c r="S67" s="6">
         <v>45071</v>
@@ -8168,19 +8160,19 @@
         <v>1219</v>
       </c>
       <c r="B68" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="C68" s="5" t="s">
         <v>631</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="D68" s="5" t="s">
         <v>632</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>633</v>
       </c>
       <c r="E68" s="3">
         <v>2021</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G68" s="3">
         <v>3</v>
@@ -8192,28 +8184,28 @@
         <v>51</v>
       </c>
       <c r="J68" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="L68" s="5" t="s">
         <v>635</v>
       </c>
-      <c r="L68" s="5" t="s">
+      <c r="M68" s="5" t="s">
         <v>636</v>
       </c>
-      <c r="M68" s="5" t="s">
+      <c r="N68" s="3">
+        <v>1</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="5" t="s">
         <v>637</v>
-      </c>
-      <c r="N68" s="3">
-        <v>1</v>
-      </c>
-      <c r="O68" s="3">
-        <v>0</v>
-      </c>
-      <c r="P68" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q68" s="3">
-        <v>0</v>
-      </c>
-      <c r="R68" s="5" t="s">
-        <v>638</v>
       </c>
       <c r="S68" s="6">
         <v>45071</v>
@@ -8243,19 +8235,19 @@
         <v>606</v>
       </c>
       <c r="B69" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="C69" s="5" t="s">
         <v>639</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="D69" s="5" t="s">
         <v>640</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>641</v>
       </c>
       <c r="E69" s="3">
         <v>2021</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H69" s="3">
         <v>61</v>
@@ -8264,28 +8256,28 @@
         <v>51</v>
       </c>
       <c r="J69" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="L69" s="5" t="s">
         <v>643</v>
       </c>
-      <c r="L69" s="5" t="s">
+      <c r="M69" s="5" t="s">
         <v>644</v>
       </c>
-      <c r="M69" s="5" t="s">
+      <c r="N69" s="3">
+        <v>1</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="5" t="s">
         <v>645</v>
-      </c>
-      <c r="N69" s="3">
-        <v>1</v>
-      </c>
-      <c r="O69" s="3">
-        <v>0</v>
-      </c>
-      <c r="P69" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q69" s="3">
-        <v>0</v>
-      </c>
-      <c r="R69" s="5" t="s">
-        <v>646</v>
       </c>
       <c r="S69" s="6">
         <v>45071</v>
@@ -8303,7 +8295,7 @@
         <v>0</v>
       </c>
       <c r="X69" s="5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="Y69" s="5" t="s">
         <v>45</v>
@@ -8314,19 +8306,19 @@
         <v>6539</v>
       </c>
       <c r="B70" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="C70" s="5" t="s">
         <v>648</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="D70" s="5" t="s">
         <v>649</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>650</v>
       </c>
       <c r="E70" s="3">
         <v>2017</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G70" s="3">
         <v>2</v>
@@ -8335,28 +8327,28 @@
         <v>51</v>
       </c>
       <c r="J70" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="L70" s="5" t="s">
         <v>652</v>
       </c>
-      <c r="L70" s="5" t="s">
+      <c r="M70" s="5" t="s">
         <v>653</v>
       </c>
-      <c r="M70" s="5" t="s">
+      <c r="N70" s="3">
+        <v>1</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="5" t="s">
         <v>654</v>
-      </c>
-      <c r="N70" s="3">
-        <v>1</v>
-      </c>
-      <c r="O70" s="3">
-        <v>0</v>
-      </c>
-      <c r="P70" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q70" s="3">
-        <v>0</v>
-      </c>
-      <c r="R70" s="5" t="s">
-        <v>655</v>
       </c>
       <c r="S70" s="6">
         <v>45071</v>
@@ -8368,13 +8360,13 @@
         <v>0</v>
       </c>
       <c r="V70" s="5" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="W70" s="3">
         <v>0</v>
       </c>
       <c r="X70" s="5" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="Y70" s="5" t="s">
         <v>45</v>
@@ -8385,13 +8377,13 @@
         <v>1066</v>
       </c>
       <c r="B71" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="C71" s="5" t="s">
         <v>657</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="D71" s="5" t="s">
         <v>658</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>659</v>
       </c>
       <c r="E71" s="3">
         <v>2007</v>
@@ -8400,28 +8392,28 @@
         <v>180</v>
       </c>
       <c r="J71" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="L71" s="5" t="s">
         <v>660</v>
       </c>
-      <c r="L71" s="5" t="s">
+      <c r="M71" s="5" t="s">
         <v>661</v>
       </c>
-      <c r="M71" s="5" t="s">
+      <c r="N71" s="3">
+        <v>1</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="5" t="s">
         <v>662</v>
-      </c>
-      <c r="N71" s="3">
-        <v>1</v>
-      </c>
-      <c r="O71" s="3">
-        <v>0</v>
-      </c>
-      <c r="P71" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q71" s="3">
-        <v>0</v>
-      </c>
-      <c r="R71" s="5" t="s">
-        <v>663</v>
       </c>
       <c r="S71" s="6">
         <v>45071</v>
@@ -8436,7 +8428,7 @@
         <v>0</v>
       </c>
       <c r="X71" s="5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="Y71" s="5" t="s">
         <v>45</v>
@@ -8447,19 +8439,19 @@
         <v>1786</v>
       </c>
       <c r="B72" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="C72" s="5" t="s">
         <v>665</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="D72" s="5" t="s">
         <v>666</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>667</v>
       </c>
       <c r="E72" s="3">
         <v>2000</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G72" s="3">
         <v>4</v>
@@ -8471,31 +8463,31 @@
         <v>51</v>
       </c>
       <c r="J72" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="K72" s="5" t="s">
         <v>669</v>
       </c>
-      <c r="K72" s="5" t="s">
+      <c r="L72" s="5" t="s">
         <v>670</v>
       </c>
-      <c r="L72" s="5" t="s">
+      <c r="M72" s="5" t="s">
         <v>671</v>
       </c>
-      <c r="M72" s="5" t="s">
+      <c r="N72" s="3">
+        <v>1</v>
+      </c>
+      <c r="O72" s="3">
+        <v>0</v>
+      </c>
+      <c r="P72" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>0</v>
+      </c>
+      <c r="R72" s="5" t="s">
         <v>672</v>
-      </c>
-      <c r="N72" s="3">
-        <v>1</v>
-      </c>
-      <c r="O72" s="3">
-        <v>0</v>
-      </c>
-      <c r="P72" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>0</v>
-      </c>
-      <c r="R72" s="5" t="s">
-        <v>673</v>
       </c>
       <c r="S72" s="6">
         <v>45071</v>
@@ -8510,7 +8502,7 @@
         <v>0</v>
       </c>
       <c r="X72" s="5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="Y72" s="5" t="s">
         <v>45</v>
@@ -8521,19 +8513,19 @@
         <v>10040</v>
       </c>
       <c r="B73" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="C73" s="5" t="s">
         <v>674</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="D73" s="5" t="s">
         <v>675</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>676</v>
       </c>
       <c r="E73" s="3">
         <v>2017</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="G73" s="3">
         <v>3</v>
@@ -8545,31 +8537,31 @@
         <v>51</v>
       </c>
       <c r="J73" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="K73" s="5" t="s">
         <v>678</v>
       </c>
-      <c r="K73" s="5" t="s">
+      <c r="L73" s="5" t="s">
         <v>679</v>
       </c>
-      <c r="L73" s="5" t="s">
+      <c r="M73" s="5" t="s">
         <v>680</v>
       </c>
-      <c r="M73" s="5" t="s">
+      <c r="N73" s="3">
+        <v>1</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="5" t="s">
         <v>681</v>
-      </c>
-      <c r="N73" s="3">
-        <v>1</v>
-      </c>
-      <c r="O73" s="3">
-        <v>0</v>
-      </c>
-      <c r="P73" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q73" s="3">
-        <v>0</v>
-      </c>
-      <c r="R73" s="5" t="s">
-        <v>682</v>
       </c>
       <c r="S73" s="6">
         <v>45071</v>
@@ -8587,7 +8579,7 @@
         <v>0</v>
       </c>
       <c r="X73" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="Y73" s="5" t="s">
         <v>45</v>
@@ -8598,19 +8590,19 @@
         <v>1831</v>
       </c>
       <c r="B74" s="5" t="s">
+        <v>682</v>
+      </c>
+      <c r="C74" s="5" t="s">
         <v>683</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="D74" s="5" t="s">
         <v>684</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>685</v>
       </c>
       <c r="E74" s="3">
         <v>2014</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G74" s="3">
         <v>2</v>
@@ -8622,28 +8614,28 @@
         <v>51</v>
       </c>
       <c r="J74" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="L74" s="5" t="s">
         <v>686</v>
       </c>
-      <c r="L74" s="5" t="s">
+      <c r="M74" s="5" t="s">
         <v>687</v>
       </c>
-      <c r="M74" s="5" t="s">
+      <c r="N74" s="3">
+        <v>1</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="5" t="s">
         <v>688</v>
-      </c>
-      <c r="N74" s="3">
-        <v>1</v>
-      </c>
-      <c r="O74" s="3">
-        <v>0</v>
-      </c>
-      <c r="P74" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q74" s="3">
-        <v>0</v>
-      </c>
-      <c r="R74" s="5" t="s">
-        <v>689</v>
       </c>
       <c r="S74" s="6">
         <v>45076</v>
@@ -8658,7 +8650,7 @@
         <v>0</v>
       </c>
       <c r="X74" s="5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="Y74" s="5" t="s">
         <v>45</v>
@@ -8669,19 +8661,19 @@
         <v>10516</v>
       </c>
       <c r="B75" s="5" t="s">
+        <v>689</v>
+      </c>
+      <c r="C75" s="5" t="s">
         <v>690</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="D75" s="5" t="s">
         <v>691</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>692</v>
       </c>
       <c r="E75" s="3">
         <v>2022</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G75" s="3">
         <v>1</v>
@@ -8693,14 +8685,14 @@
         <v>51</v>
       </c>
       <c r="J75" s="5" t="s">
+        <v>693</v>
+      </c>
+      <c r="L75" s="5" t="s">
         <v>694</v>
       </c>
-      <c r="L75" s="5" t="s">
+      <c r="M75" s="5" t="s">
         <v>695</v>
       </c>
-      <c r="M75" s="5" t="s">
-        <v>696</v>
-      </c>
       <c r="N75" s="3">
         <v>1</v>
       </c>
@@ -8714,7 +8706,7 @@
         <v>0</v>
       </c>
       <c r="R75" s="5" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="S75" s="6">
         <v>45076</v>
@@ -8729,7 +8721,7 @@
         <v>0</v>
       </c>
       <c r="X75" s="5" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="Y75" s="5" t="s">
         <v>45</v>
@@ -8740,19 +8732,19 @@
         <v>577</v>
       </c>
       <c r="B76" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="C76" s="5" t="s">
         <v>698</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="D76" s="5" t="s">
         <v>699</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>700</v>
       </c>
       <c r="E76" s="3">
         <v>2019</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G76" s="3">
         <v>13</v>
@@ -8764,31 +8756,31 @@
         <v>51</v>
       </c>
       <c r="J76" s="5" t="s">
+        <v>701</v>
+      </c>
+      <c r="K76" s="5" t="s">
         <v>702</v>
       </c>
-      <c r="K76" s="5" t="s">
+      <c r="L76" s="5" t="s">
         <v>703</v>
       </c>
-      <c r="L76" s="5" t="s">
+      <c r="M76" s="5" t="s">
         <v>704</v>
       </c>
-      <c r="M76" s="5" t="s">
+      <c r="N76" s="3">
+        <v>1</v>
+      </c>
+      <c r="O76" s="3">
+        <v>0</v>
+      </c>
+      <c r="P76" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>0</v>
+      </c>
+      <c r="R76" s="5" t="s">
         <v>705</v>
-      </c>
-      <c r="N76" s="3">
-        <v>1</v>
-      </c>
-      <c r="O76" s="3">
-        <v>0</v>
-      </c>
-      <c r="P76" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>0</v>
-      </c>
-      <c r="R76" s="5" t="s">
-        <v>706</v>
       </c>
       <c r="S76" s="6">
         <v>45076</v>
@@ -8806,7 +8798,7 @@
         <v>0</v>
       </c>
       <c r="X76" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="Y76" s="5" t="s">
         <v>45</v>
@@ -8817,46 +8809,46 @@
         <v>7647</v>
       </c>
       <c r="B77" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="C77" s="5" t="s">
         <v>707</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="D77" s="5" t="s">
         <v>708</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>709</v>
       </c>
       <c r="E77" s="3">
         <v>2019</v>
       </c>
       <c r="F77" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="J77" s="5" t="s">
         <v>710</v>
       </c>
-      <c r="I77" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="J77" s="5" t="s">
+      <c r="L77" s="5" t="s">
         <v>711</v>
       </c>
-      <c r="L77" s="5" t="s">
+      <c r="M77" s="5" t="s">
         <v>712</v>
       </c>
-      <c r="M77" s="5" t="s">
+      <c r="N77" s="3">
+        <v>1</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="5" t="s">
         <v>713</v>
-      </c>
-      <c r="N77" s="3">
-        <v>1</v>
-      </c>
-      <c r="O77" s="3">
-        <v>0</v>
-      </c>
-      <c r="P77" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q77" s="3">
-        <v>0</v>
-      </c>
-      <c r="R77" s="5" t="s">
-        <v>714</v>
       </c>
       <c r="S77" s="6">
         <v>45076</v>
@@ -8880,7 +8872,7 @@
         <v>1</v>
       </c>
       <c r="AE77" s="5" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="AF77" s="5"/>
       <c r="AG77" s="3">
@@ -8895,43 +8887,43 @@
         <v>7476</v>
       </c>
       <c r="B78" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="C78" s="5" t="s">
         <v>716</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="D78" s="5" t="s">
         <v>717</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>718</v>
       </c>
       <c r="E78" s="3">
         <v>2022</v>
       </c>
       <c r="F78" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="I78" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="J78" s="5" t="s">
         <v>719</v>
       </c>
-      <c r="I78" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="J78" s="5" t="s">
+      <c r="M78" s="5" t="s">
         <v>720</v>
       </c>
-      <c r="M78" s="5" t="s">
+      <c r="N78" s="3">
+        <v>1</v>
+      </c>
+      <c r="O78" s="3">
+        <v>0</v>
+      </c>
+      <c r="P78" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="3">
+        <v>0</v>
+      </c>
+      <c r="R78" s="5" t="s">
         <v>721</v>
-      </c>
-      <c r="N78" s="3">
-        <v>1</v>
-      </c>
-      <c r="O78" s="3">
-        <v>0</v>
-      </c>
-      <c r="P78" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q78" s="3">
-        <v>0</v>
-      </c>
-      <c r="R78" s="5" t="s">
-        <v>722</v>
       </c>
       <c r="S78" s="6">
         <v>45076</v>
@@ -8949,7 +8941,7 @@
         <v>0</v>
       </c>
       <c r="X78" s="5" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="Y78" s="5" t="s">
         <v>45</v>
@@ -8960,19 +8952,19 @@
         <v>1300</v>
       </c>
       <c r="B79" s="5" t="s">
+        <v>723</v>
+      </c>
+      <c r="C79" s="5" t="s">
         <v>724</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="D79" s="5" t="s">
         <v>725</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>726</v>
       </c>
       <c r="E79" s="3">
         <v>2022</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="G79" s="3">
         <v>1</v>
@@ -8984,28 +8976,28 @@
         <v>51</v>
       </c>
       <c r="J79" s="5" t="s">
+        <v>727</v>
+      </c>
+      <c r="L79" s="5" t="s">
         <v>728</v>
       </c>
-      <c r="L79" s="5" t="s">
+      <c r="M79" s="5" t="s">
         <v>729</v>
       </c>
-      <c r="M79" s="5" t="s">
+      <c r="N79" s="3">
+        <v>1</v>
+      </c>
+      <c r="O79" s="3">
+        <v>0</v>
+      </c>
+      <c r="P79" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q79" s="3">
+        <v>0</v>
+      </c>
+      <c r="R79" s="5" t="s">
         <v>730</v>
-      </c>
-      <c r="N79" s="3">
-        <v>1</v>
-      </c>
-      <c r="O79" s="3">
-        <v>0</v>
-      </c>
-      <c r="P79" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q79" s="3">
-        <v>0</v>
-      </c>
-      <c r="R79" s="5" t="s">
-        <v>731</v>
       </c>
       <c r="S79" s="6">
         <v>45076</v>
@@ -9023,7 +9015,7 @@
         <v>0</v>
       </c>
       <c r="X79" s="19" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="Y79" s="5" t="s">
         <v>45</v>
@@ -9044,13 +9036,13 @@
         <v>2896</v>
       </c>
       <c r="B80" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="C80" s="5" t="s">
         <v>732</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="D80" s="5" t="s">
         <v>733</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>734</v>
       </c>
       <c r="E80" s="3">
         <v>2017</v>
@@ -9059,28 +9051,28 @@
         <v>180</v>
       </c>
       <c r="J80" s="5" t="s">
+        <v>734</v>
+      </c>
+      <c r="L80" s="5" t="s">
         <v>735</v>
       </c>
-      <c r="L80" s="5" t="s">
+      <c r="M80" s="5" t="s">
         <v>736</v>
       </c>
-      <c r="M80" s="5" t="s">
+      <c r="N80" s="3">
+        <v>1</v>
+      </c>
+      <c r="O80" s="3">
+        <v>0</v>
+      </c>
+      <c r="P80" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q80" s="3">
+        <v>0</v>
+      </c>
+      <c r="R80" s="5" t="s">
         <v>737</v>
-      </c>
-      <c r="N80" s="3">
-        <v>1</v>
-      </c>
-      <c r="O80" s="3">
-        <v>0</v>
-      </c>
-      <c r="P80" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q80" s="3">
-        <v>0</v>
-      </c>
-      <c r="R80" s="5" t="s">
-        <v>738</v>
       </c>
       <c r="S80" s="6">
         <v>45076</v>
@@ -9109,19 +9101,19 @@
         <v>7454</v>
       </c>
       <c r="B81" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="C81" s="5" t="s">
         <v>739</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="D81" s="5" t="s">
         <v>740</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>741</v>
       </c>
       <c r="E81" s="3">
         <v>2021</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="G81" s="3">
         <v>2</v>
@@ -9133,31 +9125,31 @@
         <v>51</v>
       </c>
       <c r="J81" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="K81" s="5" t="s">
         <v>743</v>
       </c>
-      <c r="K81" s="5" t="s">
+      <c r="L81" s="5" t="s">
         <v>744</v>
       </c>
-      <c r="L81" s="5" t="s">
+      <c r="M81" s="5" t="s">
         <v>745</v>
       </c>
-      <c r="M81" s="5" t="s">
+      <c r="N81" s="3">
+        <v>1</v>
+      </c>
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="5" t="s">
         <v>746</v>
-      </c>
-      <c r="N81" s="3">
-        <v>1</v>
-      </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
-      <c r="R81" s="5" t="s">
-        <v>747</v>
       </c>
       <c r="S81" s="6">
         <v>45076</v>
@@ -9172,7 +9164,7 @@
         <v>0</v>
       </c>
       <c r="X81" s="5" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="Y81" s="5" t="s">
         <v>45</v>
@@ -9183,19 +9175,19 @@
         <v>9198</v>
       </c>
       <c r="B82" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="C82" s="5" t="s">
         <v>749</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="D82" s="5" t="s">
         <v>750</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>751</v>
       </c>
       <c r="E82" s="3">
         <v>1989</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H82" s="3">
         <v>4</v>
@@ -9204,31 +9196,31 @@
         <v>51</v>
       </c>
       <c r="J82" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="K82" s="5" t="s">
         <v>753</v>
       </c>
-      <c r="K82" s="5" t="s">
+      <c r="L82" s="5" t="s">
         <v>754</v>
       </c>
-      <c r="L82" s="5" t="s">
+      <c r="M82" s="5" t="s">
         <v>755</v>
       </c>
-      <c r="M82" s="5" t="s">
+      <c r="N82" s="3">
+        <v>1</v>
+      </c>
+      <c r="O82" s="3">
+        <v>0</v>
+      </c>
+      <c r="P82" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q82" s="3">
+        <v>0</v>
+      </c>
+      <c r="R82" s="5" t="s">
         <v>756</v>
-      </c>
-      <c r="N82" s="3">
-        <v>1</v>
-      </c>
-      <c r="O82" s="3">
-        <v>0</v>
-      </c>
-      <c r="P82" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q82" s="3">
-        <v>0</v>
-      </c>
-      <c r="R82" s="5" t="s">
-        <v>757</v>
       </c>
       <c r="S82" s="6">
         <v>45076</v>
@@ -9243,7 +9235,7 @@
         <v>0</v>
       </c>
       <c r="X82" s="5" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="Y82" s="5" t="s">
         <v>45</v>
@@ -9254,19 +9246,19 @@
         <v>791</v>
       </c>
       <c r="B83" s="5" t="s">
+        <v>758</v>
+      </c>
+      <c r="C83" s="5" t="s">
         <v>759</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="D83" s="5" t="s">
         <v>760</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>761</v>
       </c>
       <c r="E83" s="3">
         <v>2013</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G83" s="3">
         <v>1</v>
@@ -9278,28 +9270,28 @@
         <v>51</v>
       </c>
       <c r="J83" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="L83" s="5" t="s">
         <v>763</v>
       </c>
-      <c r="L83" s="5" t="s">
+      <c r="M83" s="5" t="s">
         <v>764</v>
       </c>
-      <c r="M83" s="5" t="s">
+      <c r="N83" s="3">
+        <v>1</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="5" t="s">
         <v>765</v>
-      </c>
-      <c r="N83" s="3">
-        <v>1</v>
-      </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>0</v>
-      </c>
-      <c r="R83" s="5" t="s">
-        <v>766</v>
       </c>
       <c r="S83" s="6">
         <v>45076</v>
@@ -9314,7 +9306,7 @@
         <v>0</v>
       </c>
       <c r="X83" s="5" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="Y83" s="5" t="s">
         <v>45</v>
@@ -9327,19 +9319,19 @@
         <v>10391</v>
       </c>
       <c r="B84" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="C84" s="5" t="s">
         <v>768</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="D84" s="5" t="s">
         <v>769</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>770</v>
       </c>
       <c r="E84" s="3">
         <v>2015</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H84" s="3">
         <v>52</v>
@@ -9348,31 +9340,31 @@
         <v>51</v>
       </c>
       <c r="J84" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="K84" s="5" t="s">
         <v>771</v>
       </c>
-      <c r="K84" s="5" t="s">
+      <c r="L84" s="5" t="s">
         <v>772</v>
       </c>
-      <c r="L84" s="5" t="s">
+      <c r="M84" s="5" t="s">
         <v>773</v>
       </c>
-      <c r="M84" s="5" t="s">
+      <c r="N84" s="3">
+        <v>1</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="5" t="s">
         <v>774</v>
-      </c>
-      <c r="N84" s="3">
-        <v>1</v>
-      </c>
-      <c r="O84" s="3">
-        <v>0</v>
-      </c>
-      <c r="P84" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q84" s="3">
-        <v>0</v>
-      </c>
-      <c r="R84" s="5" t="s">
-        <v>775</v>
       </c>
       <c r="S84" s="6">
         <v>45076</v>
@@ -9387,7 +9379,7 @@
         <v>0</v>
       </c>
       <c r="X84" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="Y84" s="5" t="s">
         <v>45</v>
@@ -9398,19 +9390,19 @@
         <v>10316</v>
       </c>
       <c r="B85" s="5" t="s">
+        <v>775</v>
+      </c>
+      <c r="C85" s="5" t="s">
         <v>776</v>
       </c>
-      <c r="C85" s="5" t="s">
+      <c r="D85" s="5" t="s">
         <v>777</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>778</v>
       </c>
       <c r="E85" s="3">
         <v>2007</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H85" s="3">
         <v>12</v>
@@ -9419,25 +9411,25 @@
         <v>51</v>
       </c>
       <c r="J85" s="5" t="s">
+        <v>779</v>
+      </c>
+      <c r="M85" s="5" t="s">
         <v>780</v>
       </c>
-      <c r="M85" s="5" t="s">
+      <c r="N85" s="3">
+        <v>1</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="5" t="s">
         <v>781</v>
-      </c>
-      <c r="N85" s="3">
-        <v>1</v>
-      </c>
-      <c r="O85" s="3">
-        <v>0</v>
-      </c>
-      <c r="P85" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q85" s="3">
-        <v>0</v>
-      </c>
-      <c r="R85" s="5" t="s">
-        <v>782</v>
       </c>
       <c r="S85" s="6">
         <v>45076</v>
@@ -9466,43 +9458,43 @@
         <v>8760</v>
       </c>
       <c r="B86" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="C86" s="5" t="s">
         <v>783</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="D86" s="5" t="s">
         <v>784</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>785</v>
       </c>
       <c r="E86" s="3">
         <v>2015</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="I86" s="5" t="s">
         <v>51</v>
       </c>
       <c r="J86" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="M86" s="5" t="s">
         <v>787</v>
       </c>
-      <c r="M86" s="5" t="s">
+      <c r="N86" s="3">
+        <v>1</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="5" t="s">
         <v>788</v>
-      </c>
-      <c r="N86" s="3">
-        <v>1</v>
-      </c>
-      <c r="O86" s="3">
-        <v>0</v>
-      </c>
-      <c r="P86" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q86" s="3">
-        <v>0</v>
-      </c>
-      <c r="R86" s="5" t="s">
-        <v>789</v>
       </c>
       <c r="S86" s="6">
         <v>45076</v>
@@ -9531,19 +9523,19 @@
         <v>7480</v>
       </c>
       <c r="B87" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="C87" s="5" t="s">
         <v>790</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="D87" s="5" t="s">
         <v>791</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>792</v>
       </c>
       <c r="E87" s="3">
         <v>2019</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="G87" s="3">
         <v>1</v>
@@ -9555,25 +9547,25 @@
         <v>51</v>
       </c>
       <c r="J87" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="M87" s="5" t="s">
         <v>794</v>
       </c>
-      <c r="M87" s="5" t="s">
+      <c r="N87" s="3">
+        <v>1</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="5" t="s">
         <v>795</v>
-      </c>
-      <c r="N87" s="3">
-        <v>1</v>
-      </c>
-      <c r="O87" s="3">
-        <v>0</v>
-      </c>
-      <c r="P87" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q87" s="3">
-        <v>0</v>
-      </c>
-      <c r="R87" s="5" t="s">
-        <v>796</v>
       </c>
       <c r="S87" s="6">
         <v>45076</v>
@@ -9602,19 +9594,19 @@
         <v>932</v>
       </c>
       <c r="B88" s="5" t="s">
+        <v>796</v>
+      </c>
+      <c r="C88" s="5" t="s">
         <v>797</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="D88" s="5" t="s">
         <v>798</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>799</v>
       </c>
       <c r="E88" s="3">
         <v>2014</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G88" s="3">
         <v>4</v>
@@ -9626,28 +9618,28 @@
         <v>51</v>
       </c>
       <c r="J88" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="L88" s="5" t="s">
         <v>801</v>
       </c>
-      <c r="L88" s="5" t="s">
+      <c r="M88" s="5" t="s">
         <v>802</v>
       </c>
-      <c r="M88" s="5" t="s">
+      <c r="N88" s="3">
+        <v>1</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="5" t="s">
         <v>803</v>
-      </c>
-      <c r="N88" s="3">
-        <v>1</v>
-      </c>
-      <c r="O88" s="3">
-        <v>0</v>
-      </c>
-      <c r="P88" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q88" s="3">
-        <v>0</v>
-      </c>
-      <c r="R88" s="5" t="s">
-        <v>804</v>
       </c>
       <c r="S88" s="6">
         <v>45076</v>
@@ -9665,7 +9657,7 @@
         <v>0</v>
       </c>
       <c r="X88" s="5" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="Y88" s="5" t="s">
         <v>45</v>
@@ -9676,19 +9668,19 @@
         <v>2404</v>
       </c>
       <c r="B89" s="5" t="s">
+        <v>805</v>
+      </c>
+      <c r="C89" s="5" t="s">
         <v>806</v>
       </c>
-      <c r="C89" s="5" t="s">
+      <c r="D89" s="5" t="s">
         <v>807</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>808</v>
       </c>
       <c r="E89" s="3">
         <v>2020</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="G89" s="3">
         <v>1</v>
@@ -9700,28 +9692,28 @@
         <v>51</v>
       </c>
       <c r="J89" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="L89" s="5" t="s">
         <v>810</v>
       </c>
-      <c r="L89" s="5" t="s">
+      <c r="M89" s="5" t="s">
         <v>811</v>
       </c>
-      <c r="M89" s="5" t="s">
+      <c r="N89" s="3">
+        <v>1</v>
+      </c>
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="5" t="s">
         <v>812</v>
-      </c>
-      <c r="N89" s="3">
-        <v>1</v>
-      </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
-      <c r="R89" s="5" t="s">
-        <v>813</v>
       </c>
       <c r="S89" s="6">
         <v>45076</v>
@@ -9747,19 +9739,19 @@
         <v>935</v>
       </c>
       <c r="B90" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="C90" s="5" t="s">
         <v>814</v>
       </c>
-      <c r="C90" s="5" t="s">
+      <c r="D90" s="5" t="s">
         <v>815</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>816</v>
       </c>
       <c r="E90" s="3">
         <v>2013</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G90" s="3">
         <v>8</v>
@@ -9771,28 +9763,28 @@
         <v>51</v>
       </c>
       <c r="J90" s="5" t="s">
+        <v>816</v>
+      </c>
+      <c r="L90" s="5" t="s">
         <v>817</v>
       </c>
-      <c r="L90" s="5" t="s">
+      <c r="M90" s="5" t="s">
         <v>818</v>
       </c>
-      <c r="M90" s="5" t="s">
+      <c r="N90" s="3">
+        <v>1</v>
+      </c>
+      <c r="O90" s="3">
+        <v>0</v>
+      </c>
+      <c r="P90" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q90" s="3">
+        <v>0</v>
+      </c>
+      <c r="R90" s="5" t="s">
         <v>819</v>
-      </c>
-      <c r="N90" s="3">
-        <v>1</v>
-      </c>
-      <c r="O90" s="3">
-        <v>0</v>
-      </c>
-      <c r="P90" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q90" s="3">
-        <v>0</v>
-      </c>
-      <c r="R90" s="5" t="s">
-        <v>820</v>
       </c>
       <c r="S90" s="6">
         <v>45076</v>
@@ -9807,7 +9799,7 @@
         <v>0</v>
       </c>
       <c r="X90" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="Y90" s="5" t="s">
         <v>45</v>
@@ -9818,19 +9810,19 @@
         <v>9408</v>
       </c>
       <c r="B91" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="C91" s="5" t="s">
         <v>821</v>
       </c>
-      <c r="C91" s="5" t="s">
+      <c r="D91" s="5" t="s">
         <v>822</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>823</v>
       </c>
       <c r="E91" s="3">
         <v>2021</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="G91" s="3">
         <v>4</v>
@@ -9842,31 +9834,31 @@
         <v>51</v>
       </c>
       <c r="J91" s="5" t="s">
+        <v>824</v>
+      </c>
+      <c r="K91" s="5" t="s">
         <v>825</v>
       </c>
-      <c r="K91" s="5" t="s">
+      <c r="L91" s="5" t="s">
         <v>826</v>
       </c>
-      <c r="L91" s="5" t="s">
+      <c r="M91" s="5" t="s">
         <v>827</v>
       </c>
-      <c r="M91" s="5" t="s">
+      <c r="N91" s="3">
+        <v>1</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="5" t="s">
         <v>828</v>
-      </c>
-      <c r="N91" s="3">
-        <v>1</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-      <c r="R91" s="5" t="s">
-        <v>829</v>
       </c>
       <c r="S91" s="6">
         <v>45076</v>
@@ -9887,86 +9879,83 @@
         <v>45</v>
       </c>
     </row>
-    <row r="92" spans="1:34" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="20">
+    <row r="92" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="A92" s="3">
         <v>5218</v>
       </c>
-      <c r="B92" s="21" t="s">
+      <c r="B92" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="C92" s="5" t="s">
         <v>830</v>
       </c>
-      <c r="C92" s="21" t="s">
+      <c r="D92" s="5" t="s">
         <v>831</v>
       </c>
-      <c r="D92" s="21" t="s">
+      <c r="E92" s="3">
+        <v>2012</v>
+      </c>
+      <c r="F92" s="5" t="s">
         <v>832</v>
       </c>
-      <c r="E92" s="20">
-        <v>2012</v>
-      </c>
-      <c r="F92" s="21" t="s">
+      <c r="G92" s="3">
+        <v>1</v>
+      </c>
+      <c r="H92" s="3">
+        <v>60</v>
+      </c>
+      <c r="I92" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J92" s="5" t="s">
         <v>833</v>
       </c>
-      <c r="G92" s="20">
-        <v>1</v>
-      </c>
-      <c r="H92" s="20">
-        <v>60</v>
-      </c>
-      <c r="I92" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="J92" s="21" t="s">
+      <c r="L92" s="5" t="s">
         <v>834</v>
       </c>
-      <c r="L92" s="21" t="s">
+      <c r="M92" s="5" t="s">
         <v>835</v>
       </c>
-      <c r="M92" s="21" t="s">
+      <c r="N92" s="3">
+        <v>1</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="5" t="s">
         <v>836</v>
       </c>
-      <c r="N92" s="20">
-        <v>1</v>
-      </c>
-      <c r="O92" s="20">
-        <v>0</v>
-      </c>
-      <c r="P92" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q92" s="20">
-        <v>0</v>
-      </c>
-      <c r="R92" s="21" t="s">
-        <v>837</v>
-      </c>
-      <c r="S92" s="23">
+      <c r="S92" s="6">
         <v>45076</v>
       </c>
-      <c r="T92" s="21" t="s">
+      <c r="T92" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U92" s="20">
-        <v>0</v>
-      </c>
-      <c r="V92" s="21" t="s">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="W92" s="20">
-        <v>1</v>
-      </c>
-      <c r="Y92" s="21" t="s">
+      <c r="W92" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y92" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="AA92" s="20"/>
-      <c r="AC92" s="20"/>
-      <c r="AD92" s="24"/>
-      <c r="AF92" s="25" t="s">
-        <v>913</v>
-      </c>
-      <c r="AG92" s="20">
-        <v>1</v>
-      </c>
-      <c r="AH92" s="22">
+      <c r="AF92" s="20" t="s">
+        <v>912</v>
+      </c>
+      <c r="AG92" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH92">
         <v>0</v>
       </c>
     </row>
@@ -9975,32 +9964,32 @@
         <v>9611</v>
       </c>
       <c r="B93" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="C93" s="5" t="s">
         <v>838</v>
       </c>
-      <c r="C93" s="5" t="s">
+      <c r="D93" s="5" t="s">
         <v>839</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>840</v>
       </c>
       <c r="E93" s="3">
         <v>2013</v>
       </c>
       <c r="F93" s="5" t="s">
+        <v>840</v>
+      </c>
+      <c r="I93" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="J93" s="5" t="s">
         <v>841</v>
       </c>
-      <c r="I93" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="J93" s="5" t="s">
+      <c r="L93" s="5" t="s">
         <v>842</v>
       </c>
-      <c r="L93" s="5" t="s">
+      <c r="M93" s="5" t="s">
         <v>843</v>
       </c>
-      <c r="M93" s="5" t="s">
-        <v>844</v>
-      </c>
       <c r="N93" s="3">
         <v>1</v>
       </c>
@@ -10014,7 +10003,7 @@
         <v>0</v>
       </c>
       <c r="R93" s="5" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="S93" s="6">
         <v>45076</v>
@@ -10032,7 +10021,7 @@
         <v>1</v>
       </c>
       <c r="Y93" s="5" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="Z93" s="5" t="s">
         <v>45</v>
@@ -10050,19 +10039,19 @@
         <v>5273</v>
       </c>
       <c r="B94" s="5" t="s">
+        <v>845</v>
+      </c>
+      <c r="C94" s="5" t="s">
         <v>846</v>
       </c>
-      <c r="C94" s="5" t="s">
+      <c r="D94" s="5" t="s">
         <v>847</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>848</v>
       </c>
       <c r="E94" s="3">
         <v>2007</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="G94" s="3">
         <v>3</v>
@@ -10074,28 +10063,28 @@
         <v>51</v>
       </c>
       <c r="J94" s="5" t="s">
+        <v>849</v>
+      </c>
+      <c r="L94" s="5" t="s">
         <v>850</v>
       </c>
-      <c r="L94" s="5" t="s">
+      <c r="M94" s="5" t="s">
         <v>851</v>
       </c>
-      <c r="M94" s="5" t="s">
+      <c r="N94" s="3">
+        <v>1</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="5" t="s">
         <v>852</v>
-      </c>
-      <c r="N94" s="3">
-        <v>1</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-      <c r="R94" s="5" t="s">
-        <v>853</v>
       </c>
       <c r="S94" s="6">
         <v>45076</v>
@@ -10113,10 +10102,10 @@
         <v>1</v>
       </c>
       <c r="X94" s="5" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="Y94" s="5" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="Z94" s="5" t="s">
         <v>45</v>
@@ -10125,13 +10114,13 @@
         <v>1</v>
       </c>
       <c r="AB94" s="5" t="s">
+        <v>854</v>
+      </c>
+      <c r="AC94" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF94" s="5" t="s">
         <v>855</v>
-      </c>
-      <c r="AC94" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF94" s="5" t="s">
-        <v>856</v>
       </c>
       <c r="AG94" s="3">
         <v>1</v>
@@ -10145,19 +10134,19 @@
         <v>9535</v>
       </c>
       <c r="B95" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="C95" s="5" t="s">
         <v>857</v>
       </c>
-      <c r="C95" s="5" t="s">
+      <c r="D95" s="5" t="s">
         <v>858</v>
-      </c>
-      <c r="D95" s="5" t="s">
-        <v>859</v>
       </c>
       <c r="E95" s="3">
         <v>2010</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="G95" s="3">
         <v>6</v>
@@ -10169,31 +10158,31 @@
         <v>51</v>
       </c>
       <c r="J95" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="K95" s="5" t="s">
         <v>861</v>
       </c>
-      <c r="K95" s="5" t="s">
+      <c r="L95" s="5" t="s">
         <v>862</v>
       </c>
-      <c r="L95" s="5" t="s">
+      <c r="M95" s="5" t="s">
         <v>863</v>
       </c>
-      <c r="M95" s="5" t="s">
+      <c r="N95" s="3">
+        <v>1</v>
+      </c>
+      <c r="O95" s="3">
+        <v>0</v>
+      </c>
+      <c r="P95" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q95" s="3">
+        <v>0</v>
+      </c>
+      <c r="R95" s="5" t="s">
         <v>864</v>
-      </c>
-      <c r="N95" s="3">
-        <v>1</v>
-      </c>
-      <c r="O95" s="3">
-        <v>0</v>
-      </c>
-      <c r="P95" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q95" s="3">
-        <v>0</v>
-      </c>
-      <c r="R95" s="5" t="s">
-        <v>865</v>
       </c>
       <c r="S95" s="6">
         <v>45076</v>
@@ -10208,10 +10197,10 @@
         <v>0</v>
       </c>
       <c r="X95" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="Y95" s="5" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="96" spans="1:34" x14ac:dyDescent="0.15">
@@ -10219,13 +10208,13 @@
         <v>6368</v>
       </c>
       <c r="B96" s="5" t="s">
+        <v>865</v>
+      </c>
+      <c r="C96" s="5" t="s">
         <v>866</v>
       </c>
-      <c r="C96" s="5" t="s">
+      <c r="D96" s="5" t="s">
         <v>867</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>868</v>
       </c>
       <c r="E96" s="3">
         <v>2014</v>
@@ -10234,14 +10223,14 @@
         <v>180</v>
       </c>
       <c r="J96" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="L96" s="5" t="s">
         <v>869</v>
       </c>
-      <c r="L96" s="5" t="s">
+      <c r="M96" s="5" t="s">
         <v>870</v>
       </c>
-      <c r="M96" s="5" t="s">
-        <v>871</v>
-      </c>
       <c r="N96" s="3">
         <v>1</v>
       </c>
@@ -10255,7 +10244,7 @@
         <v>0</v>
       </c>
       <c r="R96" s="5" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="S96" s="6">
         <v>45076</v>
@@ -10270,10 +10259,10 @@
         <v>0</v>
       </c>
       <c r="X96" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="Y96" s="5" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="97" spans="1:34" x14ac:dyDescent="0.15">
@@ -10281,19 +10270,19 @@
         <v>1070</v>
       </c>
       <c r="B97" s="5" t="s">
+        <v>872</v>
+      </c>
+      <c r="C97" s="5" t="s">
         <v>873</v>
       </c>
-      <c r="C97" s="5" t="s">
+      <c r="D97" s="5" t="s">
         <v>874</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>875</v>
       </c>
       <c r="E97" s="3">
         <v>2006</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G97" s="3">
         <v>6</v>
@@ -10305,28 +10294,28 @@
         <v>51</v>
       </c>
       <c r="J97" s="5" t="s">
+        <v>875</v>
+      </c>
+      <c r="L97" s="5" t="s">
         <v>876</v>
       </c>
-      <c r="L97" s="5" t="s">
+      <c r="M97" s="5" t="s">
         <v>877</v>
       </c>
-      <c r="M97" s="5" t="s">
+      <c r="N97" s="3">
+        <v>1</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="5" t="s">
         <v>878</v>
-      </c>
-      <c r="N97" s="3">
-        <v>1</v>
-      </c>
-      <c r="O97" s="3">
-        <v>0</v>
-      </c>
-      <c r="P97" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q97" s="3">
-        <v>0</v>
-      </c>
-      <c r="R97" s="5" t="s">
-        <v>879</v>
       </c>
       <c r="S97" s="6">
         <v>45076</v>
@@ -10341,10 +10330,10 @@
         <v>0</v>
       </c>
       <c r="X97" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="Y97" s="5" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="98" spans="1:34" x14ac:dyDescent="0.15">
@@ -10352,13 +10341,13 @@
         <v>4709</v>
       </c>
       <c r="B98" s="5" t="s">
+        <v>879</v>
+      </c>
+      <c r="C98" s="5" t="s">
         <v>880</v>
       </c>
-      <c r="C98" s="5" t="s">
+      <c r="D98" s="5" t="s">
         <v>881</v>
-      </c>
-      <c r="D98" s="5" t="s">
-        <v>882</v>
       </c>
       <c r="E98" s="3">
         <v>2012</v>
@@ -10367,13 +10356,13 @@
         <v>180</v>
       </c>
       <c r="J98" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="L98" s="5" t="s">
         <v>883</v>
       </c>
-      <c r="L98" s="5" t="s">
+      <c r="M98" s="5" t="s">
         <v>884</v>
-      </c>
-      <c r="M98" s="5" t="s">
-        <v>885</v>
       </c>
       <c r="N98" s="3">
         <v>0</v>
@@ -10397,16 +10386,16 @@
         <v>0</v>
       </c>
       <c r="V98" s="5" t="s">
+        <v>885</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="5" t="s">
         <v>886</v>
       </c>
-      <c r="W98" s="3">
-        <v>0</v>
-      </c>
-      <c r="X98" s="5" t="s">
-        <v>887</v>
-      </c>
       <c r="Y98" s="5" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="99" spans="1:34" x14ac:dyDescent="0.15">
@@ -10414,19 +10403,19 @@
         <v>137</v>
       </c>
       <c r="B99" s="5" t="s">
+        <v>887</v>
+      </c>
+      <c r="C99" s="5" t="s">
         <v>888</v>
       </c>
-      <c r="C99" s="5" t="s">
+      <c r="D99" s="5" t="s">
         <v>889</v>
-      </c>
-      <c r="D99" s="5" t="s">
-        <v>890</v>
       </c>
       <c r="E99" s="3">
         <v>2014</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G99" s="3">
         <v>8</v>
@@ -10438,31 +10427,31 @@
         <v>51</v>
       </c>
       <c r="J99" s="5" t="s">
+        <v>890</v>
+      </c>
+      <c r="K99" s="5" t="s">
         <v>891</v>
       </c>
-      <c r="K99" s="5" t="s">
+      <c r="L99" s="5" t="s">
         <v>892</v>
       </c>
-      <c r="L99" s="5" t="s">
+      <c r="M99" s="5" t="s">
         <v>893</v>
       </c>
-      <c r="M99" s="5" t="s">
+      <c r="N99" s="3">
+        <v>1</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="5" t="s">
         <v>894</v>
-      </c>
-      <c r="N99" s="3">
-        <v>1</v>
-      </c>
-      <c r="O99" s="3">
-        <v>0</v>
-      </c>
-      <c r="P99" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q99" s="3">
-        <v>0</v>
-      </c>
-      <c r="R99" s="5" t="s">
-        <v>895</v>
       </c>
       <c r="S99" s="6">
         <v>45076</v>
@@ -10480,7 +10469,7 @@
         <v>1</v>
       </c>
       <c r="Y99" s="5" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="Z99" s="5" t="s">
         <v>45</v>
@@ -10498,19 +10487,19 @@
         <v>1213</v>
       </c>
       <c r="B100" s="5" t="s">
+        <v>895</v>
+      </c>
+      <c r="C100" s="5" t="s">
         <v>896</v>
       </c>
-      <c r="C100" s="5" t="s">
+      <c r="D100" s="5" t="s">
         <v>897</v>
-      </c>
-      <c r="D100" s="5" t="s">
-        <v>898</v>
       </c>
       <c r="E100" s="3">
         <v>2022</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G100" s="3">
         <v>6</v>
@@ -10522,28 +10511,28 @@
         <v>51</v>
       </c>
       <c r="J100" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="L100" s="5" t="s">
         <v>900</v>
       </c>
-      <c r="L100" s="5" t="s">
+      <c r="M100" s="5" t="s">
         <v>901</v>
       </c>
-      <c r="M100" s="5" t="s">
+      <c r="N100" s="3">
+        <v>1</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="5" t="s">
         <v>902</v>
-      </c>
-      <c r="N100" s="3">
-        <v>1</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="5" t="s">
-        <v>903</v>
       </c>
       <c r="S100" s="6">
         <v>45076</v>
@@ -10561,7 +10550,7 @@
         <v>166</v>
       </c>
       <c r="Y100" s="5" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="101" spans="1:34" x14ac:dyDescent="0.15">
@@ -10569,19 +10558,19 @@
         <v>1429</v>
       </c>
       <c r="B101" s="5" t="s">
+        <v>903</v>
+      </c>
+      <c r="C101" s="5" t="s">
         <v>904</v>
       </c>
-      <c r="C101" s="5" t="s">
+      <c r="D101" s="5" t="s">
         <v>905</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>906</v>
       </c>
       <c r="E101" s="3">
         <v>2022</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="G101" s="3">
         <v>2</v>
@@ -10593,28 +10582,28 @@
         <v>51</v>
       </c>
       <c r="J101" s="5" t="s">
+        <v>907</v>
+      </c>
+      <c r="L101" s="5" t="s">
         <v>908</v>
       </c>
-      <c r="L101" s="5" t="s">
+      <c r="M101" s="5" t="s">
         <v>909</v>
       </c>
-      <c r="M101" s="5" t="s">
+      <c r="N101" s="3">
+        <v>1</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="5" t="s">
         <v>910</v>
-      </c>
-      <c r="N101" s="3">
-        <v>1</v>
-      </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
-      <c r="R101" s="5" t="s">
-        <v>911</v>
       </c>
       <c r="S101" s="6">
         <v>45076</v>
@@ -10629,10 +10618,10 @@
         <v>0</v>
       </c>
       <c r="X101" s="5" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="Y101" s="5" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
   </sheetData>

--- a/data/study_search/database_search/processed/post_AS/packages_for_full_text_download/study_set_2.xlsx
+++ b/data/study_search/database_search/processed/post_AS/packages_for_full_text_download/study_set_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franzprante/GitHub/MORPEP/META_CMP/data/data/study_search/database_search/processed/post_AS/packages_for_full_text_download/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7FC1B3-1FE4-A34D-A261-ABD85073DE7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4355E798-3E13-914F-825A-305D5A62DE3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-300" yWindow="-21100" windowWidth="29040" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4440" yWindow="740" windowWidth="20520" windowHeight="16740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="914">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="908">
   <si>
     <t>record_id</t>
   </si>
@@ -105,12 +105,6 @@
     <t>rid2</t>
   </si>
   <si>
-    <t>contact_authors</t>
-  </si>
-  <si>
-    <t>reason_for_contact</t>
-  </si>
-  <si>
     <t>appendix</t>
   </si>
   <si>
@@ -163,9 +157,6 @@
   </si>
   <si>
     <t>me</t>
-  </si>
-  <si>
-    <t>Transformation of non cumulative logdiff</t>
   </si>
   <si>
     <t>4EAIGFS4</t>
@@ -434,12 +425,6 @@
     <t>no_comparable_effect_sizes</t>
   </si>
   <si>
-    <t xml:space="preserve">To get information how the effect size might be transformed to geth the percentage impact. Similar to their interpretation of the stock prices. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">How to transform the data if it is standardized. Percentage change even though they state that they do not transform their data (e.g. indeces). </t>
-  </si>
-  <si>
     <t>NWBEIT6B</t>
   </si>
   <si>
@@ -701,9 +686,6 @@
     <t>https://jscholarship.library.jhu.edu/handle/1774.2/44613</t>
   </si>
   <si>
-    <t xml:space="preserve">maybe impossible for such a model (long-run restrictions) to report shock size. </t>
-  </si>
-  <si>
     <t>Z5HR84NX</t>
   </si>
   <si>
@@ -755,9 +737,6 @@
     <t>https://doi.org/10.1016/j.econmod.2020.07.016</t>
   </si>
   <si>
-    <t>Check transformation and periodicity of "inttype" and „dep“.</t>
-  </si>
-  <si>
     <t>5RGFWG3Z</t>
   </si>
   <si>
@@ -1235,12 +1214,6 @@
     <t>biblio_edit; older Version at https://www.boeckler.de/pdf/v_2021_10_29_goes.pdf</t>
   </si>
   <si>
-    <t xml:space="preserve">response to real interest rate not coded. </t>
-  </si>
-  <si>
-    <t>Transformation of interest rate in logs</t>
-  </si>
-  <si>
     <t>2NHZ3CD6</t>
   </si>
   <si>
@@ -1670,12 +1643,6 @@
     <t>https://doi.org/10.1023/A:1003803228309</t>
   </si>
   <si>
-    <t>check coding of identification_strategy</t>
-  </si>
-  <si>
-    <t>Transformation of non cumulative gr, Extract IRF</t>
-  </si>
-  <si>
     <t>6D8BE2G2</t>
   </si>
   <si>
@@ -2183,9 +2150,6 @@
     <t>https://eprints.lancs.ac.uk/id/eprint/138986/</t>
   </si>
   <si>
-    <t>Check transformation of variables, as not clearly defined in the study</t>
-  </si>
-  <si>
     <t>2FJ5MVNC</t>
   </si>
   <si>
@@ -2603,12 +2567,6 @@
     <t>estimated DSGE model with impulse-reponse functions in first differences</t>
   </si>
   <si>
-    <t>To get information on shock size (24bp)</t>
-  </si>
-  <si>
-    <t>Transformation of non cumulative logdiff, Extract IRF</t>
-  </si>
-  <si>
     <t>K9A6LZE8</t>
   </si>
   <si>
@@ -2777,10 +2735,34 @@
     <t>calibrated_model</t>
   </si>
   <si>
-    <t>PDF and JSON inconsistent?</t>
-  </si>
-  <si>
-    <t>Transformation of non cumulative gr, Transformation of yearly growth rate,</t>
+    <t>sg</t>
+  </si>
+  <si>
+    <t>fp</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>changes_done</t>
+  </si>
+  <si>
+    <t>no_changes</t>
+  </si>
+  <si>
+    <t>full_random_check; check coding of identification_strategy</t>
+  </si>
+  <si>
+    <t>recoding_check</t>
+  </si>
+  <si>
+    <t>full_random_check</t>
+  </si>
+  <si>
+    <t>full_random_check; Check transformation of variables, as not clearly defined in the study</t>
+  </si>
+  <si>
+    <t>full_random_check; Check transformation and periodicity of "inttype" and „dep“.</t>
   </si>
 </sst>
 </file>
@@ -2873,7 +2855,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2896,9 +2878,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Predeterminado" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -3161,10 +3145,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH101"/>
+  <dimension ref="A1:AF101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="X23" sqref="X23"/>
+    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="118" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="AC12" sqref="AC12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3176,14 +3160,13 @@
     <col min="19" max="19" width="20.5" style="2"/>
     <col min="21" max="21" width="20.5" style="1"/>
     <col min="23" max="23" width="26.5" style="3" customWidth="1"/>
-    <col min="27" max="27" width="29.6640625" style="3" customWidth="1"/>
-    <col min="29" max="29" width="27.1640625" style="3" customWidth="1"/>
-    <col min="30" max="30" width="20.5" style="1"/>
-    <col min="33" max="33" width="20.5" style="1"/>
-    <col min="34" max="34" width="20.5" style="4"/>
+    <col min="27" max="27" width="12.1640625" style="3" customWidth="1"/>
+    <col min="28" max="28" width="12.5" style="1" customWidth="1"/>
+    <col min="31" max="31" width="20.5" style="1"/>
+    <col min="32" max="32" width="20.5" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3265,120 +3248,121 @@
       <c r="AA1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AB1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AC1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AD1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AE1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AF1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="4" t="s">
-        <v>33</v>
-      </c>
     </row>
-    <row r="2" spans="1:34" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:32" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>5079</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="E2" s="3">
         <v>2009</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="L2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="N2" s="3">
+        <v>1</v>
+      </c>
+      <c r="O2" s="3">
+        <v>0</v>
+      </c>
+      <c r="P2" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>0</v>
+      </c>
+      <c r="R2" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="N2" s="3">
-        <v>1</v>
-      </c>
-      <c r="O2" s="3">
-        <v>0</v>
-      </c>
-      <c r="P2" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>0</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>42</v>
       </c>
       <c r="S2" s="6">
         <v>45070</v>
       </c>
       <c r="T2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U2" s="3">
+        <v>0</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W2" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U2" s="3">
-        <v>0</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="W2" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF2" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG2" s="3">
-        <v>1</v>
-      </c>
-      <c r="AH2" s="4">
-        <v>1</v>
+      <c r="Z2" s="18" t="s">
+        <v>899</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="18" t="s">
+        <v>904</v>
+      </c>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="20" t="s">
+        <v>901</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>7540</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E3" s="3">
         <v>1995</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G3" s="3">
         <v>2</v>
@@ -3387,72 +3371,75 @@
         <v>35</v>
       </c>
       <c r="I3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="M3" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="N3" s="3">
+        <v>1</v>
+      </c>
+      <c r="O3" s="3">
+        <v>0</v>
+      </c>
+      <c r="P3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>0</v>
+      </c>
+      <c r="R3" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="N3" s="3">
-        <v>1</v>
-      </c>
-      <c r="O3" s="3">
-        <v>0</v>
-      </c>
-      <c r="P3" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>0</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="S3" s="6">
         <v>45070</v>
       </c>
       <c r="T3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U3" s="3">
+        <v>0</v>
+      </c>
+      <c r="W3" s="3">
+        <v>0</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U3" s="3">
-        <v>0</v>
-      </c>
-      <c r="W3" s="3">
-        <v>0</v>
-      </c>
-      <c r="X3" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y3" s="5" t="s">
-        <v>45</v>
+      <c r="AE3" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>10332</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E4" s="3">
         <v>2015</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G4" s="3">
         <v>2</v>
@@ -3461,16 +3448,16 @@
         <v>8</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="N4" s="3">
         <v>1</v>
@@ -3485,46 +3472,48 @@
         <v>0</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="S4" s="6">
         <v>45070</v>
       </c>
       <c r="T4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U4" s="3">
+        <v>0</v>
+      </c>
+      <c r="W4" s="3">
+        <v>0</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U4" s="3">
-        <v>0</v>
-      </c>
-      <c r="W4" s="3">
-        <v>0</v>
-      </c>
-      <c r="X4" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y4" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB4" s="5"/>
+      <c r="AE4" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>123</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E5" s="3">
         <v>2020</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G5" s="3">
         <v>2</v>
@@ -3533,146 +3522,158 @@
         <v>74</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J5" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="N5" s="3">
+        <v>1</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0</v>
+      </c>
+      <c r="P5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>0</v>
+      </c>
+      <c r="R5" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="N5" s="3">
-        <v>1</v>
-      </c>
-      <c r="O5" s="3">
-        <v>0</v>
-      </c>
-      <c r="P5" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>0</v>
-      </c>
-      <c r="R5" s="5" t="s">
-        <v>73</v>
       </c>
       <c r="S5" s="6">
         <v>45070</v>
       </c>
       <c r="T5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U5" s="3">
+        <v>0</v>
+      </c>
+      <c r="W5" s="3">
+        <v>0</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y5" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U5" s="3">
-        <v>0</v>
-      </c>
-      <c r="W5" s="3">
-        <v>0</v>
-      </c>
-      <c r="X5" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y5" s="5" t="s">
-        <v>45</v>
+      <c r="AE5" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>10055</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E6" s="3">
         <v>2022</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H6" s="3">
         <v>216</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J6" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="N6" s="3">
+        <v>1</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0</v>
+      </c>
+      <c r="P6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>0</v>
+      </c>
+      <c r="R6" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="N6" s="3">
-        <v>1</v>
-      </c>
-      <c r="O6" s="3">
-        <v>0</v>
-      </c>
-      <c r="P6" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>0</v>
-      </c>
-      <c r="R6" s="5" t="s">
-        <v>83</v>
       </c>
       <c r="S6" s="6">
         <v>45070</v>
       </c>
       <c r="T6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U6" s="3">
+        <v>0</v>
+      </c>
+      <c r="V6" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="W6" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U6" s="3">
-        <v>0</v>
-      </c>
-      <c r="V6" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="W6" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG6" s="3">
-        <v>1</v>
-      </c>
-      <c r="AH6" s="4">
-        <v>0</v>
+      <c r="Z6" s="18" t="s">
+        <v>899</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="18" t="s">
+        <v>904</v>
+      </c>
+      <c r="AE6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="20" t="s">
+        <v>902</v>
       </c>
     </row>
-    <row r="7" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>9692</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E7" s="3">
         <v>2020</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G7" s="3">
         <v>3</v>
@@ -3681,75 +3682,78 @@
         <v>16</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="M7" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="N7" s="3">
+        <v>1</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0</v>
+      </c>
+      <c r="P7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>0</v>
+      </c>
+      <c r="R7" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="N7" s="3">
-        <v>1</v>
-      </c>
-      <c r="O7" s="3">
-        <v>0</v>
-      </c>
-      <c r="P7" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>0</v>
-      </c>
-      <c r="R7" s="5" t="s">
-        <v>93</v>
       </c>
       <c r="S7" s="6">
         <v>45070</v>
       </c>
       <c r="T7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U7" s="3">
+        <v>0</v>
+      </c>
+      <c r="V7" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="W7" s="3">
+        <v>0</v>
+      </c>
+      <c r="X7" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y7" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U7" s="3">
-        <v>0</v>
-      </c>
-      <c r="V7" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="W7" s="3">
-        <v>0</v>
-      </c>
-      <c r="X7" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y7" s="5" t="s">
-        <v>45</v>
+      <c r="AE7" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>3170</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E8" s="3">
         <v>2009</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G8" s="3">
         <v>2</v>
@@ -3758,74 +3762,75 @@
         <v>91</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J8" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="N8" s="3">
+        <v>1</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="N8" s="3">
-        <v>1</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
-      <c r="R8" s="5" t="s">
-        <v>102</v>
       </c>
       <c r="S8" s="6">
         <v>45070</v>
       </c>
       <c r="T8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U8" s="3">
-        <v>0</v>
-      </c>
-      <c r="V8" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="W8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="AA8" s="3"/>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
-      <c r="AG8" s="3"/>
-      <c r="AH8" s="12"/>
+      <c r="AB8" s="3"/>
+      <c r="AE8" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="12"/>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>10511</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E9" s="3">
         <v>2017</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G9" s="3">
         <v>1</v>
@@ -3834,75 +3839,78 @@
         <v>5</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J9" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="M9" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="N9" s="3">
+        <v>1</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="N9" s="3">
-        <v>1</v>
-      </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>0</v>
-      </c>
-      <c r="R9" s="5" t="s">
-        <v>111</v>
       </c>
       <c r="S9" s="6">
         <v>45070</v>
       </c>
       <c r="T9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U9" s="3">
+        <v>0</v>
+      </c>
+      <c r="V9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W9" s="3">
+        <v>0</v>
+      </c>
+      <c r="X9" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y9" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U9" s="3">
-        <v>0</v>
-      </c>
-      <c r="V9" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="W9" s="3">
-        <v>0</v>
-      </c>
-      <c r="X9" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y9" s="5" t="s">
-        <v>45</v>
+      <c r="AE9" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
         <v>4199</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E10" s="8">
         <v>2012</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G10" s="8">
         <v>1</v>
@@ -3911,77 +3919,78 @@
         <v>13</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J10" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="N10" s="8">
+        <v>1</v>
+      </c>
+      <c r="O10" s="8">
+        <v>0</v>
+      </c>
+      <c r="P10" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>0</v>
+      </c>
+      <c r="R10" s="9" t="s">
         <v>117</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="M10" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="N10" s="8">
-        <v>1</v>
-      </c>
-      <c r="O10" s="8">
-        <v>0</v>
-      </c>
-      <c r="P10" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="8">
-        <v>0</v>
-      </c>
-      <c r="R10" s="9" t="s">
-        <v>120</v>
       </c>
       <c r="S10" s="10">
         <v>45070</v>
       </c>
       <c r="T10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="U10" s="8">
+        <v>0</v>
+      </c>
+      <c r="V10" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="W10" s="8">
+        <v>0</v>
+      </c>
+      <c r="X10" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y10" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="U10" s="8">
-        <v>0</v>
-      </c>
-      <c r="V10" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="W10" s="8">
-        <v>0</v>
-      </c>
-      <c r="X10" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y10" s="9" t="s">
-        <v>45</v>
-      </c>
       <c r="AA10" s="8"/>
-      <c r="AC10" s="8"/>
-      <c r="AD10" s="8"/>
-      <c r="AG10" s="8"/>
-      <c r="AH10" s="11"/>
+      <c r="AB10" s="8"/>
+      <c r="AE10" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="11"/>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>7543</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E11" s="3">
         <v>2019</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G11" s="3">
         <v>6</v>
@@ -3990,93 +3999,88 @@
         <v>28</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J11" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="N11" s="3">
+        <v>1</v>
+      </c>
+      <c r="O11" s="3">
+        <v>0</v>
+      </c>
+      <c r="P11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>0</v>
+      </c>
+      <c r="R11" s="5" t="s">
         <v>126</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="N11" s="3">
-        <v>1</v>
-      </c>
-      <c r="O11" s="3">
-        <v>0</v>
-      </c>
-      <c r="P11" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>0</v>
-      </c>
-      <c r="R11" s="5" t="s">
-        <v>129</v>
       </c>
       <c r="S11" s="6">
         <v>45070</v>
       </c>
       <c r="T11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U11" s="3">
+        <v>0</v>
+      </c>
+      <c r="V11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W11" s="3">
+        <v>0</v>
+      </c>
+      <c r="X11" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y11" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U11" s="3">
-        <v>0</v>
-      </c>
-      <c r="V11" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="W11" s="3">
-        <v>0</v>
-      </c>
-      <c r="X11" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y11" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA11" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB11" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="AF11" s="5" t="s">
-        <v>132</v>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>693</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E12" s="3">
         <v>2017</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="N12" s="3">
         <v>1</v>
@@ -4091,49 +4095,58 @@
         <v>0</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="S12" s="6">
         <v>45070</v>
       </c>
       <c r="T12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U12" s="3">
+        <v>0</v>
+      </c>
+      <c r="W12" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U12" s="3">
-        <v>0</v>
-      </c>
-      <c r="W12" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y12" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF12" s="5"/>
-      <c r="AG12" s="3">
-        <v>1</v>
-      </c>
-      <c r="AH12" s="4">
-        <v>0</v>
+      <c r="Z12" s="18" t="s">
+        <v>541</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="18" t="s">
+        <v>905</v>
+      </c>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="20" t="s">
+        <v>902</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>117</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E13" s="3">
         <v>2020</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G13" s="3">
         <v>9</v>
@@ -4142,16 +4155,16 @@
         <v>43</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="N13" s="3">
         <v>1</v>
@@ -4166,48 +4179,51 @@
         <v>0</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="S13" s="6">
         <v>45070</v>
       </c>
       <c r="T13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y13" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U13" s="3">
-        <v>0</v>
-      </c>
-      <c r="V13" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="W13" s="3">
-        <v>0</v>
-      </c>
-      <c r="X13" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="Y13" s="5" t="s">
-        <v>45</v>
+      <c r="AE13" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>8502</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E14" s="3">
         <v>2019</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G14" s="3">
         <v>2</v>
@@ -4216,19 +4232,19 @@
         <v>65</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="N14" s="3">
         <v>1</v>
@@ -4243,58 +4259,60 @@
         <v>0</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="S14" s="6">
         <v>45070</v>
       </c>
       <c r="T14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y14" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-      <c r="X14" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="Y14" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB14" s="5"/>
+      <c r="AE14" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="15" spans="1:34" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:32" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>8575</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E15" s="3">
         <v>2011</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="N15" s="3">
         <v>1</v>
@@ -4309,48 +4327,51 @@
         <v>0</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="S15" s="6">
         <v>45070</v>
       </c>
       <c r="T15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y15" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U15" s="3">
-        <v>0</v>
-      </c>
-      <c r="V15" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="W15" s="3">
-        <v>0</v>
-      </c>
-      <c r="X15" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="Y15" s="5" t="s">
-        <v>45</v>
+      <c r="AE15" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>8274</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E16" s="3">
         <v>1997</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G16" s="3">
         <v>7</v>
@@ -4359,19 +4380,19 @@
         <v>41</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="N16" s="3">
         <v>1</v>
@@ -4386,54 +4407,57 @@
         <v>0</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="S16" s="6">
         <v>45070</v>
       </c>
       <c r="T16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U16" s="3">
+        <v>0</v>
+      </c>
+      <c r="W16" s="3">
+        <v>0</v>
+      </c>
+      <c r="X16" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y16" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U16" s="3">
-        <v>0</v>
-      </c>
-      <c r="W16" s="3">
-        <v>0</v>
-      </c>
-      <c r="X16" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="Y16" s="5" t="s">
-        <v>45</v>
+      <c r="AE16" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>3398</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E17" s="3">
         <v>2017</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="N17" s="3">
         <v>1</v>
@@ -4448,120 +4472,132 @@
         <v>0</v>
       </c>
       <c r="R17" s="5" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="S17" s="6">
         <v>45070</v>
       </c>
       <c r="T17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+      <c r="W17" s="3">
+        <v>0</v>
+      </c>
+      <c r="X17" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y17" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U17" s="3">
-        <v>0</v>
-      </c>
-      <c r="W17" s="3">
-        <v>0</v>
-      </c>
-      <c r="X17" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="Y17" s="5" t="s">
-        <v>45</v>
+      <c r="AE17" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:34" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:32" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>6929</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E18" s="3">
         <v>2011</v>
       </c>
       <c r="F18" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="N18" s="3">
+        <v>1</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="5" t="s">
         <v>189</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="M18" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="N18" s="3">
-        <v>1</v>
-      </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
-      <c r="R18" s="5" t="s">
-        <v>194</v>
       </c>
       <c r="S18" s="6">
         <v>45070</v>
       </c>
       <c r="T18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W18" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
-      <c r="V18" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="W18" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y18" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF18" s="5"/>
-      <c r="AG18" s="3">
-        <v>1</v>
-      </c>
-      <c r="AH18" s="4">
-        <v>0</v>
+      <c r="Z18" s="18" t="s">
+        <v>899</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="18" t="s">
+        <v>904</v>
+      </c>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF18" s="20" t="s">
+        <v>902</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>6493</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E19" s="3">
         <v>2018</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G19" s="3">
         <v>28</v>
@@ -4570,19 +4606,19 @@
         <v>7</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="N19" s="3">
         <v>1</v>
@@ -4597,48 +4633,51 @@
         <v>0</v>
       </c>
       <c r="R19" s="5" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="S19" s="6">
         <v>45070</v>
       </c>
       <c r="T19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U19" s="3">
+        <v>0</v>
+      </c>
+      <c r="V19" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W19" s="3">
+        <v>0</v>
+      </c>
+      <c r="X19" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y19" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U19" s="3">
-        <v>0</v>
-      </c>
-      <c r="V19" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="W19" s="3">
-        <v>0</v>
-      </c>
-      <c r="X19" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="Y19" s="5" t="s">
-        <v>45</v>
+      <c r="AE19" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>8023</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E20" s="3">
         <v>2023</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="G20" s="3">
         <v>1</v>
@@ -4647,19 +4686,19 @@
         <v>47</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="N20" s="3">
         <v>1</v>
@@ -4674,62 +4713,71 @@
         <v>0</v>
       </c>
       <c r="R20" s="5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="S20" s="6">
         <v>45070</v>
       </c>
       <c r="T20" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
       <c r="V20" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="W20" s="3">
         <v>1</v>
       </c>
       <c r="X20" s="5"/>
       <c r="Y20" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF20" s="5"/>
-      <c r="AG20" s="3">
-        <v>1</v>
-      </c>
-      <c r="AH20" s="4">
-        <v>0</v>
+        <v>43</v>
+      </c>
+      <c r="Z20" s="18" t="s">
+        <v>899</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC20" s="18" t="s">
+        <v>904</v>
+      </c>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF20" s="20" t="s">
+        <v>902</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>2594</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E21" s="3">
         <v>2015</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="N21" s="3">
         <v>1</v>
@@ -4744,48 +4792,49 @@
         <v>0</v>
       </c>
       <c r="R21" s="5" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="S21" s="6">
         <v>45070</v>
       </c>
       <c r="T21" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U21" s="3">
+        <v>0</v>
+      </c>
+      <c r="W21" s="3">
+        <v>0</v>
+      </c>
+      <c r="X21" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y21" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U21" s="3">
-        <v>0</v>
-      </c>
-      <c r="W21" s="3">
-        <v>0</v>
-      </c>
-      <c r="X21" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="Y21" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF21" s="5" t="s">
-        <v>220</v>
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="8">
         <v>2382</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="E22" s="8">
         <v>2015</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="G22" s="8">
         <v>3</v>
@@ -4794,16 +4843,16 @@
         <v>1</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="N22" s="8">
         <v>1</v>
@@ -4818,68 +4867,69 @@
         <v>0</v>
       </c>
       <c r="R22" s="9" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="S22" s="10">
         <v>45070</v>
       </c>
       <c r="T22" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="U22" s="8">
+        <v>0</v>
+      </c>
+      <c r="W22" s="8">
+        <v>0</v>
+      </c>
+      <c r="X22" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y22" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="U22" s="8">
-        <v>0</v>
-      </c>
-      <c r="W22" s="8">
-        <v>0</v>
-      </c>
-      <c r="X22" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y22" s="9" t="s">
-        <v>45</v>
-      </c>
       <c r="AA22" s="8"/>
-      <c r="AC22" s="8"/>
-      <c r="AD22" s="8"/>
-      <c r="AG22" s="8"/>
-      <c r="AH22" s="11"/>
+      <c r="AB22" s="8"/>
+      <c r="AE22" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF22" s="11"/>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>28</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="E23" s="3">
         <v>2020</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="H23" s="3">
         <v>92</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="N23" s="3">
         <v>1</v>
@@ -4894,75 +4944,76 @@
         <v>0</v>
       </c>
       <c r="R23" s="5" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="S23" s="6">
         <v>45070</v>
       </c>
       <c r="T23" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U23" s="3">
-        <v>0</v>
-      </c>
-      <c r="W23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC23" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD23" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE23" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="AF23" s="5" t="s">
-        <v>913</v>
-      </c>
-      <c r="AG23" s="3">
-        <v>1</v>
-      </c>
-      <c r="AH23" s="12">
-        <v>1</v>
+      <c r="Z23" s="18" t="s">
+        <v>899</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB23" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC23" s="5" t="s">
+        <v>907</v>
+      </c>
+      <c r="AD23" s="5"/>
+      <c r="AE23" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF23" s="20" t="s">
+        <v>901</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>7457</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E24" s="3">
         <v>2021</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="N24" s="3">
         <v>1</v>
@@ -4977,48 +5028,51 @@
         <v>0</v>
       </c>
       <c r="R24" s="5" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="S24" s="6">
         <v>45070</v>
       </c>
       <c r="T24" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y24" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
-      <c r="V24" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
-      <c r="X24" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="Y24" s="5" t="s">
-        <v>45</v>
+      <c r="AE24" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>5071</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="E25" s="3">
         <v>2004</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="G25" s="3">
         <v>86</v>
@@ -5027,16 +5081,16 @@
         <v>5</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="N25" s="3">
         <v>1</v>
@@ -5051,48 +5105,51 @@
         <v>0</v>
       </c>
       <c r="R25" s="13" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="S25" s="6">
         <v>45070</v>
       </c>
       <c r="T25" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y25" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U25" s="3">
-        <v>0</v>
-      </c>
-      <c r="V25" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="W25" s="3">
-        <v>0</v>
-      </c>
-      <c r="X25" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="Y25" s="5" t="s">
-        <v>45</v>
+      <c r="AE25" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>4563</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="E26" s="3">
         <v>2013</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="G26" s="3">
         <v>3</v>
@@ -5101,16 +5158,16 @@
         <v>18</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="N26" s="3">
         <v>1</v>
@@ -5125,66 +5182,69 @@
         <v>0</v>
       </c>
       <c r="R26" s="5" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="S26" s="6">
         <v>45070</v>
       </c>
       <c r="T26" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y26" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
-      <c r="V26" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="W26" s="3">
-        <v>0</v>
-      </c>
-      <c r="X26" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="Y26" s="5" t="s">
-        <v>45</v>
+      <c r="AE26" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>549</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="E27" s="3">
         <v>2022</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="N27" s="3">
         <v>1</v>
@@ -5199,66 +5259,69 @@
         <v>0</v>
       </c>
       <c r="R27" s="5" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="S27" s="6">
         <v>45070</v>
       </c>
       <c r="T27" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y27" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
-      <c r="W27" s="3">
-        <v>0</v>
-      </c>
-      <c r="X27" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="Y27" s="5" t="s">
-        <v>45</v>
+      <c r="AE27" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>6975</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="E28" s="3">
         <v>2019</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="N28" s="3">
         <v>1</v>
@@ -5273,45 +5336,48 @@
         <v>0</v>
       </c>
       <c r="R28" s="5" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="S28" s="6">
         <v>45070</v>
       </c>
       <c r="T28" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y28" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U28" s="3">
-        <v>0</v>
-      </c>
-      <c r="W28" s="3">
-        <v>0</v>
-      </c>
-      <c r="X28" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="Y28" s="5" t="s">
-        <v>45</v>
+      <c r="AE28" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>550</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="E29" s="3">
         <v>2020</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="G29" s="3">
         <v>4</v>
@@ -5320,16 +5386,16 @@
         <v>23</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="N29" s="3">
         <v>1</v>
@@ -5344,51 +5410,58 @@
         <v>0</v>
       </c>
       <c r="R29" s="5" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="S29" s="6">
         <v>45071</v>
       </c>
       <c r="T29" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y29" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
-      <c r="W29" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y29" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA29" s="3"/>
-      <c r="AC29" s="3"/>
-      <c r="AD29" s="3"/>
-      <c r="AG29" s="3">
-        <v>1</v>
-      </c>
-      <c r="AH29" s="12">
-        <v>0</v>
+      <c r="Z29" s="18" t="s">
+        <v>899</v>
+      </c>
+      <c r="AA29" s="21"/>
+      <c r="AB29" s="22">
+        <v>1</v>
+      </c>
+      <c r="AC29" s="18" t="s">
+        <v>904</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF29" s="20" t="s">
+        <v>902</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
         <v>655</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="E30" s="3">
         <v>2020</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="G30" s="3">
         <v>2</v>
@@ -5397,16 +5470,16 @@
         <v>65</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="N30" s="3">
         <v>1</v>
@@ -5421,45 +5494,48 @@
         <v>0</v>
       </c>
       <c r="R30" s="5" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="S30" s="6">
         <v>45071</v>
       </c>
       <c r="T30" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y30" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U30" s="3">
-        <v>0</v>
-      </c>
-      <c r="W30" s="3">
-        <v>0</v>
-      </c>
-      <c r="X30" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="Y30" s="5" t="s">
-        <v>45</v>
+      <c r="AE30" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A31" s="3">
         <v>10696</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="E31" s="3">
         <v>2019</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="G31" s="3">
         <v>1</v>
@@ -5468,16 +5544,16 @@
         <v>10</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="N31" s="3">
         <v>1</v>
@@ -5492,48 +5568,51 @@
         <v>0</v>
       </c>
       <c r="R31" s="5" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="S31" s="6">
         <v>45071</v>
       </c>
       <c r="T31" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y31" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U31" s="3">
-        <v>0</v>
-      </c>
-      <c r="V31" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="W31" s="3">
-        <v>0</v>
-      </c>
-      <c r="X31" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="Y31" s="5" t="s">
-        <v>45</v>
+      <c r="AE31" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A32" s="3">
         <v>10409</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="E32" s="3">
         <v>2020</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="G32" s="3">
         <v>2</v>
@@ -5542,13 +5621,13 @@
         <v>11</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="M32" s="5" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="N32" s="3">
         <v>1</v>
@@ -5563,62 +5642,65 @@
         <v>0</v>
       </c>
       <c r="R32" s="5" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="S32" s="6">
         <v>45071</v>
       </c>
       <c r="T32" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y32" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
-      <c r="V32" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
-      <c r="X32" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="Y32" s="5" t="s">
-        <v>45</v>
+      <c r="AE32" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:34" s="15" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:32" s="15" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A33" s="14">
         <v>1026</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E33" s="14">
         <v>2016</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
       <c r="I33" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J33" s="15" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="L33" s="15" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="M33" s="15" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="N33" s="14">
         <v>1</v>
@@ -5633,51 +5715,58 @@
         <v>0</v>
       </c>
       <c r="R33" s="15" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="S33" s="17">
         <v>45071</v>
       </c>
       <c r="T33" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="U33" s="14">
+        <v>0</v>
+      </c>
+      <c r="W33" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y33" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="U33" s="14">
-        <v>0</v>
-      </c>
-      <c r="W33" s="14">
-        <v>1</v>
-      </c>
-      <c r="Y33" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA33" s="14"/>
-      <c r="AC33" s="14"/>
-      <c r="AD33" s="14"/>
-      <c r="AG33" s="14">
-        <v>1</v>
-      </c>
-      <c r="AH33" s="18">
-        <v>0</v>
+      <c r="Z33" s="18" t="s">
+        <v>899</v>
+      </c>
+      <c r="AA33" s="21"/>
+      <c r="AB33" s="22">
+        <v>1</v>
+      </c>
+      <c r="AC33" s="18" t="s">
+        <v>904</v>
+      </c>
+      <c r="AE33" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF33" s="20" t="s">
+        <v>902</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A34" s="3">
         <v>8798</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="E34" s="3">
         <v>2014</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="G34" s="3">
         <v>1</v>
@@ -5686,16 +5775,16 @@
         <v>3</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="L34" s="5" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="M34" s="5" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="N34" s="3">
         <v>1</v>
@@ -5710,45 +5799,48 @@
         <v>0</v>
       </c>
       <c r="R34" s="5" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="S34" s="6">
         <v>45071</v>
       </c>
       <c r="T34" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y34" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U34" s="3">
-        <v>0</v>
-      </c>
-      <c r="W34" s="3">
-        <v>0</v>
-      </c>
-      <c r="X34" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="Y34" s="5" t="s">
-        <v>45</v>
+      <c r="AE34" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A35" s="3">
         <v>1283</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="E35" s="3">
         <v>2021</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="G35" s="3">
         <v>2</v>
@@ -5757,16 +5849,16 @@
         <v>21</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="M35" s="5" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="N35" s="3">
         <v>1</v>
@@ -5781,48 +5873,51 @@
         <v>0</v>
       </c>
       <c r="R35" s="5" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="S35" s="6">
         <v>45071</v>
       </c>
       <c r="T35" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y35" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
-      <c r="V35" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="W35" s="3">
-        <v>0</v>
-      </c>
-      <c r="X35" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="Y35" s="5" t="s">
-        <v>45</v>
+      <c r="AE35" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A36" s="3">
         <v>4266</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="E36" s="3">
         <v>2005</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="G36" s="3">
         <v>1</v>
@@ -5831,16 +5926,16 @@
         <v>24</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="M36" s="5" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="N36" s="3">
         <v>1</v>
@@ -5855,45 +5950,48 @@
         <v>0</v>
       </c>
       <c r="R36" s="5" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="S36" s="6">
         <v>45071</v>
       </c>
       <c r="T36" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U36" s="3">
+        <v>0</v>
+      </c>
+      <c r="W36" s="3">
+        <v>0</v>
+      </c>
+      <c r="X36" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y36" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U36" s="3">
-        <v>0</v>
-      </c>
-      <c r="W36" s="3">
-        <v>0</v>
-      </c>
-      <c r="X36" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="Y36" s="5" t="s">
-        <v>45</v>
+      <c r="AE36" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A37" s="3">
         <v>1730</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="E37" s="3">
         <v>2018</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="G37" s="3">
         <v>11</v>
@@ -5902,19 +6000,19 @@
         <v>54</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="L37" s="5" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="M37" s="5" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="N37" s="3">
         <v>1</v>
@@ -5929,48 +6027,51 @@
         <v>0</v>
       </c>
       <c r="R37" s="5" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="S37" s="6">
         <v>45071</v>
       </c>
       <c r="T37" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U37" s="3">
+        <v>0</v>
+      </c>
+      <c r="V37" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W37" s="3">
+        <v>0</v>
+      </c>
+      <c r="X37" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="Y37" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U37" s="3">
-        <v>0</v>
-      </c>
-      <c r="V37" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="W37" s="3">
-        <v>0</v>
-      </c>
-      <c r="X37" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="Y37" s="5" t="s">
-        <v>45</v>
+      <c r="AE37" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A38" s="3">
         <v>804</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="E38" s="3">
         <v>2015</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="G38" s="3">
         <v>2</v>
@@ -5979,16 +6080,16 @@
         <v>37</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="M38" s="5" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="N38" s="3">
         <v>1</v>
@@ -6003,63 +6104,66 @@
         <v>0</v>
       </c>
       <c r="R38" s="5" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="S38" s="6">
         <v>45071</v>
       </c>
       <c r="T38" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U38" s="3">
+        <v>0</v>
+      </c>
+      <c r="W38" s="3">
+        <v>0</v>
+      </c>
+      <c r="X38" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="Y38" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U38" s="3">
-        <v>0</v>
-      </c>
-      <c r="W38" s="3">
-        <v>0</v>
-      </c>
-      <c r="X38" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="Y38" s="5" t="s">
-        <v>45</v>
+      <c r="AE38" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A39" s="3">
         <v>6477</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="E39" s="3">
         <v>2021</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="H39" s="3">
         <v>4</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="M39" s="5" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="N39" s="3">
         <v>1</v>
@@ -6074,48 +6178,51 @@
         <v>0</v>
       </c>
       <c r="R39" s="5" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="S39" s="6">
         <v>45071</v>
       </c>
       <c r="T39" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U39" s="3">
+        <v>0</v>
+      </c>
+      <c r="V39" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W39" s="3">
+        <v>0</v>
+      </c>
+      <c r="X39" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="Y39" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U39" s="3">
-        <v>0</v>
-      </c>
-      <c r="V39" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="W39" s="3">
-        <v>0</v>
-      </c>
-      <c r="X39" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="Y39" s="5" t="s">
-        <v>45</v>
+      <c r="AE39" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:34" ht="14" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:32" ht="14" x14ac:dyDescent="0.15">
       <c r="A40" s="3">
         <v>9224</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="E40" s="3">
         <v>2004</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="G40" s="3">
         <v>8</v>
@@ -6124,19 +6231,19 @@
         <v>51</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M40" s="5" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="N40" s="3">
         <v>1</v>
@@ -6151,56 +6258,59 @@
         <v>0</v>
       </c>
       <c r="R40" s="5" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="S40" s="6">
         <v>45071</v>
       </c>
       <c r="T40" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U40" s="3">
+        <v>0</v>
+      </c>
+      <c r="W40" s="3">
+        <v>0</v>
+      </c>
+      <c r="X40" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y40" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U40" s="3">
-        <v>0</v>
-      </c>
-      <c r="W40" s="3">
-        <v>0</v>
-      </c>
-      <c r="X40" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Y40" s="5" t="s">
-        <v>45</v>
+      <c r="AE40" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3">
         <v>10188</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="E41" s="3">
         <v>2023</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="5" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="M41" s="5" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="N41" s="3">
         <v>1</v>
@@ -6215,77 +6325,76 @@
         <v>0</v>
       </c>
       <c r="R41" s="5" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="S41" s="6">
         <v>45071</v>
       </c>
       <c r="T41" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="W41" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y41" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U41" s="3">
-        <v>0</v>
-      </c>
-      <c r="V41" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="W41" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y41" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA41" s="3"/>
-      <c r="AC41" s="3"/>
-      <c r="AD41" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE41" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="AF41" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="AG41" s="3">
-        <v>1</v>
-      </c>
-      <c r="AH41" s="12">
-        <v>0</v>
+      <c r="Z41" s="18" t="s">
+        <v>899</v>
+      </c>
+      <c r="AA41" s="21"/>
+      <c r="AB41" s="22">
+        <v>1</v>
+      </c>
+      <c r="AC41" s="18" t="s">
+        <v>905</v>
+      </c>
+      <c r="AE41" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF41" s="20" t="s">
+        <v>902</v>
       </c>
     </row>
-    <row r="42" spans="1:34" ht="14" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:32" ht="14" x14ac:dyDescent="0.15">
       <c r="A42" s="3">
         <v>7818</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="E42" s="3">
         <v>2021</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="H42" s="3">
         <v>4</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="M42" s="5" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="N42" s="3">
         <v>1</v>
@@ -6300,48 +6409,51 @@
         <v>0</v>
       </c>
       <c r="R42" s="5" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="S42" s="6">
         <v>45071</v>
       </c>
       <c r="T42" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y42" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U42" s="3">
-        <v>0</v>
-      </c>
-      <c r="V42" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="W42" s="3">
-        <v>0</v>
-      </c>
-      <c r="X42" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Y42" s="5" t="s">
-        <v>45</v>
+      <c r="AE42" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A43" s="3">
         <v>6654</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="E43" s="3">
         <v>2012</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G43" s="3">
         <v>3</v>
@@ -6350,16 +6462,16 @@
         <v>116</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="L43" s="5" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="M43" s="5" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="N43" s="3">
         <v>1</v>
@@ -6374,48 +6486,51 @@
         <v>0</v>
       </c>
       <c r="R43" s="5" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="S43" s="6">
         <v>45071</v>
       </c>
       <c r="T43" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+      <c r="X43" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="Y43" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U43" s="3">
-        <v>0</v>
-      </c>
-      <c r="V43" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="W43" s="3">
-        <v>0</v>
-      </c>
-      <c r="X43" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="Y43" s="5" t="s">
-        <v>45</v>
+      <c r="AE43" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A44" s="3">
         <v>5105</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="E44" s="3">
         <v>2001</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="G44" s="3">
         <v>2</v>
@@ -6424,16 +6539,16 @@
         <v>33</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="M44" s="5" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="N44" s="3">
         <v>1</v>
@@ -6448,45 +6563,48 @@
         <v>0</v>
       </c>
       <c r="R44" s="5" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="S44" s="6">
         <v>45071</v>
       </c>
       <c r="T44" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="Y44" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U44" s="3">
-        <v>0</v>
-      </c>
-      <c r="W44" s="3">
-        <v>0</v>
-      </c>
-      <c r="X44" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="Y44" s="5" t="s">
-        <v>45</v>
+      <c r="AE44" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A45" s="3">
         <v>782</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="E45" s="3">
         <v>2019</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="G45" s="3">
         <v>4</v>
@@ -6495,16 +6613,16 @@
         <v>18</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="L45" s="5" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="M45" s="5" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -6519,54 +6637,57 @@
         <v>0</v>
       </c>
       <c r="R45" s="5" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="S45" s="6">
         <v>45071</v>
       </c>
       <c r="T45" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y45" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U45" s="3">
-        <v>0</v>
-      </c>
-      <c r="V45" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="W45" s="3">
-        <v>0</v>
-      </c>
-      <c r="X45" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="Y45" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD45" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE45" s="5" t="s">
-        <v>436</v>
+      <c r="AB45" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC45" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="AE45" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A46" s="3">
         <v>9070</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="E46" s="3">
         <v>2022</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="G46" s="3">
         <v>1</v>
@@ -6575,19 +6696,19 @@
         <v>26</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="K46" s="5" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="L46" s="5" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="M46" s="5" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="N46" s="3">
         <v>1</v>
@@ -6602,45 +6723,48 @@
         <v>0</v>
       </c>
       <c r="R46" s="5" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="S46" s="6">
         <v>45071</v>
       </c>
       <c r="T46" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+      <c r="X46" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="Y46" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U46" s="3">
-        <v>0</v>
-      </c>
-      <c r="W46" s="3">
-        <v>0</v>
-      </c>
-      <c r="X46" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="Y46" s="5" t="s">
-        <v>45</v>
+      <c r="AE46" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A47" s="3">
         <v>7095</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="E47" s="3">
         <v>2021</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="G47" s="3">
         <v>5</v>
@@ -6649,16 +6773,16 @@
         <v>11</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="L47" s="5" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="M47" s="5" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="N47" s="3">
         <v>1</v>
@@ -6673,57 +6797,60 @@
         <v>0</v>
       </c>
       <c r="R47" s="5" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="S47" s="6">
         <v>45071</v>
       </c>
       <c r="T47" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y47" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U47" s="3">
-        <v>0</v>
-      </c>
-      <c r="W47" s="3">
-        <v>0</v>
-      </c>
-      <c r="X47" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="Y47" s="5" t="s">
-        <v>45</v>
+      <c r="AE47" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:34" ht="14" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:32" ht="14" x14ac:dyDescent="0.15">
       <c r="A48" s="3">
         <v>5258</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="E48" s="3">
         <v>2011</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="L48" s="5" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="M48" s="5" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="N48" s="3">
         <v>1</v>
@@ -6738,64 +6865,67 @@
         <v>0</v>
       </c>
       <c r="R48" s="5" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="S48" s="6">
         <v>45071</v>
       </c>
       <c r="T48" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+      <c r="X48" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y48" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U48" s="3">
-        <v>0</v>
-      </c>
-      <c r="V48" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="W48" s="3">
-        <v>0</v>
-      </c>
-      <c r="X48" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Y48" s="5" t="s">
-        <v>45</v>
+      <c r="AE48" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A49" s="14">
         <v>856</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="E49" s="14">
         <v>2016</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="G49" s="14"/>
       <c r="H49" s="14">
         <v>47</v>
       </c>
       <c r="I49" s="15" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J49" s="15" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="L49" s="15" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="M49" s="15" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="N49" s="14">
         <v>1</v>
@@ -6810,69 +6940,76 @@
         <v>0</v>
       </c>
       <c r="R49" s="15" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="S49" s="17">
         <v>45071</v>
       </c>
       <c r="T49" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="U49" s="14">
+        <v>0</v>
+      </c>
+      <c r="W49" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y49" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="U49" s="14">
-        <v>0</v>
-      </c>
-      <c r="W49" s="14">
-        <v>1</v>
-      </c>
-      <c r="Y49" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA49" s="14"/>
-      <c r="AC49" s="14"/>
-      <c r="AD49" s="14"/>
-      <c r="AG49" s="14">
-        <v>1</v>
-      </c>
-      <c r="AH49" s="18">
-        <v>0</v>
+      <c r="Z49" s="18" t="s">
+        <v>899</v>
+      </c>
+      <c r="AA49" s="21"/>
+      <c r="AB49" s="22">
+        <v>1</v>
+      </c>
+      <c r="AC49" s="18" t="s">
+        <v>904</v>
+      </c>
+      <c r="AE49" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF49" s="20" t="s">
+        <v>902</v>
       </c>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A50" s="3">
         <v>7708</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="E50" s="3">
         <v>2013</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="G50" s="3">
         <v>1</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J50" s="5" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="L50" s="5" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="M50" s="5" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="N50" s="3">
         <v>1</v>
@@ -6887,48 +7024,51 @@
         <v>0</v>
       </c>
       <c r="R50" s="5" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="S50" s="6">
         <v>45071</v>
       </c>
       <c r="T50" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="Y50" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U50" s="3">
-        <v>0</v>
-      </c>
-      <c r="V50" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="W50" s="3">
-        <v>0</v>
-      </c>
-      <c r="X50" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="Y50" s="5" t="s">
-        <v>45</v>
+      <c r="AE50" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A51" s="3">
         <v>512</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="E51" s="3">
         <v>2008</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="G51" s="3">
         <v>1</v>
@@ -6937,19 +7077,19 @@
         <v>2</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="K51" s="5" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="L51" s="5" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="M51" s="5" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="N51" s="3">
         <v>1</v>
@@ -6964,54 +7104,57 @@
         <v>0</v>
       </c>
       <c r="R51" s="5" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="S51" s="6">
         <v>45071</v>
       </c>
       <c r="T51" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="Y51" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U51" s="3">
-        <v>0</v>
-      </c>
-      <c r="V51" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="W51" s="3">
-        <v>0</v>
-      </c>
-      <c r="X51" s="5" t="s">
-        <v>487</v>
-      </c>
-      <c r="Y51" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD51" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE51" s="5" t="s">
-        <v>488</v>
+      <c r="AB51" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC51" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A52" s="3">
         <v>6376</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="E52" s="3">
         <v>2008</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="G52" s="3">
         <v>2</v>
@@ -7020,19 +7163,19 @@
         <v>62</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="K52" s="5" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="L52" s="5" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="M52" s="5" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="N52" s="3">
         <v>1</v>
@@ -7047,72 +7190,75 @@
         <v>0</v>
       </c>
       <c r="R52" s="5" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="S52" s="6">
         <v>45071</v>
       </c>
       <c r="T52" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="Y52" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U52" s="3">
-        <v>0</v>
-      </c>
-      <c r="V52" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="W52" s="3">
-        <v>0</v>
-      </c>
-      <c r="X52" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="Y52" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD52" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE52" s="5" t="s">
-        <v>436</v>
+      <c r="AB52" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC52" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="AE52" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A53" s="3">
         <v>10261</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="E53" s="3">
         <v>2014</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="H53" s="3">
         <v>34</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="K53" s="5" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="L53" s="5" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="M53" s="5" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="N53" s="3">
         <v>1</v>
@@ -7127,45 +7273,48 @@
         <v>0</v>
       </c>
       <c r="R53" s="5" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="S53" s="6">
         <v>45071</v>
       </c>
       <c r="T53" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="Y53" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U53" s="3">
-        <v>0</v>
-      </c>
-      <c r="W53" s="3">
-        <v>0</v>
-      </c>
-      <c r="X53" s="5" t="s">
-        <v>507</v>
-      </c>
-      <c r="Y53" s="5" t="s">
-        <v>45</v>
+      <c r="AE53" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A54" s="3">
         <v>1335</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="E54" s="3">
         <v>2021</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="G54" s="3">
         <v>1</v>
@@ -7174,16 +7323,16 @@
         <v>25</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="L54" s="5" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="M54" s="5" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="N54" s="3">
         <v>1</v>
@@ -7198,57 +7347,60 @@
         <v>0</v>
       </c>
       <c r="R54" s="5" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="S54" s="6">
         <v>45071</v>
       </c>
       <c r="T54" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+      <c r="W54" s="3">
+        <v>0</v>
+      </c>
+      <c r="X54" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="Y54" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U54" s="3">
-        <v>0</v>
-      </c>
-      <c r="W54" s="3">
-        <v>0</v>
-      </c>
-      <c r="X54" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="Y54" s="5" t="s">
-        <v>45</v>
+      <c r="AE54" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A55" s="3">
         <v>10139</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="E55" s="3">
         <v>2000</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="H55" s="3">
         <v>1</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="M55" s="5" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="N55" s="3">
         <v>0</v>
@@ -7266,42 +7418,45 @@
         <v>45071</v>
       </c>
       <c r="T55" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U55" s="3">
+        <v>0</v>
+      </c>
+      <c r="V55" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="W55" s="3">
+        <v>0</v>
+      </c>
+      <c r="X55" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="Y55" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U55" s="3">
-        <v>0</v>
-      </c>
-      <c r="V55" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="W55" s="3">
-        <v>0</v>
-      </c>
-      <c r="X55" s="5" t="s">
-        <v>525</v>
-      </c>
-      <c r="Y55" s="5" t="s">
-        <v>45</v>
+      <c r="AE55" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A56" s="3">
         <v>1941</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="E56" s="3">
         <v>2008</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="G56" s="3">
         <v>1</v>
@@ -7310,16 +7465,16 @@
         <v>4</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J56" s="5" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="L56" s="5" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="M56" s="5" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="N56" s="3">
         <v>1</v>
@@ -7334,45 +7489,48 @@
         <v>0</v>
       </c>
       <c r="R56" s="5" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="S56" s="6">
         <v>45071</v>
       </c>
       <c r="T56" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U56" s="3">
+        <v>0</v>
+      </c>
+      <c r="W56" s="3">
+        <v>0</v>
+      </c>
+      <c r="X56" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="Y56" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U56" s="3">
-        <v>0</v>
-      </c>
-      <c r="W56" s="3">
-        <v>0</v>
-      </c>
-      <c r="X56" s="5" t="s">
-        <v>534</v>
-      </c>
-      <c r="Y56" s="5" t="s">
-        <v>45</v>
+      <c r="AE56" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A57" s="3">
         <v>2796</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="E57" s="3">
         <v>1999</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="G57" s="3">
         <v>4</v>
@@ -7381,16 +7539,16 @@
         <v>147</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J57" s="5" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="L57" s="5" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="M57" s="5" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="N57" s="3">
         <v>1</v>
@@ -7405,69 +7563,70 @@
         <v>0</v>
       </c>
       <c r="R57" s="5" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="S57" s="6">
         <v>45071</v>
       </c>
       <c r="T57" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+      <c r="W57" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y57" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U57" s="3">
-        <v>0</v>
-      </c>
-      <c r="W57" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y57" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD57" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE57" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="AF57" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="AG57" s="3">
-        <v>1</v>
-      </c>
-      <c r="AH57" s="4">
-        <v>1</v>
+      <c r="Z57" s="18" t="s">
+        <v>899</v>
+      </c>
+      <c r="AB57" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC57" s="5" t="s">
+        <v>903</v>
+      </c>
+      <c r="AD57" s="5"/>
+      <c r="AE57" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF57" s="20" t="s">
+        <v>901</v>
       </c>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A58" s="3">
         <v>6622</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="E58" s="3">
         <v>2018</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="H58" s="3">
         <v>10</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J58" s="5" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="M58" s="5" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="N58" s="3">
         <v>1</v>
@@ -7482,61 +7641,61 @@
         <v>0</v>
       </c>
       <c r="R58" s="5" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="S58" s="6">
         <v>45071</v>
       </c>
       <c r="T58" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="W58" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y58" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
-      </c>
-      <c r="V58" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="W58" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y58" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="Z58" t="s">
-        <v>552</v>
-      </c>
-      <c r="AD58" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE58" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="AF58" s="5"/>
-      <c r="AG58" s="3">
-        <v>1</v>
-      </c>
-      <c r="AH58" s="4">
-        <v>0</v>
+        <v>541</v>
+      </c>
+      <c r="AB58" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC58" s="5" t="s">
+        <v>903</v>
+      </c>
+      <c r="AD58" s="5"/>
+      <c r="AE58" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF58" s="20" t="s">
+        <v>902</v>
       </c>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A59" s="3">
         <v>8597</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="E59" s="3">
         <v>2016</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="G59" s="3">
         <v>4</v>
@@ -7545,19 +7704,19 @@
         <v>13</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="K59" s="5" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="L59" s="5" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="M59" s="5" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="N59" s="3">
         <v>1</v>
@@ -7572,45 +7731,48 @@
         <v>0</v>
       </c>
       <c r="R59" s="5" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="S59" s="6">
         <v>45071</v>
       </c>
       <c r="T59" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+      <c r="X59" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="Y59" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U59" s="3">
-        <v>0</v>
-      </c>
-      <c r="W59" s="3">
-        <v>0</v>
-      </c>
-      <c r="X59" s="5" t="s">
-        <v>562</v>
-      </c>
-      <c r="Y59" s="5" t="s">
-        <v>45</v>
+      <c r="AE59" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A60" s="3">
         <v>2422</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="E60" s="3">
         <v>2015</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="G60" s="3">
         <v>2</v>
@@ -7619,16 +7781,16 @@
         <v>57</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="L60" s="5" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="M60" s="5" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="N60" s="3">
         <v>0</v>
@@ -7643,48 +7805,51 @@
         <v>0</v>
       </c>
       <c r="R60" s="5" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="S60" s="6">
         <v>45071</v>
       </c>
       <c r="T60" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+      <c r="V60" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+      <c r="X60" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="Y60" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U60" s="3">
-        <v>0</v>
-      </c>
-      <c r="V60" s="5" t="s">
-        <v>571</v>
-      </c>
-      <c r="W60" s="3">
-        <v>0</v>
-      </c>
-      <c r="X60" s="5" t="s">
-        <v>525</v>
-      </c>
-      <c r="Y60" s="5" t="s">
-        <v>45</v>
+      <c r="AE60" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A61" s="3">
         <v>9665</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="E61" s="3">
         <v>2015</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="G61" s="3">
         <v>2</v>
@@ -7693,16 +7858,16 @@
         <v>53</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="L61" s="5" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="M61" s="5" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="N61" s="3">
         <v>1</v>
@@ -7717,57 +7882,60 @@
         <v>0</v>
       </c>
       <c r="R61" s="5" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="S61" s="6">
         <v>45071</v>
       </c>
       <c r="T61" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="Y61" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
-      <c r="X61" s="5" t="s">
-        <v>579</v>
-      </c>
-      <c r="Y61" s="5" t="s">
-        <v>45</v>
+      <c r="AE61" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:34" ht="14" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:32" ht="14" x14ac:dyDescent="0.15">
       <c r="A62" s="3">
         <v>10043</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="E62" s="3">
         <v>2002</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="J62" s="5" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="L62" s="5" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="M62" s="5" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="N62" s="3">
         <v>1</v>
@@ -7782,48 +7950,51 @@
         <v>0</v>
       </c>
       <c r="R62" s="5" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="S62" s="6">
         <v>45071</v>
       </c>
       <c r="T62" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+      <c r="X62" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y62" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U62" s="3">
-        <v>0</v>
-      </c>
-      <c r="V62" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="W62" s="3">
-        <v>0</v>
-      </c>
-      <c r="X62" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Y62" s="5" t="s">
-        <v>45</v>
+      <c r="AE62" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A63" s="3">
         <v>7093</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="E63" s="3">
         <v>2022</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
       <c r="G63" s="3">
         <v>6</v>
@@ -7832,19 +8003,19 @@
         <v>4</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J63" s="5" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="K63" s="5" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
       <c r="L63" s="5" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="M63" s="5" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="N63" s="3">
         <v>1</v>
@@ -7859,57 +8030,60 @@
         <v>0</v>
       </c>
       <c r="R63" s="5" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
       <c r="S63" s="6">
         <v>45071</v>
       </c>
       <c r="T63" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="Y63" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U63" s="3">
-        <v>0</v>
-      </c>
-      <c r="W63" s="3">
-        <v>0</v>
-      </c>
-      <c r="X63" s="5" t="s">
-        <v>597</v>
-      </c>
-      <c r="Y63" s="5" t="s">
-        <v>45</v>
+      <c r="AE63" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A64" s="3">
         <v>7062</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="E64" s="3">
         <v>2022</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="J64" s="5" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
       <c r="L64" s="5" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="M64" s="5" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="N64" s="3">
         <v>1</v>
@@ -7924,45 +8098,48 @@
         <v>0</v>
       </c>
       <c r="R64" s="5" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="S64" s="6">
         <v>45071</v>
       </c>
       <c r="T64" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="Y64" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U64" s="3">
-        <v>0</v>
-      </c>
-      <c r="W64" s="3">
-        <v>0</v>
-      </c>
-      <c r="X64" s="5" t="s">
-        <v>605</v>
-      </c>
-      <c r="Y64" s="5" t="s">
-        <v>45</v>
+      <c r="AE64" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A65" s="3">
         <v>1400</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
       <c r="E65" s="3">
         <v>2018</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
       <c r="G65" s="3">
         <v>2</v>
@@ -7971,16 +8148,16 @@
         <v>22</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J65" s="5" t="s">
-        <v>610</v>
+        <v>599</v>
       </c>
       <c r="L65" s="5" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="M65" s="5" t="s">
-        <v>612</v>
+        <v>601</v>
       </c>
       <c r="N65" s="3">
         <v>1</v>
@@ -7995,60 +8172,63 @@
         <v>0</v>
       </c>
       <c r="R65" s="5" t="s">
-        <v>613</v>
+        <v>602</v>
       </c>
       <c r="S65" s="6">
         <v>45071</v>
       </c>
       <c r="T65" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="Y65" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U65" s="3">
-        <v>0</v>
-      </c>
-      <c r="W65" s="3">
-        <v>0</v>
-      </c>
-      <c r="X65" s="5" t="s">
-        <v>614</v>
-      </c>
-      <c r="Y65" s="5" t="s">
-        <v>45</v>
+      <c r="AE65" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:34" ht="14" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:32" ht="14" x14ac:dyDescent="0.15">
       <c r="A66" s="3">
         <v>255</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="E66" s="3">
         <v>2017</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="H66" s="3">
         <v>92</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J66" s="5" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="L66" s="5" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="M66" s="5" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="N66" s="3">
         <v>1</v>
@@ -8063,45 +8243,48 @@
         <v>0</v>
       </c>
       <c r="R66" s="5" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="S66" s="6">
         <v>45071</v>
       </c>
       <c r="T66" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U66" s="3">
+        <v>0</v>
+      </c>
+      <c r="W66" s="3">
+        <v>0</v>
+      </c>
+      <c r="X66" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y66" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U66" s="3">
-        <v>0</v>
-      </c>
-      <c r="W66" s="3">
-        <v>0</v>
-      </c>
-      <c r="X66" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Y66" s="5" t="s">
-        <v>45</v>
+      <c r="AE66" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:34" ht="14" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:32" ht="14" x14ac:dyDescent="0.15">
       <c r="A67" s="3">
         <v>2976</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
       <c r="E67" s="3">
         <v>2018</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="G67" s="3">
         <v>6</v>
@@ -8110,16 +8293,16 @@
         <v>66</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J67" s="5" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
       <c r="L67" s="5" t="s">
-        <v>627</v>
+        <v>616</v>
       </c>
       <c r="M67" s="5" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
       <c r="N67" s="3">
         <v>1</v>
@@ -8134,45 +8317,48 @@
         <v>0</v>
       </c>
       <c r="R67" s="5" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="S67" s="6">
         <v>45071</v>
       </c>
       <c r="T67" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U67" s="3">
+        <v>0</v>
+      </c>
+      <c r="W67" s="3">
+        <v>0</v>
+      </c>
+      <c r="X67" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y67" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U67" s="3">
-        <v>0</v>
-      </c>
-      <c r="W67" s="3">
-        <v>0</v>
-      </c>
-      <c r="X67" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Y67" s="5" t="s">
-        <v>45</v>
+      <c r="AE67" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A68" s="3">
         <v>1219</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>630</v>
+        <v>619</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="E68" s="3">
         <v>2021</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="G68" s="3">
         <v>3</v>
@@ -8181,16 +8367,16 @@
         <v>61</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J68" s="5" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
       <c r="L68" s="5" t="s">
-        <v>635</v>
+        <v>624</v>
       </c>
       <c r="M68" s="5" t="s">
-        <v>636</v>
+        <v>625</v>
       </c>
       <c r="N68" s="3">
         <v>1</v>
@@ -8205,64 +8391,73 @@
         <v>0</v>
       </c>
       <c r="R68" s="5" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
       <c r="S68" s="6">
         <v>45071</v>
       </c>
       <c r="T68" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y68" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U68" s="3">
-        <v>0</v>
-      </c>
-      <c r="W68" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y68" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF68" s="5"/>
-      <c r="AG68" s="3">
-        <v>1</v>
-      </c>
-      <c r="AH68" s="4">
-        <v>1</v>
+      <c r="Z68" s="18" t="s">
+        <v>541</v>
+      </c>
+      <c r="AB68" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC68" t="s">
+        <v>900</v>
+      </c>
+      <c r="AD68" s="5"/>
+      <c r="AE68" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF68" s="20" t="s">
+        <v>901</v>
       </c>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A69" s="3">
         <v>606</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>640</v>
+        <v>629</v>
       </c>
       <c r="E69" s="3">
         <v>2021</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="H69" s="3">
         <v>61</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J69" s="5" t="s">
-        <v>642</v>
+        <v>631</v>
       </c>
       <c r="L69" s="5" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
       <c r="M69" s="5" t="s">
-        <v>644</v>
+        <v>633</v>
       </c>
       <c r="N69" s="3">
         <v>1</v>
@@ -8277,63 +8472,66 @@
         <v>0</v>
       </c>
       <c r="R69" s="5" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="S69" s="6">
         <v>45071</v>
       </c>
       <c r="T69" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="Y69" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U69" s="3">
-        <v>0</v>
-      </c>
-      <c r="V69" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="W69" s="3">
-        <v>0</v>
-      </c>
-      <c r="X69" s="5" t="s">
-        <v>646</v>
-      </c>
-      <c r="Y69" s="5" t="s">
-        <v>45</v>
+      <c r="AE69" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A70" s="3">
         <v>6539</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
       <c r="E70" s="3">
         <v>2017</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
       <c r="G70" s="3">
         <v>2</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J70" s="5" t="s">
-        <v>651</v>
+        <v>640</v>
       </c>
       <c r="L70" s="5" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
       <c r="M70" s="5" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="N70" s="3">
         <v>1</v>
@@ -8348,57 +8546,60 @@
         <v>0</v>
       </c>
       <c r="R70" s="5" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="S70" s="6">
         <v>45071</v>
       </c>
       <c r="T70" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="Y70" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U70" s="3">
-        <v>0</v>
-      </c>
-      <c r="V70" s="5" t="s">
-        <v>655</v>
-      </c>
-      <c r="W70" s="3">
-        <v>0</v>
-      </c>
-      <c r="X70" s="5" t="s">
-        <v>655</v>
-      </c>
-      <c r="Y70" s="5" t="s">
-        <v>45</v>
+      <c r="AE70" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A71" s="3">
         <v>1066</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>656</v>
+        <v>645</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>657</v>
+        <v>646</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>658</v>
+        <v>647</v>
       </c>
       <c r="E71" s="3">
         <v>2007</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="J71" s="5" t="s">
-        <v>659</v>
+        <v>648</v>
       </c>
       <c r="L71" s="5" t="s">
-        <v>660</v>
+        <v>649</v>
       </c>
       <c r="M71" s="5" t="s">
-        <v>661</v>
+        <v>650</v>
       </c>
       <c r="N71" s="3">
         <v>1</v>
@@ -8413,45 +8614,48 @@
         <v>0</v>
       </c>
       <c r="R71" s="5" t="s">
-        <v>662</v>
+        <v>651</v>
       </c>
       <c r="S71" s="6">
         <v>45071</v>
       </c>
       <c r="T71" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="Y71" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U71" s="3">
-        <v>0</v>
-      </c>
-      <c r="W71" s="3">
-        <v>0</v>
-      </c>
-      <c r="X71" s="5" t="s">
-        <v>663</v>
-      </c>
-      <c r="Y71" s="5" t="s">
-        <v>45</v>
+      <c r="AE71" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A72" s="3">
         <v>1786</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>664</v>
+        <v>653</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>666</v>
+        <v>655</v>
       </c>
       <c r="E72" s="3">
         <v>2000</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>667</v>
+        <v>656</v>
       </c>
       <c r="G72" s="3">
         <v>4</v>
@@ -8460,19 +8664,19 @@
         <v>68</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J72" s="5" t="s">
-        <v>668</v>
+        <v>657</v>
       </c>
       <c r="K72" s="5" t="s">
-        <v>669</v>
+        <v>658</v>
       </c>
       <c r="L72" s="5" t="s">
-        <v>670</v>
+        <v>659</v>
       </c>
       <c r="M72" s="5" t="s">
-        <v>671</v>
+        <v>660</v>
       </c>
       <c r="N72" s="3">
         <v>1</v>
@@ -8487,45 +8691,48 @@
         <v>0</v>
       </c>
       <c r="R72" s="5" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="S72" s="6">
         <v>45071</v>
       </c>
       <c r="T72" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U72" s="3">
+        <v>0</v>
+      </c>
+      <c r="W72" s="3">
+        <v>0</v>
+      </c>
+      <c r="X72" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="Y72" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U72" s="3">
-        <v>0</v>
-      </c>
-      <c r="W72" s="3">
-        <v>0</v>
-      </c>
-      <c r="X72" s="5" t="s">
-        <v>663</v>
-      </c>
-      <c r="Y72" s="5" t="s">
-        <v>45</v>
+      <c r="AE72" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A73" s="3">
         <v>10040</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>673</v>
+        <v>662</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>674</v>
+        <v>663</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>675</v>
+        <v>664</v>
       </c>
       <c r="E73" s="3">
         <v>2017</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>676</v>
+        <v>665</v>
       </c>
       <c r="G73" s="3">
         <v>3</v>
@@ -8534,19 +8741,19 @@
         <v>7</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J73" s="5" t="s">
-        <v>677</v>
+        <v>666</v>
       </c>
       <c r="K73" s="5" t="s">
-        <v>678</v>
+        <v>667</v>
       </c>
       <c r="L73" s="5" t="s">
-        <v>679</v>
+        <v>668</v>
       </c>
       <c r="M73" s="5" t="s">
-        <v>680</v>
+        <v>669</v>
       </c>
       <c r="N73" s="3">
         <v>1</v>
@@ -8561,48 +8768,51 @@
         <v>0</v>
       </c>
       <c r="R73" s="5" t="s">
-        <v>681</v>
+        <v>670</v>
       </c>
       <c r="S73" s="6">
         <v>45071</v>
       </c>
       <c r="T73" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="Y73" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U73" s="3">
-        <v>0</v>
-      </c>
-      <c r="V73" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="W73" s="3">
-        <v>0</v>
-      </c>
-      <c r="X73" s="5" t="s">
-        <v>507</v>
-      </c>
-      <c r="Y73" s="5" t="s">
-        <v>45</v>
+      <c r="AE73" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A74" s="3">
         <v>1831</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>682</v>
+        <v>671</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>683</v>
+        <v>672</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>684</v>
+        <v>673</v>
       </c>
       <c r="E74" s="3">
         <v>2014</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="G74" s="3">
         <v>2</v>
@@ -8611,16 +8821,16 @@
         <v>50</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J74" s="5" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
       <c r="L74" s="5" t="s">
-        <v>686</v>
+        <v>675</v>
       </c>
       <c r="M74" s="5" t="s">
-        <v>687</v>
+        <v>676</v>
       </c>
       <c r="N74" s="3">
         <v>1</v>
@@ -8635,45 +8845,48 @@
         <v>0</v>
       </c>
       <c r="R74" s="5" t="s">
-        <v>688</v>
+        <v>677</v>
       </c>
       <c r="S74" s="6">
         <v>45076</v>
       </c>
       <c r="T74" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="Y74" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U74" s="3">
-        <v>0</v>
-      </c>
-      <c r="W74" s="3">
-        <v>0</v>
-      </c>
-      <c r="X74" s="5" t="s">
-        <v>663</v>
-      </c>
-      <c r="Y74" s="5" t="s">
-        <v>45</v>
+      <c r="AE74" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A75" s="3">
         <v>10516</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>689</v>
+        <v>678</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>690</v>
+        <v>679</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>691</v>
+        <v>680</v>
       </c>
       <c r="E75" s="3">
         <v>2022</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>692</v>
+        <v>681</v>
       </c>
       <c r="G75" s="3">
         <v>1</v>
@@ -8682,16 +8895,16 @@
         <v>14</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J75" s="5" t="s">
-        <v>693</v>
+        <v>682</v>
       </c>
       <c r="L75" s="5" t="s">
-        <v>694</v>
+        <v>683</v>
       </c>
       <c r="M75" s="5" t="s">
-        <v>695</v>
+        <v>684</v>
       </c>
       <c r="N75" s="3">
         <v>1</v>
@@ -8706,45 +8919,48 @@
         <v>0</v>
       </c>
       <c r="R75" s="5" t="s">
-        <v>694</v>
+        <v>683</v>
       </c>
       <c r="S75" s="6">
         <v>45076</v>
       </c>
       <c r="T75" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="Y75" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U75" s="3">
-        <v>0</v>
-      </c>
-      <c r="W75" s="3">
-        <v>0</v>
-      </c>
-      <c r="X75" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="Y75" s="5" t="s">
-        <v>45</v>
+      <c r="AE75" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A76" s="3">
         <v>577</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>697</v>
+        <v>686</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>698</v>
+        <v>687</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
       <c r="E76" s="3">
         <v>2019</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>700</v>
+        <v>689</v>
       </c>
       <c r="G76" s="3">
         <v>13</v>
@@ -8753,19 +8969,19 @@
         <v>26</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J76" s="5" t="s">
-        <v>701</v>
+        <v>690</v>
       </c>
       <c r="K76" s="5" t="s">
-        <v>702</v>
+        <v>691</v>
       </c>
       <c r="L76" s="5" t="s">
-        <v>703</v>
+        <v>692</v>
       </c>
       <c r="M76" s="5" t="s">
-        <v>704</v>
+        <v>693</v>
       </c>
       <c r="N76" s="3">
         <v>1</v>
@@ -8780,60 +8996,63 @@
         <v>0</v>
       </c>
       <c r="R76" s="5" t="s">
-        <v>705</v>
+        <v>694</v>
       </c>
       <c r="S76" s="6">
         <v>45076</v>
       </c>
       <c r="T76" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U76" s="3">
+        <v>0</v>
+      </c>
+      <c r="V76" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W76" s="3">
+        <v>0</v>
+      </c>
+      <c r="X76" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="Y76" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U76" s="3">
-        <v>0</v>
-      </c>
-      <c r="V76" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="W76" s="3">
-        <v>0</v>
-      </c>
-      <c r="X76" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="Y76" s="5" t="s">
-        <v>45</v>
+      <c r="AE76" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A77" s="3">
         <v>7647</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>706</v>
+        <v>695</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>707</v>
+        <v>696</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>708</v>
+        <v>697</v>
       </c>
       <c r="E77" s="3">
         <v>2019</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>709</v>
+        <v>698</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="J77" s="5" t="s">
-        <v>710</v>
+        <v>699</v>
       </c>
       <c r="L77" s="5" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
       <c r="M77" s="5" t="s">
-        <v>712</v>
+        <v>701</v>
       </c>
       <c r="N77" s="3">
         <v>1</v>
@@ -8848,67 +9067,70 @@
         <v>0</v>
       </c>
       <c r="R77" s="5" t="s">
-        <v>713</v>
+        <v>702</v>
       </c>
       <c r="S77" s="6">
         <v>45076</v>
       </c>
       <c r="T77" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W77" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y77" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U77" s="3">
-        <v>0</v>
-      </c>
-      <c r="V77" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="W77" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y77" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD77" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE77" s="5" t="s">
-        <v>714</v>
-      </c>
-      <c r="AF77" s="5"/>
-      <c r="AG77" s="3">
-        <v>1</v>
-      </c>
-      <c r="AH77" s="4">
-        <v>0</v>
+      <c r="Z77" s="18" t="s">
+        <v>898</v>
+      </c>
+      <c r="AB77" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC77" s="5" t="s">
+        <v>906</v>
+      </c>
+      <c r="AD77" s="5"/>
+      <c r="AE77" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF77" s="20" t="s">
+        <v>902</v>
       </c>
     </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A78" s="3">
         <v>7476</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>715</v>
+        <v>703</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>716</v>
+        <v>704</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>717</v>
+        <v>705</v>
       </c>
       <c r="E78" s="3">
         <v>2022</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>718</v>
+        <v>706</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="J78" s="5" t="s">
-        <v>719</v>
+        <v>707</v>
       </c>
       <c r="M78" s="5" t="s">
-        <v>720</v>
+        <v>708</v>
       </c>
       <c r="N78" s="3">
         <v>1</v>
@@ -8923,48 +9145,51 @@
         <v>0</v>
       </c>
       <c r="R78" s="5" t="s">
-        <v>721</v>
+        <v>709</v>
       </c>
       <c r="S78" s="6">
         <v>45076</v>
       </c>
       <c r="T78" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U78" s="3">
+        <v>0</v>
+      </c>
+      <c r="V78" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W78" s="3">
+        <v>0</v>
+      </c>
+      <c r="X78" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="Y78" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U78" s="3">
-        <v>0</v>
-      </c>
-      <c r="V78" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="W78" s="3">
-        <v>0</v>
-      </c>
-      <c r="X78" s="5" t="s">
-        <v>722</v>
-      </c>
-      <c r="Y78" s="5" t="s">
-        <v>45</v>
+      <c r="AE78" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A79" s="3">
         <v>1300</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>723</v>
+        <v>711</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>724</v>
+        <v>712</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>725</v>
+        <v>713</v>
       </c>
       <c r="E79" s="3">
         <v>2022</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="G79" s="3">
         <v>1</v>
@@ -8973,16 +9198,16 @@
         <v>6</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J79" s="5" t="s">
-        <v>727</v>
+        <v>715</v>
       </c>
       <c r="L79" s="5" t="s">
-        <v>728</v>
+        <v>716</v>
       </c>
       <c r="M79" s="5" t="s">
-        <v>729</v>
+        <v>717</v>
       </c>
       <c r="N79" s="3">
         <v>1</v>
@@ -8997,67 +9222,67 @@
         <v>0</v>
       </c>
       <c r="R79" s="5" t="s">
-        <v>730</v>
+        <v>718</v>
       </c>
       <c r="S79" s="6">
         <v>45076</v>
       </c>
       <c r="T79" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U79" s="3">
+        <v>0</v>
+      </c>
+      <c r="V79" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W79" s="3">
+        <v>0</v>
+      </c>
+      <c r="X79" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="Y79" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U79" s="3">
-        <v>0</v>
-      </c>
-      <c r="V79" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="W79" s="3">
-        <v>0</v>
-      </c>
-      <c r="X79" s="19" t="s">
-        <v>371</v>
-      </c>
-      <c r="Y79" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC79" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF79" s="5"/>
-      <c r="AG79" s="3">
-        <v>1</v>
-      </c>
-      <c r="AH79" s="4">
-        <v>0</v>
+      <c r="AA79" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD79" s="5"/>
+      <c r="AE79" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF79" s="20" t="s">
+        <v>902</v>
       </c>
     </row>
-    <row r="80" spans="1:34" ht="14" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:32" ht="14" x14ac:dyDescent="0.15">
       <c r="A80" s="3">
         <v>2896</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>732</v>
+        <v>720</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>733</v>
+        <v>721</v>
       </c>
       <c r="E80" s="3">
         <v>2017</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="J80" s="5" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="L80" s="5" t="s">
-        <v>735</v>
+        <v>723</v>
       </c>
       <c r="M80" s="5" t="s">
-        <v>736</v>
+        <v>724</v>
       </c>
       <c r="N80" s="3">
         <v>1</v>
@@ -9072,48 +9297,51 @@
         <v>0</v>
       </c>
       <c r="R80" s="5" t="s">
-        <v>737</v>
+        <v>725</v>
       </c>
       <c r="S80" s="6">
         <v>45076</v>
       </c>
       <c r="T80" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U80" s="3">
+        <v>0</v>
+      </c>
+      <c r="V80" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W80" s="3">
+        <v>0</v>
+      </c>
+      <c r="X80" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y80" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U80" s="3">
-        <v>0</v>
-      </c>
-      <c r="V80" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="W80" s="3">
-        <v>0</v>
-      </c>
-      <c r="X80" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Y80" s="5" t="s">
-        <v>45</v>
+      <c r="AE80" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A81" s="3">
         <v>7454</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>738</v>
+        <v>726</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>739</v>
+        <v>727</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>740</v>
+        <v>728</v>
       </c>
       <c r="E81" s="3">
         <v>2021</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>741</v>
+        <v>729</v>
       </c>
       <c r="G81" s="3">
         <v>2</v>
@@ -9122,19 +9350,19 @@
         <v>21</v>
       </c>
       <c r="I81" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J81" s="5" t="s">
-        <v>742</v>
+        <v>730</v>
       </c>
       <c r="K81" s="5" t="s">
-        <v>743</v>
+        <v>731</v>
       </c>
       <c r="L81" s="5" t="s">
-        <v>744</v>
+        <v>732</v>
       </c>
       <c r="M81" s="5" t="s">
-        <v>745</v>
+        <v>733</v>
       </c>
       <c r="N81" s="3">
         <v>1</v>
@@ -9149,63 +9377,66 @@
         <v>0</v>
       </c>
       <c r="R81" s="5" t="s">
-        <v>746</v>
+        <v>734</v>
       </c>
       <c r="S81" s="6">
         <v>45076</v>
       </c>
       <c r="T81" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="W81" s="3">
+        <v>0</v>
+      </c>
+      <c r="X81" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="Y81" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U81" s="3">
-        <v>0</v>
-      </c>
-      <c r="W81" s="3">
-        <v>0</v>
-      </c>
-      <c r="X81" s="5" t="s">
-        <v>747</v>
-      </c>
-      <c r="Y81" s="5" t="s">
-        <v>45</v>
+      <c r="AE81" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A82" s="3">
         <v>9198</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>748</v>
+        <v>736</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>749</v>
+        <v>737</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>750</v>
+        <v>738</v>
       </c>
       <c r="E82" s="3">
         <v>1989</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>751</v>
+        <v>739</v>
       </c>
       <c r="H82" s="3">
         <v>4</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J82" s="5" t="s">
-        <v>752</v>
+        <v>740</v>
       </c>
       <c r="K82" s="5" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="L82" s="5" t="s">
-        <v>754</v>
+        <v>742</v>
       </c>
       <c r="M82" s="5" t="s">
-        <v>755</v>
+        <v>743</v>
       </c>
       <c r="N82" s="3">
         <v>1</v>
@@ -9220,45 +9451,48 @@
         <v>0</v>
       </c>
       <c r="R82" s="5" t="s">
-        <v>756</v>
+        <v>744</v>
       </c>
       <c r="S82" s="6">
         <v>45076</v>
       </c>
       <c r="T82" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U82" s="3">
+        <v>0</v>
+      </c>
+      <c r="W82" s="3">
+        <v>0</v>
+      </c>
+      <c r="X82" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="Y82" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U82" s="3">
-        <v>0</v>
-      </c>
-      <c r="W82" s="3">
-        <v>0</v>
-      </c>
-      <c r="X82" s="5" t="s">
-        <v>757</v>
-      </c>
-      <c r="Y82" s="5" t="s">
-        <v>45</v>
+      <c r="AE82" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A83" s="3">
         <v>791</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>759</v>
+        <v>747</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>760</v>
+        <v>748</v>
       </c>
       <c r="E83" s="3">
         <v>2013</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>761</v>
+        <v>749</v>
       </c>
       <c r="G83" s="3">
         <v>1</v>
@@ -9267,16 +9501,16 @@
         <v>13</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J83" s="5" t="s">
-        <v>762</v>
+        <v>750</v>
       </c>
       <c r="L83" s="5" t="s">
-        <v>763</v>
+        <v>751</v>
       </c>
       <c r="M83" s="5" t="s">
-        <v>764</v>
+        <v>752</v>
       </c>
       <c r="N83" s="3">
         <v>1</v>
@@ -9291,65 +9525,68 @@
         <v>0</v>
       </c>
       <c r="R83" s="5" t="s">
-        <v>765</v>
+        <v>753</v>
       </c>
       <c r="S83" s="6">
         <v>45076</v>
       </c>
       <c r="T83" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="Y83" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U83" s="3">
-        <v>0</v>
-      </c>
-      <c r="W83" s="3">
-        <v>0</v>
-      </c>
-      <c r="X83" s="5" t="s">
-        <v>766</v>
-      </c>
-      <c r="Y83" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD83" s="3"/>
-      <c r="AE83" s="5"/>
+      <c r="AB83" s="3"/>
+      <c r="AC83" s="5"/>
+      <c r="AE83" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A84" s="3">
         <v>10391</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>767</v>
+        <v>755</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>768</v>
+        <v>756</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>769</v>
+        <v>757</v>
       </c>
       <c r="E84" s="3">
         <v>2015</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="H84" s="3">
         <v>52</v>
       </c>
       <c r="I84" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J84" s="5" t="s">
-        <v>770</v>
+        <v>758</v>
       </c>
       <c r="K84" s="5" t="s">
-        <v>771</v>
+        <v>759</v>
       </c>
       <c r="L84" s="5" t="s">
-        <v>772</v>
+        <v>760</v>
       </c>
       <c r="M84" s="5" t="s">
-        <v>773</v>
+        <v>761</v>
       </c>
       <c r="N84" s="3">
         <v>1</v>
@@ -9364,57 +9601,60 @@
         <v>0</v>
       </c>
       <c r="R84" s="5" t="s">
-        <v>774</v>
+        <v>762</v>
       </c>
       <c r="S84" s="6">
         <v>45076</v>
       </c>
       <c r="T84" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="Y84" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U84" s="3">
-        <v>0</v>
-      </c>
-      <c r="W84" s="3">
-        <v>0</v>
-      </c>
-      <c r="X84" s="5" t="s">
-        <v>507</v>
-      </c>
-      <c r="Y84" s="5" t="s">
-        <v>45</v>
+      <c r="AE84" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:34" ht="14" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:32" ht="14" x14ac:dyDescent="0.15">
       <c r="A85" s="3">
         <v>10316</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>775</v>
+        <v>763</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>776</v>
+        <v>764</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>777</v>
+        <v>765</v>
       </c>
       <c r="E85" s="3">
         <v>2007</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>778</v>
+        <v>766</v>
       </c>
       <c r="H85" s="3">
         <v>12</v>
       </c>
       <c r="I85" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J85" s="5" t="s">
-        <v>779</v>
+        <v>767</v>
       </c>
       <c r="M85" s="5" t="s">
-        <v>780</v>
+        <v>768</v>
       </c>
       <c r="N85" s="3">
         <v>1</v>
@@ -9429,57 +9669,60 @@
         <v>0</v>
       </c>
       <c r="R85" s="5" t="s">
-        <v>781</v>
+        <v>769</v>
       </c>
       <c r="S85" s="6">
         <v>45076</v>
       </c>
       <c r="T85" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y85" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U85" s="3">
-        <v>0</v>
-      </c>
-      <c r="V85" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="W85" s="3">
-        <v>0</v>
-      </c>
-      <c r="X85" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Y85" s="5" t="s">
-        <v>45</v>
+      <c r="AE85" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:34" ht="14" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:32" ht="14" x14ac:dyDescent="0.15">
       <c r="A86" s="3">
         <v>8760</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>782</v>
+        <v>770</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>783</v>
+        <v>771</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>784</v>
+        <v>772</v>
       </c>
       <c r="E86" s="3">
         <v>2015</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>785</v>
+        <v>773</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J86" s="5" t="s">
-        <v>786</v>
+        <v>774</v>
       </c>
       <c r="M86" s="5" t="s">
-        <v>787</v>
+        <v>775</v>
       </c>
       <c r="N86" s="3">
         <v>1</v>
@@ -9494,48 +9737,51 @@
         <v>0</v>
       </c>
       <c r="R86" s="5" t="s">
-        <v>788</v>
+        <v>776</v>
       </c>
       <c r="S86" s="6">
         <v>45076</v>
       </c>
       <c r="T86" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y86" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U86" s="3">
-        <v>0</v>
-      </c>
-      <c r="V86" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="W86" s="3">
-        <v>0</v>
-      </c>
-      <c r="X86" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Y86" s="5" t="s">
-        <v>45</v>
+      <c r="AE86" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:34" ht="14" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:32" ht="14" x14ac:dyDescent="0.15">
       <c r="A87" s="3">
         <v>7480</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>789</v>
+        <v>777</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>790</v>
+        <v>778</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>791</v>
+        <v>779</v>
       </c>
       <c r="E87" s="3">
         <v>2019</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>792</v>
+        <v>780</v>
       </c>
       <c r="G87" s="3">
         <v>1</v>
@@ -9544,13 +9790,13 @@
         <v>20</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J87" s="5" t="s">
-        <v>793</v>
+        <v>781</v>
       </c>
       <c r="M87" s="5" t="s">
-        <v>794</v>
+        <v>782</v>
       </c>
       <c r="N87" s="3">
         <v>1</v>
@@ -9565,48 +9811,51 @@
         <v>0</v>
       </c>
       <c r="R87" s="5" t="s">
-        <v>795</v>
+        <v>783</v>
       </c>
       <c r="S87" s="6">
         <v>45076</v>
       </c>
       <c r="T87" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y87" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U87" s="3">
-        <v>0</v>
-      </c>
-      <c r="V87" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="W87" s="3">
-        <v>0</v>
-      </c>
-      <c r="X87" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Y87" s="5" t="s">
-        <v>45</v>
+      <c r="AE87" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A88" s="3">
         <v>932</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>796</v>
+        <v>784</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>797</v>
+        <v>785</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>798</v>
+        <v>786</v>
       </c>
       <c r="E88" s="3">
         <v>2014</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>799</v>
+        <v>787</v>
       </c>
       <c r="G88" s="3">
         <v>4</v>
@@ -9615,16 +9864,16 @@
         <v>4</v>
       </c>
       <c r="I88" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J88" s="5" t="s">
-        <v>800</v>
+        <v>788</v>
       </c>
       <c r="L88" s="5" t="s">
-        <v>801</v>
+        <v>789</v>
       </c>
       <c r="M88" s="5" t="s">
-        <v>802</v>
+        <v>790</v>
       </c>
       <c r="N88" s="3">
         <v>1</v>
@@ -9639,48 +9888,51 @@
         <v>0</v>
       </c>
       <c r="R88" s="5" t="s">
-        <v>803</v>
+        <v>791</v>
       </c>
       <c r="S88" s="6">
         <v>45076</v>
       </c>
       <c r="T88" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="Y88" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U88" s="3">
-        <v>0</v>
-      </c>
-      <c r="V88" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="W88" s="3">
-        <v>0</v>
-      </c>
-      <c r="X88" s="5" t="s">
-        <v>804</v>
-      </c>
-      <c r="Y88" s="5" t="s">
-        <v>45</v>
+      <c r="AE88" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:34" ht="14" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:32" ht="14" x14ac:dyDescent="0.15">
       <c r="A89" s="3">
         <v>2404</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>805</v>
+        <v>793</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>806</v>
+        <v>794</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>807</v>
+        <v>795</v>
       </c>
       <c r="E89" s="3">
         <v>2020</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>808</v>
+        <v>796</v>
       </c>
       <c r="G89" s="3">
         <v>1</v>
@@ -9689,16 +9941,16 @@
         <v>17</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J89" s="5" t="s">
-        <v>809</v>
+        <v>797</v>
       </c>
       <c r="L89" s="5" t="s">
-        <v>810</v>
+        <v>798</v>
       </c>
       <c r="M89" s="5" t="s">
-        <v>811</v>
+        <v>799</v>
       </c>
       <c r="N89" s="3">
         <v>1</v>
@@ -9713,45 +9965,48 @@
         <v>0</v>
       </c>
       <c r="R89" s="5" t="s">
-        <v>812</v>
+        <v>800</v>
       </c>
       <c r="S89" s="6">
         <v>45076</v>
       </c>
       <c r="T89" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y89" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
-      <c r="W89" s="3">
-        <v>0</v>
-      </c>
-      <c r="X89" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Y89" s="5" t="s">
-        <v>45</v>
+      <c r="AE89" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A90" s="3">
         <v>935</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>813</v>
+        <v>801</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>814</v>
+        <v>802</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>815</v>
+        <v>803</v>
       </c>
       <c r="E90" s="3">
         <v>2013</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="G90" s="3">
         <v>8</v>
@@ -9760,16 +10015,16 @@
         <v>60</v>
       </c>
       <c r="I90" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J90" s="5" t="s">
-        <v>816</v>
+        <v>804</v>
       </c>
       <c r="L90" s="5" t="s">
-        <v>817</v>
+        <v>805</v>
       </c>
       <c r="M90" s="5" t="s">
-        <v>818</v>
+        <v>806</v>
       </c>
       <c r="N90" s="3">
         <v>1</v>
@@ -9784,45 +10039,48 @@
         <v>0</v>
       </c>
       <c r="R90" s="5" t="s">
-        <v>819</v>
+        <v>807</v>
       </c>
       <c r="S90" s="6">
         <v>45076</v>
       </c>
       <c r="T90" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U90" s="3">
+        <v>0</v>
+      </c>
+      <c r="W90" s="3">
+        <v>0</v>
+      </c>
+      <c r="X90" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="Y90" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U90" s="3">
-        <v>0</v>
-      </c>
-      <c r="W90" s="3">
-        <v>0</v>
-      </c>
-      <c r="X90" s="5" t="s">
-        <v>507</v>
-      </c>
-      <c r="Y90" s="5" t="s">
-        <v>45</v>
+      <c r="AE90" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A91" s="3">
         <v>9408</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>820</v>
+        <v>808</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>821</v>
+        <v>809</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>822</v>
+        <v>810</v>
       </c>
       <c r="E91" s="3">
         <v>2021</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>823</v>
+        <v>811</v>
       </c>
       <c r="G91" s="3">
         <v>4</v>
@@ -9831,19 +10089,19 @@
         <v>55</v>
       </c>
       <c r="I91" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J91" s="5" t="s">
-        <v>824</v>
+        <v>812</v>
       </c>
       <c r="K91" s="5" t="s">
-        <v>825</v>
+        <v>813</v>
       </c>
       <c r="L91" s="5" t="s">
-        <v>826</v>
+        <v>814</v>
       </c>
       <c r="M91" s="5" t="s">
-        <v>827</v>
+        <v>815</v>
       </c>
       <c r="N91" s="3">
         <v>1</v>
@@ -9858,45 +10116,48 @@
         <v>0</v>
       </c>
       <c r="R91" s="5" t="s">
-        <v>828</v>
+        <v>816</v>
       </c>
       <c r="S91" s="6">
         <v>45076</v>
       </c>
       <c r="T91" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y91" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
-      <c r="X91" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y91" s="5" t="s">
-        <v>45</v>
+      <c r="AE91" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A92" s="3">
         <v>5218</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>829</v>
+        <v>817</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>830</v>
+        <v>818</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>831</v>
+        <v>819</v>
       </c>
       <c r="E92" s="3">
         <v>2012</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>832</v>
+        <v>820</v>
       </c>
       <c r="G92" s="3">
         <v>1</v>
@@ -9905,16 +10166,16 @@
         <v>60</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J92" s="5" t="s">
-        <v>833</v>
+        <v>821</v>
       </c>
       <c r="L92" s="5" t="s">
-        <v>834</v>
+        <v>822</v>
       </c>
       <c r="M92" s="5" t="s">
-        <v>835</v>
+        <v>823</v>
       </c>
       <c r="N92" s="3">
         <v>1</v>
@@ -9929,66 +10190,73 @@
         <v>0</v>
       </c>
       <c r="R92" s="5" t="s">
-        <v>836</v>
+        <v>824</v>
       </c>
       <c r="S92" s="6">
         <v>45076</v>
       </c>
       <c r="T92" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="W92" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y92" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U92" s="3">
-        <v>0</v>
-      </c>
-      <c r="V92" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="W92" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y92" s="5" t="s">
-        <v>45</v>
+      <c r="Z92" s="18" t="s">
+        <v>899</v>
+      </c>
+      <c r="AB92" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC92" s="18" t="s">
+        <v>904</v>
+      </c>
+      <c r="AD92" s="19"/>
+      <c r="AE92" s="3">
+        <v>1</v>
       </c>
       <c r="AF92" s="20" t="s">
-        <v>912</v>
-      </c>
-      <c r="AG92" s="3">
-        <v>1</v>
-      </c>
-      <c r="AH92">
-        <v>0</v>
+        <v>902</v>
       </c>
     </row>
-    <row r="93" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A93" s="3">
         <v>9611</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>837</v>
+        <v>825</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>838</v>
+        <v>826</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>839</v>
+        <v>827</v>
       </c>
       <c r="E93" s="3">
         <v>2013</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>840</v>
+        <v>828</v>
       </c>
       <c r="I93" s="5" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="J93" s="5" t="s">
-        <v>841</v>
+        <v>829</v>
       </c>
       <c r="L93" s="5" t="s">
-        <v>842</v>
+        <v>830</v>
       </c>
       <c r="M93" s="5" t="s">
-        <v>843</v>
+        <v>831</v>
       </c>
       <c r="N93" s="3">
         <v>1</v>
@@ -10003,55 +10271,61 @@
         <v>0</v>
       </c>
       <c r="R93" s="5" t="s">
-        <v>842</v>
+        <v>830</v>
       </c>
       <c r="S93" s="6">
         <v>45076</v>
       </c>
       <c r="T93" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W93" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y93" s="5" t="s">
+        <v>832</v>
+      </c>
+      <c r="Z93" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U93" s="3">
-        <v>0</v>
-      </c>
-      <c r="V93" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="W93" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y93" s="5" t="s">
-        <v>844</v>
-      </c>
-      <c r="Z93" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF93" s="5"/>
-      <c r="AG93" s="3">
-        <v>1</v>
-      </c>
-      <c r="AH93" s="4">
-        <v>0</v>
+      <c r="AB93" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC93" s="18" t="s">
+        <v>905</v>
+      </c>
+      <c r="AD93" s="5"/>
+      <c r="AE93" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF93" s="20" t="s">
+        <v>902</v>
       </c>
     </row>
-    <row r="94" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A94" s="3">
         <v>5273</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>845</v>
+        <v>833</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>846</v>
+        <v>834</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>847</v>
+        <v>835</v>
       </c>
       <c r="E94" s="3">
         <v>2007</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>848</v>
+        <v>836</v>
       </c>
       <c r="G94" s="3">
         <v>3</v>
@@ -10060,16 +10334,16 @@
         <v>97</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J94" s="5" t="s">
-        <v>849</v>
+        <v>837</v>
       </c>
       <c r="L94" s="5" t="s">
-        <v>850</v>
+        <v>838</v>
       </c>
       <c r="M94" s="5" t="s">
-        <v>851</v>
+        <v>839</v>
       </c>
       <c r="N94" s="3">
         <v>1</v>
@@ -10084,69 +10358,67 @@
         <v>0</v>
       </c>
       <c r="R94" s="5" t="s">
-        <v>852</v>
+        <v>840</v>
       </c>
       <c r="S94" s="6">
         <v>45076</v>
       </c>
       <c r="T94" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W94" s="3">
+        <v>1</v>
+      </c>
+      <c r="X94" s="5" t="s">
+        <v>841</v>
+      </c>
+      <c r="Y94" s="5" t="s">
+        <v>832</v>
+      </c>
+      <c r="Z94" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
-      <c r="V94" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="W94" s="3">
-        <v>1</v>
-      </c>
-      <c r="X94" s="5" t="s">
-        <v>853</v>
-      </c>
-      <c r="Y94" s="5" t="s">
-        <v>844</v>
-      </c>
-      <c r="Z94" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="AA94" s="3">
         <v>1</v>
       </c>
-      <c r="AB94" s="5" t="s">
-        <v>854</v>
-      </c>
-      <c r="AC94" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF94" s="5" t="s">
-        <v>855</v>
-      </c>
-      <c r="AG94" s="3">
-        <v>1</v>
-      </c>
-      <c r="AH94" s="4">
-        <v>0</v>
+      <c r="AB94" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC94" s="18" t="s">
+        <v>905</v>
+      </c>
+      <c r="AD94" s="5"/>
+      <c r="AE94" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF94" s="20" t="s">
+        <v>902</v>
       </c>
     </row>
-    <row r="95" spans="1:34" ht="28" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:32" ht="28" x14ac:dyDescent="0.15">
       <c r="A95" s="3">
         <v>9535</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>856</v>
+        <v>842</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>857</v>
+        <v>843</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>858</v>
+        <v>844</v>
       </c>
       <c r="E95" s="3">
         <v>2010</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>859</v>
+        <v>845</v>
       </c>
       <c r="G95" s="3">
         <v>6</v>
@@ -10155,19 +10427,19 @@
         <v>32</v>
       </c>
       <c r="I95" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J95" s="5" t="s">
-        <v>860</v>
+        <v>846</v>
       </c>
       <c r="K95" s="5" t="s">
-        <v>861</v>
+        <v>847</v>
       </c>
       <c r="L95" s="5" t="s">
-        <v>862</v>
+        <v>848</v>
       </c>
       <c r="M95" s="5" t="s">
-        <v>863</v>
+        <v>849</v>
       </c>
       <c r="N95" s="3">
         <v>1</v>
@@ -10182,13 +10454,13 @@
         <v>0</v>
       </c>
       <c r="R95" s="5" t="s">
-        <v>864</v>
+        <v>850</v>
       </c>
       <c r="S95" s="6">
         <v>45076</v>
       </c>
       <c r="T95" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="U95" s="3">
         <v>0</v>
@@ -10197,39 +10469,42 @@
         <v>0</v>
       </c>
       <c r="X95" s="7" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="Y95" s="5" t="s">
-        <v>844</v>
+        <v>832</v>
+      </c>
+      <c r="AE95" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A96" s="3">
         <v>6368</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>865</v>
+        <v>851</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>866</v>
+        <v>852</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>867</v>
+        <v>853</v>
       </c>
       <c r="E96" s="3">
         <v>2014</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="J96" s="5" t="s">
-        <v>868</v>
+        <v>854</v>
       </c>
       <c r="L96" s="5" t="s">
-        <v>869</v>
+        <v>855</v>
       </c>
       <c r="M96" s="5" t="s">
-        <v>870</v>
+        <v>856</v>
       </c>
       <c r="N96" s="3">
         <v>1</v>
@@ -10244,13 +10519,13 @@
         <v>0</v>
       </c>
       <c r="R96" s="5" t="s">
-        <v>869</v>
+        <v>855</v>
       </c>
       <c r="S96" s="6">
         <v>45076</v>
       </c>
       <c r="T96" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="U96" s="3">
         <v>0</v>
@@ -10259,30 +10534,33 @@
         <v>0</v>
       </c>
       <c r="X96" s="5" t="s">
-        <v>871</v>
+        <v>857</v>
       </c>
       <c r="Y96" s="5" t="s">
-        <v>844</v>
+        <v>832</v>
+      </c>
+      <c r="AE96" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A97" s="3">
         <v>1070</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>872</v>
+        <v>858</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>873</v>
+        <v>859</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>874</v>
+        <v>860</v>
       </c>
       <c r="E97" s="3">
         <v>2006</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="G97" s="3">
         <v>6</v>
@@ -10291,16 +10569,16 @@
         <v>53</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J97" s="5" t="s">
-        <v>875</v>
+        <v>861</v>
       </c>
       <c r="L97" s="5" t="s">
-        <v>876</v>
+        <v>862</v>
       </c>
       <c r="M97" s="5" t="s">
-        <v>877</v>
+        <v>863</v>
       </c>
       <c r="N97" s="3">
         <v>1</v>
@@ -10315,13 +10593,13 @@
         <v>0</v>
       </c>
       <c r="R97" s="5" t="s">
-        <v>878</v>
+        <v>864</v>
       </c>
       <c r="S97" s="6">
         <v>45076</v>
       </c>
       <c r="T97" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="U97" s="3">
         <v>0</v>
@@ -10330,39 +10608,42 @@
         <v>0</v>
       </c>
       <c r="X97" s="5" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="Y97" s="5" t="s">
-        <v>844</v>
+        <v>832</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A98" s="3">
         <v>4709</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>879</v>
+        <v>865</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>880</v>
+        <v>866</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="E98" s="3">
         <v>2012</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="J98" s="5" t="s">
-        <v>882</v>
+        <v>868</v>
       </c>
       <c r="L98" s="5" t="s">
-        <v>883</v>
+        <v>869</v>
       </c>
       <c r="M98" s="5" t="s">
-        <v>884</v>
+        <v>870</v>
       </c>
       <c r="N98" s="3">
         <v>0</v>
@@ -10380,42 +10661,45 @@
         <v>45076</v>
       </c>
       <c r="T98" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="U98" s="3">
         <v>0</v>
       </c>
       <c r="V98" s="5" t="s">
-        <v>885</v>
+        <v>871</v>
       </c>
       <c r="W98" s="3">
         <v>0</v>
       </c>
       <c r="X98" s="5" t="s">
-        <v>886</v>
+        <v>872</v>
       </c>
       <c r="Y98" s="5" t="s">
-        <v>844</v>
+        <v>832</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A99" s="3">
         <v>137</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>887</v>
+        <v>873</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>888</v>
+        <v>874</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>889</v>
+        <v>875</v>
       </c>
       <c r="E99" s="3">
         <v>2014</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>700</v>
+        <v>689</v>
       </c>
       <c r="G99" s="3">
         <v>8</v>
@@ -10424,19 +10708,19 @@
         <v>21</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J99" s="5" t="s">
-        <v>890</v>
+        <v>876</v>
       </c>
       <c r="K99" s="5" t="s">
-        <v>891</v>
+        <v>877</v>
       </c>
       <c r="L99" s="5" t="s">
-        <v>892</v>
+        <v>878</v>
       </c>
       <c r="M99" s="5" t="s">
-        <v>893</v>
+        <v>879</v>
       </c>
       <c r="N99" s="3">
         <v>1</v>
@@ -10451,55 +10735,61 @@
         <v>0</v>
       </c>
       <c r="R99" s="5" t="s">
-        <v>894</v>
+        <v>880</v>
       </c>
       <c r="S99" s="6">
         <v>45076</v>
       </c>
       <c r="T99" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W99" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y99" s="5" t="s">
+        <v>832</v>
+      </c>
+      <c r="Z99" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U99" s="3">
-        <v>0</v>
-      </c>
-      <c r="V99" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="W99" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y99" s="5" t="s">
-        <v>844</v>
-      </c>
-      <c r="Z99" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF99" s="5"/>
-      <c r="AG99" s="3">
-        <v>1</v>
-      </c>
-      <c r="AH99" s="4">
-        <v>0</v>
+      <c r="AB99" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC99" s="18" t="s">
+        <v>905</v>
+      </c>
+      <c r="AD99" s="5"/>
+      <c r="AE99" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF99" s="20" t="s">
+        <v>902</v>
       </c>
     </row>
-    <row r="100" spans="1:34" ht="14" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:32" ht="14" x14ac:dyDescent="0.15">
       <c r="A100" s="3">
         <v>1213</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>895</v>
+        <v>881</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>896</v>
+        <v>882</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="E100" s="3">
         <v>2022</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>898</v>
+        <v>884</v>
       </c>
       <c r="G100" s="3">
         <v>6</v>
@@ -10508,16 +10798,16 @@
         <v>90</v>
       </c>
       <c r="I100" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J100" s="5" t="s">
-        <v>899</v>
+        <v>885</v>
       </c>
       <c r="L100" s="5" t="s">
-        <v>900</v>
+        <v>886</v>
       </c>
       <c r="M100" s="5" t="s">
-        <v>901</v>
+        <v>887</v>
       </c>
       <c r="N100" s="3">
         <v>1</v>
@@ -10532,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="R100" s="5" t="s">
-        <v>902</v>
+        <v>888</v>
       </c>
       <c r="S100" s="6">
         <v>45076</v>
       </c>
       <c r="T100" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="U100" s="3">
         <v>0</v>
@@ -10547,30 +10837,33 @@
         <v>0</v>
       </c>
       <c r="X100" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="Y100" s="5" t="s">
-        <v>844</v>
+        <v>832</v>
+      </c>
+      <c r="AE100" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A101" s="3">
         <v>1429</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>903</v>
+        <v>889</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>904</v>
+        <v>890</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>905</v>
+        <v>891</v>
       </c>
       <c r="E101" s="3">
         <v>2022</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>906</v>
+        <v>892</v>
       </c>
       <c r="G101" s="3">
         <v>2</v>
@@ -10579,16 +10872,16 @@
         <v>30</v>
       </c>
       <c r="I101" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J101" s="5" t="s">
-        <v>907</v>
+        <v>893</v>
       </c>
       <c r="L101" s="5" t="s">
-        <v>908</v>
+        <v>894</v>
       </c>
       <c r="M101" s="5" t="s">
-        <v>909</v>
+        <v>895</v>
       </c>
       <c r="N101" s="3">
         <v>1</v>
@@ -10603,13 +10896,13 @@
         <v>0</v>
       </c>
       <c r="R101" s="5" t="s">
-        <v>910</v>
+        <v>896</v>
       </c>
       <c r="S101" s="6">
         <v>45076</v>
       </c>
       <c r="T101" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="U101" s="3">
         <v>0</v>
@@ -10618,10 +10911,13 @@
         <v>0</v>
       </c>
       <c r="X101" s="5" t="s">
-        <v>911</v>
+        <v>897</v>
       </c>
       <c r="Y101" s="5" t="s">
-        <v>844</v>
+        <v>832</v>
+      </c>
+      <c r="AE101" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/study_search/database_search/processed/post_AS/packages_for_full_text_download/study_set_2.xlsx
+++ b/data/study_search/database_search/processed/post_AS/packages_for_full_text_download/study_set_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franzprante/GitHub/MORPEP/META_CMP/data/data/study_search/database_search/processed/post_AS/packages_for_full_text_download/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4355E798-3E13-914F-825A-305D5A62DE3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0BF0FDC-B3B3-D045-8FAC-517616A82741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="740" windowWidth="20520" windowHeight="16740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="760" windowWidth="29400" windowHeight="16780" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="908">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="908">
   <si>
     <t>record_id</t>
   </si>
@@ -3147,8 +3147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="118" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="AC12" sqref="AC12"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="118" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="X23" sqref="X23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4958,6 +4958,9 @@
       <c r="W23" s="3">
         <v>0</v>
       </c>
+      <c r="X23" s="18" t="s">
+        <v>127</v>
+      </c>
       <c r="Y23" s="5" t="s">
         <v>43</v>
       </c>
